--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,13 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
-    <sheet name="Anual" sheetId="3" r:id="rId2"/>
-    <sheet name="Modelo" sheetId="2" r:id="rId3"/>
+    <sheet name="Fev" sheetId="10" r:id="rId2"/>
+    <sheet name="Mar" sheetId="11" r:id="rId3"/>
+    <sheet name="Abr" sheetId="12" r:id="rId4"/>
+    <sheet name="Mai" sheetId="13" r:id="rId5"/>
+    <sheet name="Jun" sheetId="14" r:id="rId6"/>
+    <sheet name="Jul" sheetId="4" r:id="rId7"/>
+    <sheet name="Ago" sheetId="5" r:id="rId8"/>
+    <sheet name="Set" sheetId="6" r:id="rId9"/>
+    <sheet name="Out" sheetId="7" r:id="rId10"/>
+    <sheet name="Nov" sheetId="8" r:id="rId11"/>
+    <sheet name="Dez" sheetId="9" r:id="rId12"/>
+    <sheet name="Anual" sheetId="3" r:id="rId13"/>
+    <sheet name="Modelo" sheetId="2" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="Alimentação">Modelo!$N$4:$N$8</definedName>
+    <definedName name="Despesas">Modelo!$N$19:$N$25</definedName>
+    <definedName name="Educação">Modelo!$N$44:$N$50</definedName>
+    <definedName name="Imprevistos">Modelo!$N$60:$N$66</definedName>
+    <definedName name="Lazer">Modelo!$N$10:$N$17</definedName>
+    <definedName name="Moradia">Modelo!$N$28:$N$34</definedName>
+    <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
+    <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="101">
   <si>
     <t>entradas</t>
   </si>
@@ -136,15 +157,9 @@
     <t>Lazer</t>
   </si>
   <si>
-    <t>Despesas Diversas</t>
-  </si>
-  <si>
     <t>Moradia</t>
   </si>
   <si>
-    <t>Trasnporte</t>
-  </si>
-  <si>
     <t>Educação</t>
   </si>
   <si>
@@ -157,176 +172,6 @@
     <t>Sub-tópicos</t>
   </si>
   <si>
-    <t>1. Cinema / Shows</t>
-  </si>
-  <si>
-    <t>2. Passeios / Viagens</t>
-  </si>
-  <si>
-    <t>3. Assinaturas (Netflix, Spotify)</t>
-  </si>
-  <si>
-    <t>4. Jogos / Games / Aplicativos pagos</t>
-  </si>
-  <si>
-    <t>5. Saídas com amigos</t>
-  </si>
-  <si>
-    <t>6. Compras por impulso (não essenciais)</t>
-  </si>
-  <si>
-    <t>🧾 Despesas Diversas</t>
-  </si>
-  <si>
-    <t>1. Presentes e datas comemorativas</t>
-  </si>
-  <si>
-    <t>2. Doações / Contribuições</t>
-  </si>
-  <si>
-    <t>3. Taxas bancárias / Pix por engano</t>
-  </si>
-  <si>
-    <t>4. Compras online aleatórias</t>
-  </si>
-  <si>
-    <t>5. Manutenção da casa (lâmpada, pilha, etc)</t>
-  </si>
-  <si>
-    <t>6. Gastos pessoais (roupas, acessórios)</t>
-  </si>
-  <si>
-    <t>🏠 Moradia</t>
-  </si>
-  <si>
-    <t>1. Aluguel / Financiamento</t>
-  </si>
-  <si>
-    <t>2. Condomínio</t>
-  </si>
-  <si>
-    <t>3. Conta de luz</t>
-  </si>
-  <si>
-    <t>4. Conta de água</t>
-  </si>
-  <si>
-    <t>5. Gás de cozinha</t>
-  </si>
-  <si>
-    <t>6. Internet / Wi-Fi</t>
-  </si>
-  <si>
-    <t>🚗 Transporte</t>
-  </si>
-  <si>
-    <t>1. Combustível (gasolina, etanol)</t>
-  </si>
-  <si>
-    <t>2. Uber / Táxi</t>
-  </si>
-  <si>
-    <t>3. Ônibus / Metrô</t>
-  </si>
-  <si>
-    <t>4. Estacionamento</t>
-  </si>
-  <si>
-    <t>5. Manutenção (óleo, pneu, etc)</t>
-  </si>
-  <si>
-    <t>6. Multas / Documentação</t>
-  </si>
-  <si>
-    <t>📚 Educação</t>
-  </si>
-  <si>
-    <t>1. Mensalidade de curso / escola</t>
-  </si>
-  <si>
-    <t>2. Cursos online (Udemy, Alura, etc)</t>
-  </si>
-  <si>
-    <t>3. Material escolar / didático</t>
-  </si>
-  <si>
-    <t>4. Livros e apostilas</t>
-  </si>
-  <si>
-    <t>5. Internet dedicada para estudos</t>
-  </si>
-  <si>
-    <t>6. Plataformas de aprendizado (Duolingo, ChatGPT Plus)</t>
-  </si>
-  <si>
-    <t>❤️ Saúde</t>
-  </si>
-  <si>
-    <t>1. Medicamentos</t>
-  </si>
-  <si>
-    <t>2. Consultas médicas / exames</t>
-  </si>
-  <si>
-    <t>3. Plano de saúde</t>
-  </si>
-  <si>
-    <t>4. Óculos / lentes</t>
-  </si>
-  <si>
-    <t>5. Academia / Personal trainer</t>
-  </si>
-  <si>
-    <t>6. Produtos de higiene e cuidados pessoais</t>
-  </si>
-  <si>
-    <t>⚠️ Imprevistos</t>
-  </si>
-  <si>
-    <t>1. Emergência médica ou odontológica</t>
-  </si>
-  <si>
-    <t>2. Equipamento quebrado (celular, notebook)</t>
-  </si>
-  <si>
-    <t>3. Perda de documentos / taxas</t>
-  </si>
-  <si>
-    <t>4. Atrasos em contas com juros</t>
-  </si>
-  <si>
-    <t>5. Conserto urgente (casa, carro, etc)</t>
-  </si>
-  <si>
-    <t>6. Ajuda financeira a alguém (urgente)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Se quiser posso organizar isso em uma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planilha automática no Excel ou Google Sheets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, já formatada para controle mensal. Deseja isso?</t>
-    </r>
-  </si>
-  <si>
     <t>Supermercado</t>
   </si>
   <si>
@@ -340,6 +185,171 @@
   </si>
   <si>
     <t>Delivery (iFood, etc)</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEZ</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>Cinema / Shows</t>
+  </si>
+  <si>
+    <t>Passeios / Viagens</t>
+  </si>
+  <si>
+    <t>Assinaturas (Netflix, Spotify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jogos / Games / Aplicativos pagos</t>
+  </si>
+  <si>
+    <t>Saídas com amigos</t>
+  </si>
+  <si>
+    <t>Compras por impulso (não essenciais)</t>
+  </si>
+  <si>
+    <t>Doações / Contribuições</t>
+  </si>
+  <si>
+    <t>Taxas bancárias / Pix por engano</t>
+  </si>
+  <si>
+    <t>Compras online aleatórias</t>
+  </si>
+  <si>
+    <t>Manutenção da casa (lâmpada, pilha, etc)</t>
+  </si>
+  <si>
+    <t>Gastos pessoais (roupas, acessórios)</t>
+  </si>
+  <si>
+    <t>Presentes e datas comemorativas</t>
+  </si>
+  <si>
+    <t>Aluguel / Financiamento</t>
+  </si>
+  <si>
+    <t>Condomínio</t>
+  </si>
+  <si>
+    <t>Conta de luz</t>
+  </si>
+  <si>
+    <t>Conta de água</t>
+  </si>
+  <si>
+    <t>Gás de cozinha</t>
+  </si>
+  <si>
+    <t>Internet / Wi-Fi</t>
+  </si>
+  <si>
+    <t>Combustível (gasolina, etanol)</t>
+  </si>
+  <si>
+    <t>Uber / Táxi</t>
+  </si>
+  <si>
+    <t>Ônibus / Metrô</t>
+  </si>
+  <si>
+    <t>Estacionamento</t>
+  </si>
+  <si>
+    <t>Manutenção (óleo, pneu, etc)</t>
+  </si>
+  <si>
+    <t>Multas / Documentação</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Mensalidade de curso / escola</t>
+  </si>
+  <si>
+    <t>Cursos online (Udemy, Alura, etc)</t>
+  </si>
+  <si>
+    <t>Material escolar / didático</t>
+  </si>
+  <si>
+    <t>Livros e apostilas</t>
+  </si>
+  <si>
+    <t>Internet dedicada para estudos</t>
+  </si>
+  <si>
+    <t>Medicamentos</t>
+  </si>
+  <si>
+    <t>Consultas médicas / exames</t>
+  </si>
+  <si>
+    <t>Plano de saúde</t>
+  </si>
+  <si>
+    <t>Óculos / lentes</t>
+  </si>
+  <si>
+    <t>Academia / Personal trainer</t>
+  </si>
+  <si>
+    <t>Produtos de higiene e cuidados pessoais</t>
+  </si>
+  <si>
+    <t>Equipamento quebrado (celular, notebook)</t>
+  </si>
+  <si>
+    <t>Emergência médica ou odontológica</t>
+  </si>
+  <si>
+    <t>Perda de documentos / taxas</t>
+  </si>
+  <si>
+    <t>Atrasos em contas com juros</t>
+  </si>
+  <si>
+    <t>Conserto urgente (casa, carro, etc)</t>
+  </si>
+  <si>
+    <t>Ajuda financeira a alguém (urgente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plataformas de aprendizado </t>
+  </si>
+  <si>
+    <t>Ingresso par aProjeto Sola</t>
+  </si>
+  <si>
+    <t>Despesas</t>
   </si>
 </sst>
 </file>
@@ -349,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,16 +382,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +480,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1004,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1041,18 +1049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1119,40 +1115,10 @@
     <xf numFmtId="44" fontId="0" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="13" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="15" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="14" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="14" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,11 +1163,32 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1492,10 +1479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,27 +1508,27 @@
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="F3" s="44">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
         <f>SUM(D3:D7)</f>
         <v>0</v>
       </c>
@@ -1551,35 +1541,35 @@
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="31"/>
-      <c r="F4" s="43">
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
         <f>SUM(F11:F32)</f>
         <v>0</v>
       </c>
       <c r="I4" s="16">
         <f ca="1">TODAY()</f>
-        <v>45847</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="F5" s="42">
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
         <f>SUM(K11:K22)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="32"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="34"/>
       <c r="I6" s="15">
         <v>45847</v>
       </c>
@@ -1587,28 +1577,28 @@
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="45">
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
         <f>F3-F4-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1640,206 +1630,206 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="39"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="40"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="40"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="40"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="40"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="40"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="40"/>
-      <c r="H17" s="24"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="40"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="40"/>
-      <c r="H19" s="24"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="40"/>
-      <c r="H21" s="24"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="40"/>
-      <c r="H22" s="25"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="40"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="40"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="40"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="40"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="41"/>
+      <c r="F32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1847,164 +1837,423 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N7"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.7109375" style="66" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>509.5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Set!F7</f>
+        <v>509.5</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>509.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O119"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,143 +2271,109 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="36" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="F3" s="44">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
         <f>SUM(D3:D7)</f>
-        <v>0</v>
+        <v>509.5</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="31"/>
-      <c r="F4" s="43">
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
         <f>SUM(F11:F32)</f>
         <v>0</v>
       </c>
       <c r="I4" s="16">
         <f ca="1">TODAY()</f>
-        <v>45847</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="F5" s="42">
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
         <f>SUM(K11:K22)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="32"/>
-      <c r="F6" s="38"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Out!F7</f>
+        <v>509.5</v>
+      </c>
+      <c r="F6" s="34"/>
       <c r="I6" s="15">
         <v>45847</v>
       </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="45">
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
         <f>F3-F4-F5</f>
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="73"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+        <v>509.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2186,539 +2401,1572 @@
       <c r="K10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="39"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="13"/>
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="40"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
-      <c r="O12" s="73"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="40"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
-      <c r="O13" s="73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="40"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
-      <c r="O14" s="73"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="40"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
-      <c r="O15" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="40"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
-      <c r="O16" s="73"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="40"/>
-      <c r="H17" s="24"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
-      <c r="O17" s="73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="40"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
-      <c r="O18" s="73"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="40"/>
-      <c r="H19" s="24"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
-      <c r="O19" s="73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="40"/>
-      <c r="H21" s="24"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="40"/>
-      <c r="H22" s="25"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="40"/>
-      <c r="O23" s="72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="40"/>
-      <c r="O24" s="73"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="40"/>
-      <c r="O25" s="73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="40"/>
-      <c r="O26" s="73"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="40"/>
-      <c r="O27" s="73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="40"/>
-      <c r="O28" s="73"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="40"/>
-      <c r="O29" s="73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="40"/>
-      <c r="O30" s="73"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="40"/>
-      <c r="O31" s="73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="41"/>
-      <c r="O32" s="73"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O33" s="73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O34" s="73"/>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O35" s="73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="15:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="O39" s="72" t="s">
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>509.5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Nov!F7</f>
+        <v>509.5</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>509.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.7109375" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="44">
+        <f>Jan!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="43">
+        <f>Fev!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="43">
+        <f>Mar!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="43">
+        <f>Abr!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="43">
+        <f>Mai!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="43">
+        <f>Jun!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
+        <f>Jul!$F$3</f>
+        <v>566.5</v>
+      </c>
+      <c r="J3" s="43">
+        <f>Ago!$F$3</f>
+        <v>509.5</v>
+      </c>
+      <c r="K3" s="43">
+        <f>Set!$F$3</f>
+        <v>509.5</v>
+      </c>
+      <c r="L3" s="43">
+        <f>Out!$F$3</f>
+        <v>509.5</v>
+      </c>
+      <c r="M3" s="43">
+        <f>Nov!$F$3</f>
+        <v>509.5</v>
+      </c>
+      <c r="N3" s="43">
+        <f>Dez!$F$3</f>
+        <v>509.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="45">
+        <f>Jan!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="45">
+        <f>Fev!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
+        <f>Mar!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="45">
+        <f>Abr!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="45">
+        <f>Mai!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <f>Jun!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="45">
+        <f>Jul!$F$4</f>
+        <v>57</v>
+      </c>
+      <c r="J4" s="45">
+        <f>Ago!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="45">
+        <f>Set!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="45">
+        <f>Out!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="45">
+        <f>Nov!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="45">
+        <f>Dez!$F$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="46">
+        <f>Jan!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="46">
+        <f>Fev!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="46">
+        <f>Mar!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="46">
+        <f>Abr!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="46">
+        <f>Mai!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="46">
+        <f>Jun!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="46">
+        <f>Jul!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="46">
+        <f>Ago!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="46">
+        <f>Set!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="46">
+        <f>Out!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="46">
+        <f>Nov!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="46">
+        <f>Dez!$F$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="47">
+        <f>C4+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="47">
+        <f t="shared" ref="D6:N6" si="0">D4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="47">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="J6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="48">
+        <f>C3-C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="48">
+        <f t="shared" ref="D7:N7" si="1">D3-D6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="48">
+        <f t="shared" si="1"/>
+        <v>509.5</v>
+      </c>
+      <c r="J7" s="48">
+        <f t="shared" si="1"/>
+        <v>509.5</v>
+      </c>
+      <c r="K7" s="48">
+        <f t="shared" si="1"/>
+        <v>509.5</v>
+      </c>
+      <c r="L7" s="48">
+        <f t="shared" si="1"/>
+        <v>509.5</v>
+      </c>
+      <c r="M7" s="48">
+        <f t="shared" si="1"/>
+        <v>509.5</v>
+      </c>
+      <c r="N7" s="48">
+        <f t="shared" si="1"/>
+        <v>509.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+      <c r="M4" s="61" t="str">
+        <f>P3</f>
+        <v>Alimentação</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="59"/>
+      <c r="P8" s="61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="N9" s="58"/>
+      <c r="P9" s="61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="61" t="str">
+        <f>P4</f>
+        <v>Lazer</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O40" s="73"/>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O41" s="73" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="N12" s="59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="73"/>
-    </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="73" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="N13" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O44" s="73"/>
-    </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O45" s="73" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="N14" s="59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O46" s="73"/>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O47" s="73" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="N15" s="59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O48" s="73"/>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="73" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="N16" s="59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O50" s="73"/>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="73" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="N17" s="60"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="61" t="str">
+        <f>P5</f>
+        <v>Despesas</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="N20" s="59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="15:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="O55" s="72" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="N21" s="59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="73"/>
-    </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O57" s="73" t="s">
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="N22" s="59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O58" s="73"/>
-    </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O59" s="73" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+      <c r="N23" s="59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O60" s="73"/>
-    </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O61" s="73" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+      <c r="N24" s="59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O62" s="73"/>
-    </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O63" s="73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O64" s="73"/>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O65" s="73" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+      <c r="N25" s="60"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+      <c r="M28" s="61" t="str">
+        <f>P6</f>
+        <v>Moradia</v>
+      </c>
+      <c r="N28" s="59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O66" s="73"/>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O67" s="73" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+      <c r="N29" s="59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="15:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="O71" s="72" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+      <c r="N30" s="59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O72" s="73"/>
-    </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O73" s="73" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+      <c r="N31" s="59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O74" s="73"/>
-    </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O75" s="73" t="s">
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+      <c r="N32" s="59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O76" s="73"/>
-    </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O77" s="73" t="s">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O78" s="73"/>
-    </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O79" s="73" t="s">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="60"/>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="61" t="str">
+        <f>P7</f>
+        <v>Transporte</v>
+      </c>
+      <c r="N36" s="59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O80" s="73"/>
-    </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O81" s="73" t="s">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="59" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O82" s="73"/>
-    </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O83" s="73" t="s">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="15:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="O87" s="72" t="s">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="59" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O88" s="73"/>
-    </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O89" s="73" t="s">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O90" s="73"/>
-    </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O91" s="73" t="s">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O92" s="73"/>
-    </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O93" s="73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O94" s="73"/>
-    </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O95" s="73" t="s">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="60"/>
+    </row>
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="61" t="str">
+        <f>P8</f>
+        <v>Educação</v>
+      </c>
+      <c r="N44" s="63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O96" s="73"/>
-    </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O97" s="73" t="s">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O98" s="73"/>
-    </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O99" s="73" t="s">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="63" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="15:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="O103" s="72" t="s">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O104" s="73"/>
-    </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O105" s="73" t="s">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O106" s="73"/>
-    </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O107" s="73" t="s">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="62"/>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M52" s="61" t="str">
+        <f>P9</f>
+        <v>Saúde</v>
+      </c>
+      <c r="N52" s="59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O108" s="73"/>
-    </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O109" s="73" t="s">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O110" s="73"/>
-    </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O111" s="73" t="s">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O112" s="73"/>
-    </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O113" s="73" t="s">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="59" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O114" s="73"/>
-    </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O115" s="73" t="s">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O119" t="s">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="59" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="60"/>
+    </row>
+    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M60" s="61" t="str">
+        <f>P10</f>
+        <v>Imprevistos</v>
+      </c>
+      <c r="N60" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2728,4 +3976,3102 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Jan!F7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Fev!F7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Mar!F7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Abr!F7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Mai!F7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>566.5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27">
+        <f>5.47+511.03+50</f>
+        <v>566.5</v>
+      </c>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>57</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>509.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
+        <v>45862</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="35">
+        <v>57</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>509.5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Jul!F7</f>
+        <v>509.5</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>509.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="40">
+        <f>SUM(D3:D7)</f>
+        <v>509.5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="39">
+        <f>SUM(F11:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="38">
+        <f>SUM(K11:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
+        <f>Ago!F7</f>
+        <v>509.5</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="I6" s="15">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="41">
+        <f>F3-F4-F5</f>
+        <v>509.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="36"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+      <formula1>INDIRECT(C11)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Modelo!$P$3:$P$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43785713-5FBE-4D3E-814B-ABA45E7E43B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF5FA6E-911F-41CC-BDAD-3E5ACDAC5351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="12" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="107">
   <si>
     <t>JAN</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>AGO</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>plano internet claro</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Parcla de cell</t>
   </si>
   <si>
     <t>SET</t>
@@ -374,8 +386,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1030,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1207,6 +1220,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1565,7 +1581,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -1904,7 +1920,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -1928,7 +1944,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -1946,7 +1962,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -1970,7 +1986,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Set!F7</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -1983,7 +1999,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -2289,7 +2305,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2313,7 +2329,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2331,7 +2347,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -2355,7 +2371,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2368,7 +2384,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -2674,7 +2690,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2698,7 +2714,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2716,7 +2732,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -2740,7 +2756,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2753,7 +2769,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -3048,48 +3064,48 @@
     <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="B2" s="55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" s="43">
         <f>Jan!$F$3</f>
@@ -3125,24 +3141,24 @@
       </c>
       <c r="K3" s="42">
         <f>Set!$F$3</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="49" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" s="44">
         <f>Jan!$F$4</f>
@@ -3195,7 +3211,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="45">
         <f>Jan!$F$5</f>
@@ -3227,7 +3243,7 @@
       </c>
       <c r="J5" s="45">
         <f>Ago!$F$5</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K5" s="45">
         <f>Set!$F$5</f>
@@ -3248,7 +3264,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C6" s="46">
         <f>C4+C5</f>
@@ -3280,7 +3296,7 @@
       </c>
       <c r="J6" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K6" s="46">
         <f t="shared" si="0"/>
@@ -3333,23 +3349,23 @@
       </c>
       <c r="J7" s="47">
         <f t="shared" si="1"/>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
     </row>
   </sheetData>
@@ -3413,13 +3429,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N3" s="56" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1">
@@ -3434,14 +3450,14 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
         <v>Alimentação</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P4" s="60" t="s">
         <v>22</v>
@@ -3461,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P5" s="60" t="s">
         <v>28</v>
@@ -3476,10 +3492,10 @@
         <v>45847</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1">
@@ -3491,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P7" s="60" t="s">
         <v>25</v>
@@ -3500,7 +3516,7 @@
     <row r="8" spans="2:16" ht="15.75" thickBot="1">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1">
@@ -3519,7 +3535,7 @@
       <c r="K9" s="66"/>
       <c r="N9" s="57"/>
       <c r="P9" s="60" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1">
@@ -3555,10 +3571,10 @@
         <v>Lazer</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -3586,7 +3602,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="N12" s="58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -3600,7 +3616,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="N13" s="58" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -3614,7 +3630,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="N14" s="58" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -3628,7 +3644,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="N15" s="58" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -3642,7 +3658,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="N16" s="58" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -3697,7 +3713,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="N20" s="58" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -3711,7 +3727,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="N21" s="58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" thickBot="1">
@@ -3725,7 +3741,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="N22" s="58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -3735,7 +3751,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
       <c r="N23" s="58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -3745,7 +3761,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
       <c r="N24" s="58" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -3781,7 +3797,7 @@
         <v>Moradia</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -3791,7 +3807,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
       <c r="N29" s="58" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:14">
@@ -3801,7 +3817,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
       <c r="N30" s="58" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:14">
@@ -3811,7 +3827,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
       <c r="N31" s="58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15.75" thickBot="1">
@@ -3821,12 +3837,12 @@
       <c r="E32" s="9"/>
       <c r="F32" s="36"/>
       <c r="N32" s="58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="13:14">
       <c r="N33" s="58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="13:14">
@@ -3838,27 +3854,27 @@
         <v>Transporte</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="13:14">
       <c r="N37" s="58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="13:14">
       <c r="N38" s="58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="13:14">
       <c r="N39" s="58" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="13:14">
       <c r="N40" s="58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="13:14">
@@ -3875,32 +3891,32 @@
         <v>Educação</v>
       </c>
       <c r="N44" s="62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="13:14">
       <c r="N45" s="62" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="13:14">
       <c r="N46" s="62" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="13:14">
       <c r="N47" s="62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="13:14">
       <c r="N48" s="62" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="13:14">
       <c r="N49" s="62" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="13:14">
@@ -3912,32 +3928,32 @@
         <v>Saúde</v>
       </c>
       <c r="N52" s="58" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="13:14">
       <c r="N53" s="58" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="13:14">
       <c r="N54" s="58" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="13:14">
       <c r="N55" s="58" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="13:14">
       <c r="N56" s="58" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="13:14">
       <c r="N57" s="58" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="13:14">
@@ -3949,32 +3965,32 @@
         <v>Imprevistos</v>
       </c>
       <c r="N60" s="58" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="13:14">
       <c r="N61" s="58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="13:14">
       <c r="N62" s="58" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="13:14">
       <c r="N63" s="58" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="13:14">
       <c r="N64" s="58" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" s="58" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="14:14">
@@ -4061,7 +4077,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -4446,7 +4462,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -4831,7 +4847,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -5216,7 +5232,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -5601,7 +5617,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -5989,7 +6005,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -6338,7 +6354,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6352,7 +6368,8 @@
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6403,7 +6420,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -6414,7 +6431,7 @@
       <c r="D5" s="27"/>
       <c r="F5" s="37">
         <f>SUM(K11:K22)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>8</v>
@@ -6440,7 +6457,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -6494,10 +6511,18 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="34"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
+      <c r="H11" s="18">
+        <v>45876</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="68">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="22"/>
@@ -6505,10 +6530,18 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="35"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
+      <c r="H12" s="19">
+        <v>45876</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="69">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="22"/>
@@ -6519,7 +6552,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="22"/>
@@ -6530,7 +6563,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="22"/>
@@ -6541,7 +6574,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="22"/>
@@ -6552,7 +6585,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="69"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="22"/>
@@ -6563,7 +6596,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="69"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="22"/>
@@ -6574,7 +6607,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="69"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="22"/>
@@ -6585,7 +6618,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="22"/>
@@ -6596,7 +6629,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="69"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="22"/>
@@ -6607,7 +6640,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="69"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
@@ -6618,7 +6651,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="22"/>
@@ -6746,7 +6779,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -6770,7 +6803,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -6788,7 +6821,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45876</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -6812,7 +6845,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Ago!F7</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -6825,7 +6858,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>698.02</v>
+        <v>538.02</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF5FA6E-911F-41CC-BDAD-3E5ACDAC5351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
     <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
     <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -385,12 +384,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,6 +1204,9 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,9 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1511,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1521,7 +1520,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1536,8 +1535,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1550,12 +1549,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1581,10 +1580,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -1607,7 +1606,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -1616,23 +1615,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1672,7 +1671,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1683,7 +1682,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1694,7 +1693,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1705,7 +1704,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1716,7 +1715,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1727,7 +1726,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1738,7 +1737,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1749,7 +1748,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1760,7 +1759,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1771,7 +1770,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1782,7 +1781,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1793,70 +1792,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1870,7 +1869,7 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1879,7 +1878,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -1892,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1902,7 +1901,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1917,8 +1916,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
@@ -1931,12 +1930,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1962,10 +1961,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2002,23 +2001,23 @@
         <v>538.02</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2058,7 +2057,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2069,7 +2068,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2080,7 +2079,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2091,7 +2090,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2102,7 +2101,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2113,7 +2112,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2124,7 +2123,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2135,7 +2134,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2146,7 +2145,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2157,7 +2156,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2168,7 +2167,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2179,70 +2178,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2256,7 +2255,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2264,7 +2263,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2277,7 +2276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2287,7 +2286,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2302,8 +2301,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -2316,12 +2315,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2347,10 +2346,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2387,23 +2386,23 @@
         <v>538.02</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2443,7 +2442,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2454,7 +2453,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2465,7 +2464,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2476,7 +2475,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2487,7 +2486,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2498,7 +2497,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2509,7 +2508,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2520,7 +2519,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2531,7 +2530,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2542,7 +2541,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2553,7 +2552,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2564,70 +2563,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2641,7 +2640,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2649,7 +2648,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2662,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2672,7 +2671,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2687,8 +2686,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
@@ -2701,12 +2700,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2732,10 +2731,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2772,23 +2771,23 @@
         <v>538.02</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2828,7 +2827,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2839,7 +2838,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2850,7 +2849,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2861,7 +2860,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2872,7 +2871,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2883,7 +2882,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2894,7 +2893,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2905,7 +2904,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2916,7 +2915,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2927,7 +2926,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2938,7 +2937,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2949,70 +2948,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3026,7 +3025,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3034,7 +3033,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -3047,22 +3046,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N11" sqref="N11:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="12.7109375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
         <v>40</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
         <v>52</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>538.02</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
         <v>53</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
         <v>54</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
         <v>55</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
@@ -3374,14 +3373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -3398,8 +3397,8 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -3410,12 +3409,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3449,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
+        <v>45879</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -3463,7 +3462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -3498,7 +3497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -3513,32 +3512,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1">
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
       <c r="N9" s="57"/>
       <c r="P9" s="60" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3591,7 +3590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3605,7 +3604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3619,7 +3618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3633,7 +3632,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3647,7 +3646,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3661,7 +3660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3673,7 +3672,7 @@
       <c r="K17" s="2"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3684,7 +3683,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3702,7 +3701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3716,7 +3715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3730,7 +3729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1">
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3744,7 +3743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3754,7 +3753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3764,7 +3763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3772,21 +3771,21 @@
       <c r="F25" s="35"/>
       <c r="N25" s="59"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3800,7 +3799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3810,7 +3809,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3820,7 +3819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3830,7 +3829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1">
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3840,15 +3839,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="13:14">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N33" s="58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="13:14">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N34" s="59"/>
     </row>
-    <row r="36" spans="13:14">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36" s="60" t="str">
         <f>P7</f>
         <v>Transporte</v>
@@ -3857,35 +3856,35 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="13:14">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N37" s="58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="13:14">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N38" s="58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="13:14">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N39" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="13:14">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N40" s="58" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="13:14">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N41" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:14">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N42" s="59"/>
     </row>
-    <row r="44" spans="13:14">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M44" s="60" t="str">
         <f>P8</f>
         <v>Educação</v>
@@ -3894,35 +3893,35 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="13:14">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N45" s="62" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="13:14">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N46" s="62" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="13:14">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N47" s="62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="13:14">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N48" s="62" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="13:14">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N49" s="62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="13:14">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N50" s="61"/>
     </row>
-    <row r="52" spans="13:14">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" s="60" t="str">
         <f>P9</f>
         <v>Saúde</v>
@@ -3931,35 +3930,35 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="13:14">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N53" s="58" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="13:14">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N54" s="58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="13:14">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N55" s="58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="13:14">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N56" s="58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="13:14">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N57" s="58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="13:14">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N58" s="59"/>
     </row>
-    <row r="60" spans="13:14">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M60" s="60" t="str">
         <f>P10</f>
         <v>Imprevistos</v>
@@ -3968,32 +3967,32 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="13:14">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N61" s="58" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="13:14">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N62" s="58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="13:14">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N63" s="58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="13:14">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N64" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="14:14">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N65" s="58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="14:14">
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N66" s="59"/>
     </row>
   </sheetData>
@@ -4007,7 +4006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4017,7 +4016,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4032,8 +4031,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4046,12 +4045,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4077,10 +4076,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4117,23 +4116,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4173,7 +4172,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4184,7 +4183,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4195,7 +4194,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4206,7 +4205,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4217,7 +4216,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4228,7 +4227,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4239,7 +4238,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4250,7 +4249,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4261,7 +4260,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4272,7 +4271,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4283,7 +4282,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4294,70 +4293,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4371,7 +4370,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4379,7 +4378,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4392,7 +4391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4402,7 +4401,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4417,8 +4416,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4431,12 +4430,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4462,10 +4461,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4502,23 +4501,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4558,7 +4557,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4569,7 +4568,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4580,7 +4579,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4591,7 +4590,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4602,7 +4601,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4613,7 +4612,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4624,7 +4623,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4635,7 +4634,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4646,7 +4645,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4657,7 +4656,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4668,7 +4667,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4679,70 +4678,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4756,7 +4755,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4764,7 +4763,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4777,7 +4776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4787,7 +4786,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4802,8 +4801,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4816,12 +4815,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4847,10 +4846,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4887,23 +4886,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4943,7 +4942,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4954,7 +4953,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4965,7 +4964,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4976,7 +4975,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4987,7 +4986,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4998,7 +4997,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5009,7 +5008,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5020,7 +5019,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5031,7 +5030,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5042,7 +5041,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5053,7 +5052,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5064,70 +5063,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5141,7 +5140,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5149,7 +5148,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5162,7 +5161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5172,7 +5171,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5187,8 +5186,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
@@ -5201,12 +5200,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5232,10 +5231,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5272,23 +5271,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5328,7 +5327,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5339,7 +5338,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5350,7 +5349,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5361,7 +5360,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5372,7 +5371,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5383,7 +5382,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5394,7 +5393,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5405,7 +5404,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5416,7 +5415,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5427,7 +5426,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5438,7 +5437,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5449,70 +5448,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5526,7 +5525,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5534,7 +5533,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5547,7 +5546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5557,7 +5556,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5572,8 +5571,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5586,12 +5585,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5617,10 +5616,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5657,23 +5656,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5713,7 +5712,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5724,7 +5723,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5735,7 +5734,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5746,7 +5745,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5757,7 +5756,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5768,7 +5767,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5779,7 +5778,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5790,7 +5789,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5801,7 +5800,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5812,7 +5811,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5823,7 +5822,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5834,70 +5833,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5911,7 +5910,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5919,7 +5918,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5932,7 +5931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5942,7 +5941,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -5957,8 +5956,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
@@ -5971,12 +5970,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6005,10 +6004,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6042,23 +6041,23 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>45862</v>
       </c>
@@ -6108,7 +6107,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>45894</v>
       </c>
@@ -6129,7 +6128,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>45688</v>
       </c>
@@ -6150,7 +6149,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6161,7 +6160,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6172,7 +6171,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6183,7 +6182,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6194,7 +6193,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6205,7 +6204,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6216,7 +6215,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6227,7 +6226,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6238,7 +6237,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6249,70 +6248,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6326,7 +6325,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6334,7 +6333,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6347,17 +6346,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6373,8 +6372,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -6387,12 +6386,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6420,10 +6419,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6448,10 +6447,10 @@
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6460,23 +6459,23 @@
         <v>538.02</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6520,11 +6519,11 @@
       <c r="J11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -6539,11 +6538,11 @@
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="64">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6552,9 +6551,9 @@
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="69"/>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="K13" s="64"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6563,9 +6562,9 @@
       <c r="H14" s="19"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="69"/>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="K14" s="64"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6574,9 +6573,9 @@
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="69"/>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="K15" s="64"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6585,9 +6584,9 @@
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="69"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="64"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6596,9 +6595,9 @@
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="69"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6607,9 +6606,9 @@
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="69"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6618,9 +6617,9 @@
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="69"/>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="K19" s="64"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6629,9 +6628,9 @@
       <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="69"/>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6640,9 +6639,9 @@
       <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="69"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+      <c r="K21" s="64"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6651,72 +6650,72 @@
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="70"/>
-    </row>
-    <row r="23" spans="2:11">
+      <c r="K22" s="65"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6730,7 +6729,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6738,7 +6737,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6751,7 +6750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6761,7 +6760,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6776,8 +6775,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>36</v>
       </c>
@@ -6790,12 +6789,12 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6821,10 +6820,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6861,23 +6860,23 @@
         <v>538.02</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="63" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6917,7 +6916,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -6928,7 +6927,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6939,7 +6938,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6950,7 +6949,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6961,7 +6960,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6972,7 +6971,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6983,7 +6982,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6994,7 +6993,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7005,7 +7004,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7016,7 +7015,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7027,7 +7026,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7038,70 +7037,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7115,7 +7114,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7123,7 +7122,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_698F9E0964DD383C50AF1B4B1666C9ED5707C34F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208F27D6-049A-41C2-8F38-1C99292D2CB4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
     <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
     <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="110">
   <si>
     <t>JAN</t>
   </si>
@@ -156,18 +157,39 @@
     <t>AGO</t>
   </si>
   <si>
+    <t>Passeios / Viagens</t>
+  </si>
+  <si>
+    <t>sitio mocidade</t>
+  </si>
+  <si>
     <t>NET</t>
   </si>
   <si>
     <t>plano internet claro</t>
   </si>
   <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Lanches / Snacks</t>
+  </si>
+  <si>
+    <t>Churrasco dia dos pais</t>
+  </si>
+  <si>
     <t>Celular</t>
   </si>
   <si>
     <t>Parcla de cell</t>
   </si>
   <si>
+    <t>Uber / Táxi</t>
+  </si>
+  <si>
+    <t>moto pista</t>
+  </si>
+  <si>
     <t>SET</t>
   </si>
   <si>
@@ -234,9 +256,6 @@
     <t>Sub-tópicos</t>
   </si>
   <si>
-    <t>Alimentação</t>
-  </si>
-  <si>
     <t>Supermercado</t>
   </si>
   <si>
@@ -249,9 +268,6 @@
     <t>Moradia</t>
   </si>
   <si>
-    <t>Lanches / Snacks</t>
-  </si>
-  <si>
     <t>Educação</t>
   </si>
   <si>
@@ -264,9 +280,6 @@
     <t>Imprevistos</t>
   </si>
   <si>
-    <t>Passeios / Viagens</t>
-  </si>
-  <si>
     <t>Assinaturas (Netflix, Spotify)</t>
   </si>
   <si>
@@ -313,9 +326,6 @@
   </si>
   <si>
     <t>Combustível (gasolina, etanol)</t>
-  </si>
-  <si>
-    <t>Uber / Táxi</t>
   </si>
   <si>
     <t>Ônibus / Metrô</t>
@@ -384,12 +394,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1510,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1520,7 +1530,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1535,8 +1545,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1564,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1568,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1580,10 +1590,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -1606,7 +1616,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -1615,8 +1625,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1641,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1671,7 +1681,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1682,7 +1692,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1693,7 +1703,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1704,7 +1714,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1715,7 +1725,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1726,7 +1736,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1737,7 +1747,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1748,7 +1758,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1759,7 +1769,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1770,7 +1780,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1781,7 +1791,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1792,70 +1802,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1869,7 +1879,7 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1878,7 +1888,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -1891,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1901,7 +1911,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1916,10 +1926,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -1935,7 +1945,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1943,13 +1953,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1961,10 +1971,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1978,31 +1988,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Set!F7</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>538.02</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>431.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +2027,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2057,7 +2067,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2068,7 +2078,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2079,7 +2089,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2090,7 +2100,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2101,7 +2111,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2112,7 +2122,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2123,7 +2133,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2134,7 +2144,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2145,7 +2155,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2156,7 +2166,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2167,7 +2177,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2178,70 +2188,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2255,7 +2265,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2263,7 +2273,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2276,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2286,7 +2296,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2301,10 +2311,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2320,7 +2330,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2328,13 +2338,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2346,10 +2356,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2363,31 +2373,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>538.02</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>431.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -2402,7 +2412,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2442,7 +2452,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2453,7 +2463,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2464,7 +2474,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2475,7 +2485,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2486,7 +2496,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2497,7 +2507,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2508,7 +2518,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2519,7 +2529,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2530,7 +2540,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2541,7 +2551,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2552,7 +2562,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2563,70 +2573,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2640,7 +2650,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2648,7 +2658,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2661,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2671,7 +2681,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2686,10 +2696,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2705,7 +2715,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2713,13 +2723,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2731,10 +2741,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2748,31 +2758,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>538.02</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>431.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -2787,7 +2797,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2827,7 +2837,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2838,7 +2848,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2849,7 +2859,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2860,7 +2870,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2871,7 +2881,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2882,7 +2892,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2893,7 +2903,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2904,7 +2914,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2915,7 +2925,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2926,7 +2936,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2937,7 +2947,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2948,70 +2958,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3025,7 +3035,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3033,7 +3043,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -3046,65 +3056,65 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N11" sqref="N11:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="12.7109375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="B2" s="55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C3" s="43">
         <f>Jan!$F$3</f>
@@ -3140,24 +3150,24 @@
       </c>
       <c r="K3" s="42">
         <f>Set!$F$3</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>538.02</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>431.02</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="49" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C4" s="44">
         <f>Jan!$F$4</f>
@@ -3189,7 +3199,7 @@
       </c>
       <c r="J4" s="44">
         <f>Ago!$F$4</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K4" s="44">
         <f>Set!$F$4</f>
@@ -3208,9 +3218,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" s="49" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C5" s="45">
         <f>Jan!$F$5</f>
@@ -3261,9 +3271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="B6" s="49" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C6" s="46">
         <f>C4+C5</f>
@@ -3295,7 +3305,7 @@
       </c>
       <c r="J6" s="46">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="K6" s="46">
         <f t="shared" si="0"/>
@@ -3314,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1">
       <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
@@ -3348,23 +3358,23 @@
       </c>
       <c r="J7" s="47">
         <f t="shared" si="1"/>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
     </row>
   </sheetData>
@@ -3373,14 +3383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -3397,8 +3407,8 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1">
       <c r="B2" s="11"/>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -3414,7 +3424,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3428,16 +3438,16 @@
         <v>5</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N3" s="56" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3449,20 +3459,20 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
+        <v>45880</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
         <v>Alimentação</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P4" s="60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -3476,13 +3486,13 @@
         <v>8</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P5" s="60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -3491,13 +3501,13 @@
         <v>45847</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -3506,19 +3516,19 @@
         <v>0</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="P7" s="60" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="15.75" thickBot="1">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -3534,10 +3544,10 @@
       <c r="K9" s="69"/>
       <c r="N9" s="57"/>
       <c r="P9" s="60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3570,13 +3580,13 @@
         <v>Lazer</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3590,7 +3600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3601,10 +3611,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="N12" s="58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3615,10 +3625,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="N13" s="58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3629,10 +3639,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="N14" s="58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3643,10 +3653,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="N15" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3657,10 +3667,10 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="N16" s="58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3672,7 +3682,7 @@
       <c r="K17" s="2"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3683,7 +3693,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3701,7 +3711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3712,10 +3722,10 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="N20" s="58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3726,10 +3736,10 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="N21" s="58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3740,30 +3750,30 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="N22" s="58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
       <c r="N23" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
       <c r="N24" s="58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3771,21 +3781,21 @@
       <c r="F25" s="35"/>
       <c r="N25" s="59"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3796,203 +3806,203 @@
         <v>Moradia</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
       <c r="N29" s="58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
       <c r="N30" s="58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
       <c r="N31" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="36"/>
       <c r="N32" s="58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14">
       <c r="N33" s="58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14">
       <c r="N34" s="59"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:14">
       <c r="M36" s="60" t="str">
         <f>P7</f>
         <v>Transporte</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14">
       <c r="N37" s="58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14">
       <c r="N38" s="58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14">
       <c r="N39" s="58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14">
       <c r="N40" s="58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14">
       <c r="N41" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:14">
       <c r="N42" s="59"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:14">
       <c r="M44" s="60" t="str">
         <f>P8</f>
         <v>Educação</v>
       </c>
       <c r="N44" s="62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="13:14">
       <c r="N45" s="62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="13:14">
       <c r="N46" s="62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="13:14">
       <c r="N47" s="62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="13:14">
       <c r="N48" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14">
       <c r="N49" s="62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14">
       <c r="N50" s="61"/>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:14">
       <c r="M52" s="60" t="str">
         <f>P9</f>
         <v>Saúde</v>
       </c>
       <c r="N52" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="13:14">
       <c r="N53" s="58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14">
       <c r="N54" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="13:14">
       <c r="N55" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="13:14">
       <c r="N56" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="13:14">
       <c r="N57" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="13:14">
       <c r="N58" s="59"/>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:14">
       <c r="M60" s="60" t="str">
         <f>P10</f>
         <v>Imprevistos</v>
       </c>
       <c r="N60" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="13:14">
       <c r="N61" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="13:14">
       <c r="N62" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="13:14">
       <c r="N63" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14">
       <c r="N64" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14">
       <c r="N65" s="58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14">
       <c r="N66" s="59"/>
     </row>
   </sheetData>
@@ -4006,7 +4016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4016,7 +4026,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4031,8 +4041,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4050,7 +4060,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4064,7 +4074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4076,10 +4086,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4093,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4107,7 +4117,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4116,8 +4126,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +4142,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4172,7 +4182,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4183,7 +4193,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4194,7 +4204,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4205,7 +4215,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4216,7 +4226,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4227,7 +4237,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4238,7 +4248,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4249,7 +4259,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4260,7 +4270,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4271,7 +4281,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4282,7 +4292,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4293,70 +4303,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4370,7 +4380,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4378,7 +4388,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4391,7 +4401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4401,7 +4411,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4416,8 +4426,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4435,7 +4445,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4461,10 +4471,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4478,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4492,7 +4502,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4501,8 +4511,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -4517,7 +4527,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4546,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4557,7 +4567,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4568,7 +4578,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4579,7 +4589,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4590,7 +4600,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4601,7 +4611,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4612,7 +4622,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4623,7 +4633,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4634,7 +4644,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4645,7 +4655,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4656,7 +4666,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4667,7 +4677,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4678,70 +4688,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4755,7 +4765,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4763,7 +4773,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4776,7 +4786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4786,7 +4796,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4801,8 +4811,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4820,7 +4830,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4846,10 +4856,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4877,7 +4887,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4886,8 +4896,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -4902,7 +4912,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4931,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4942,7 +4952,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4953,7 +4963,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4964,7 +4974,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4975,7 +4985,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4986,7 +4996,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4997,7 +5007,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5008,7 +5018,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5019,7 +5029,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5030,7 +5040,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5041,7 +5051,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5052,7 +5062,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5063,70 +5073,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5140,7 +5150,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5148,7 +5158,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5161,7 +5171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5171,7 +5181,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5186,8 +5196,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
@@ -5205,7 +5215,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5219,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5231,10 +5241,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5262,7 +5272,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5271,8 +5281,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -5287,7 +5297,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5316,7 +5326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5327,7 +5337,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5338,7 +5348,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5349,7 +5359,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5360,7 +5370,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5371,7 +5381,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5382,7 +5392,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5393,7 +5403,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5404,7 +5414,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5415,7 +5425,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5426,7 +5436,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5437,7 +5447,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5448,70 +5458,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5525,7 +5535,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5533,7 +5543,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5546,7 +5556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5556,7 +5566,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5571,8 +5581,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5590,7 +5600,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5616,10 +5626,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5647,7 +5657,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5656,8 +5666,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -5672,7 +5682,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5701,7 +5711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5712,7 +5722,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5723,7 +5733,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5734,7 +5744,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5745,7 +5755,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5756,7 +5766,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5767,7 +5777,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5778,7 +5788,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5789,7 +5799,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5800,7 +5810,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5811,7 +5821,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5822,7 +5832,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5833,70 +5843,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5910,7 +5920,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5918,7 +5928,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5931,7 +5941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5941,7 +5951,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -5956,8 +5966,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
@@ -5975,7 +5985,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6004,10 +6014,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6021,7 +6031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6032,7 +6042,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6041,8 +6051,8 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -6057,7 +6067,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6086,7 +6096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21">
         <v>45862</v>
       </c>
@@ -6107,7 +6117,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22">
         <v>45894</v>
       </c>
@@ -6128,7 +6138,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22">
         <v>45688</v>
       </c>
@@ -6149,7 +6159,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6160,7 +6170,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6171,7 +6181,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6182,7 +6192,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6193,7 +6203,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6204,7 +6214,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6215,7 +6225,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6226,7 +6236,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6237,7 +6247,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6248,70 +6258,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6325,7 +6335,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6333,7 +6343,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6346,23 +6356,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
@@ -6372,8 +6382,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -6391,7 +6401,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6407,7 +6417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6415,14 +6425,14 @@
       <c r="D4" s="26"/>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6436,7 +6446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6450,17 +6460,17 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>538.02</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>431.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -6475,7 +6485,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6504,56 +6514,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="34"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="21">
+        <v>45880</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="34">
+        <v>75</v>
+      </c>
       <c r="H11" s="18">
         <v>45876</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="63">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="35"/>
+    <row r="12" spans="2:11">
+      <c r="B12" s="22">
+        <v>45879</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="35">
+        <v>27</v>
+      </c>
       <c r="H12" s="19">
         <v>45876</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K12" s="64">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="35"/>
+    <row r="13" spans="2:11">
+      <c r="B13" s="22">
+        <v>45873</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="35">
+        <v>5</v>
+      </c>
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="64"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6564,7 +6604,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6575,7 +6615,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="64"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6586,7 +6626,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6597,7 +6637,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6608,7 +6648,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6619,7 +6659,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6630,7 +6670,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6641,7 +6681,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6652,70 +6692,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6729,7 +6769,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6737,7 +6777,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6750,7 +6790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6760,7 +6800,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6775,10 +6815,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -6794,7 +6834,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6802,13 +6842,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6820,10 +6860,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6837,31 +6877,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Ago!F7</f>
-        <v>538.02</v>
+        <v>431.02</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>538.02</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>431.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -6876,7 +6916,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6905,7 +6945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6916,7 +6956,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -6927,7 +6967,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6938,7 +6978,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6949,7 +6989,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6960,7 +7000,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6971,7 +7011,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6982,7 +7022,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6993,7 +7033,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7004,7 +7044,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7015,7 +7055,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7026,7 +7066,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7037,70 +7077,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7114,7 +7154,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7122,7 +7162,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_698F9E0964DD383C50AF1B4B1666C9ED5707C34F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208F27D6-049A-41C2-8F38-1C99292D2CB4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E33D22-29BE-4B10-8779-BDEF8BA3CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="113">
   <si>
     <t>JAN</t>
   </si>
@@ -157,37 +157,55 @@
     <t>AGO</t>
   </si>
   <si>
+    <t>Uber / Táxi</t>
+  </si>
+  <si>
+    <t>moto pista</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>plano internet claro</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Lanches / Snacks</t>
+  </si>
+  <si>
+    <t>Churrasco dia dos pais</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Parcla de cell</t>
+  </si>
+  <si>
     <t>Passeios / Viagens</t>
   </si>
   <si>
     <t>sitio mocidade</t>
   </si>
   <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>plano internet claro</t>
-  </si>
-  <si>
-    <t>Alimentação</t>
-  </si>
-  <si>
-    <t>Lanches / Snacks</t>
-  </si>
-  <si>
-    <t>Churrasco dia dos pais</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Parcla de cell</t>
-  </si>
-  <si>
-    <t>Uber / Táxi</t>
-  </si>
-  <si>
-    <t>moto pista</t>
+    <t>senac</t>
+  </si>
+  <si>
+    <t>Saídas com amigos</t>
+  </si>
+  <si>
+    <t>bolo Iara</t>
+  </si>
+  <si>
+    <t>Imprevistos</t>
+  </si>
+  <si>
+    <t>Ajuda financeira a alguém (urgente)</t>
+  </si>
+  <si>
+    <t>telhado</t>
   </si>
   <si>
     <t>SET</t>
@@ -277,18 +295,12 @@
     <t>Delivery (iFood, etc)</t>
   </si>
   <si>
-    <t>Imprevistos</t>
-  </si>
-  <si>
     <t>Assinaturas (Netflix, Spotify)</t>
   </si>
   <si>
     <t xml:space="preserve"> Jogos / Games / Aplicativos pagos</t>
   </si>
   <si>
-    <t>Saídas com amigos</t>
-  </si>
-  <si>
     <t>Compras por impulso (não essenciais)</t>
   </si>
   <si>
@@ -386,9 +398,6 @@
   </si>
   <si>
     <t>Conserto urgente (casa, carro, etc)</t>
-  </si>
-  <si>
-    <t>Ajuda financeira a alguém (urgente)</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1599,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -1929,7 +1938,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -1953,7 +1962,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -1971,7 +1980,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -1995,7 +2004,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Set!F7</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2008,7 +2017,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -2314,7 +2323,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2338,7 +2347,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2356,7 +2365,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -2380,7 +2389,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2393,7 +2402,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -2699,7 +2708,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2723,7 +2732,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2741,7 +2750,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -2765,7 +2774,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2778,7 +2787,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -3073,48 +3082,48 @@
     <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="B2" s="55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="43">
         <f>Jan!$F$3</f>
@@ -3150,24 +3159,24 @@
       </c>
       <c r="K3" s="42">
         <f>Set!$F$3</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="49" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C4" s="44">
         <f>Jan!$F$4</f>
@@ -3199,7 +3208,7 @@
       </c>
       <c r="J4" s="44">
         <f>Ago!$F$4</f>
-        <v>107</v>
+        <v>412.15</v>
       </c>
       <c r="K4" s="44">
         <f>Set!$F$4</f>
@@ -3220,7 +3229,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="49" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C5" s="45">
         <f>Jan!$F$5</f>
@@ -3273,7 +3282,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="49" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C6" s="46">
         <f>C4+C5</f>
@@ -3305,7 +3314,7 @@
       </c>
       <c r="J6" s="46">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>572.15</v>
       </c>
       <c r="K6" s="46">
         <f t="shared" si="0"/>
@@ -3358,23 +3367,23 @@
       </c>
       <c r="J7" s="47">
         <f t="shared" si="1"/>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
     </row>
   </sheetData>
@@ -3438,10 +3447,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="N3" s="56" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>36</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
         <v>Alimentação</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P4" s="60" t="s">
         <v>22</v>
@@ -3486,7 +3495,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P5" s="60" t="s">
         <v>28</v>
@@ -3501,10 +3510,10 @@
         <v>45847</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1">
@@ -3525,7 +3534,7 @@
     <row r="8" spans="2:16" ht="15.75" thickBot="1">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1">
@@ -3544,7 +3553,7 @@
       <c r="K9" s="69"/>
       <c r="N9" s="57"/>
       <c r="P9" s="60" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1">
@@ -3580,10 +3589,10 @@
         <v>Lazer</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -3611,7 +3620,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="N12" s="58" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -3625,7 +3634,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="N13" s="58" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -3639,7 +3648,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="N14" s="58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -3653,7 +3662,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="N15" s="58" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -3667,7 +3676,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="N16" s="58" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -3722,7 +3731,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="N20" s="58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -3736,7 +3745,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="N21" s="58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" thickBot="1">
@@ -3750,7 +3759,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="N22" s="58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -3760,7 +3769,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
       <c r="N23" s="58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -3770,7 +3779,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
       <c r="N24" s="58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -3806,7 +3815,7 @@
         <v>Moradia</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -3816,7 +3825,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
       <c r="N29" s="58" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:14">
@@ -3826,7 +3835,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
       <c r="N30" s="58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:14">
@@ -3836,7 +3845,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
       <c r="N31" s="58" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15.75" thickBot="1">
@@ -3846,12 +3855,12 @@
       <c r="E32" s="9"/>
       <c r="F32" s="36"/>
       <c r="N32" s="58" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="13:14">
       <c r="N33" s="58" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="13:14">
@@ -3863,27 +3872,27 @@
         <v>Transporte</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="13:14">
       <c r="N37" s="58" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="13:14">
       <c r="N38" s="58" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="13:14">
       <c r="N39" s="58" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="13:14">
       <c r="N40" s="58" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="13:14">
@@ -3900,32 +3909,32 @@
         <v>Educação</v>
       </c>
       <c r="N44" s="62" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="13:14">
       <c r="N45" s="62" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="13:14">
       <c r="N46" s="62" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="13:14">
       <c r="N47" s="62" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="13:14">
       <c r="N48" s="62" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="13:14">
       <c r="N49" s="62" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="13:14">
@@ -3937,32 +3946,32 @@
         <v>Saúde</v>
       </c>
       <c r="N52" s="58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="13:14">
       <c r="N53" s="58" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="13:14">
       <c r="N54" s="58" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="13:14">
       <c r="N55" s="58" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="13:14">
       <c r="N56" s="58" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="13:14">
       <c r="N57" s="58" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="13:14">
@@ -3974,32 +3983,32 @@
         <v>Imprevistos</v>
       </c>
       <c r="N60" s="58" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="13:14">
       <c r="N61" s="58" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="13:14">
       <c r="N62" s="58" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="13:14">
       <c r="N63" s="58" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="13:14">
       <c r="N64" s="58" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" s="58" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="14:14">
@@ -4086,7 +4095,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -4471,7 +4480,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -4856,7 +4865,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -5241,7 +5250,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -5626,7 +5635,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -6014,7 +6023,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -6363,7 +6372,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6371,7 +6380,7 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
@@ -6425,11 +6434,11 @@
       <c r="D4" s="26"/>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>107</v>
+        <v>412.15</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -6466,7 +6475,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
@@ -6518,17 +6527,17 @@
       <c r="B11" s="21">
         <v>45880</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="34">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H11" s="18">
         <v>45876</v>
@@ -6580,10 +6589,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F13" s="35">
         <v>5</v>
@@ -6594,77 +6603,147 @@
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="22"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="22">
+        <v>45880</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="35">
+        <v>75</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="22"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="22">
+        <v>45881</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="35">
+        <v>5</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="22"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="35"/>
+      <c r="B16" s="22">
+        <v>45882</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="35">
+        <v>7</v>
+      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="64"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="22"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="22">
+        <v>45882</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="35">
+        <v>5.31</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="22"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="35"/>
+      <c r="B18" s="22">
+        <v>45883</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="35">
+        <v>6.7</v>
+      </c>
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="22"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="35"/>
+      <c r="B19" s="22">
+        <v>45883</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="35">
+        <v>6.14</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="22"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="35"/>
+      <c r="B20" s="22">
+        <v>45884</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="35">
+        <v>270</v>
+      </c>
       <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -6818,7 +6897,7 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -6842,7 +6921,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -6860,7 +6939,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
@@ -6884,7 +6963,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Ago!F7</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -6897,7 +6976,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>431.02</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E33D22-29BE-4B10-8779-BDEF8BA3CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
     <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
     <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="114">
   <si>
     <t>JAN</t>
   </si>
@@ -398,17 +397,20 @@
   </si>
   <si>
     <t>Conserto urgente (casa, carro, etc)</t>
+  </si>
+  <si>
+    <t>minha mãe me mandou 100 reias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1539,7 +1541,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1554,8 +1556,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1575,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1599,10 +1601,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -1625,7 +1627,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -1634,8 +1636,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1652,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1690,7 +1692,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1701,7 +1703,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1712,7 +1714,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1723,7 +1725,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1734,7 +1736,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1745,7 +1747,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1756,7 +1758,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1767,7 +1769,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1778,7 +1780,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1789,7 +1791,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1800,7 +1802,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1811,70 +1813,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1888,7 +1890,7 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1897,7 +1899,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -1910,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1920,7 +1922,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1935,8 +1937,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
@@ -1954,7 +1956,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1962,13 +1964,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1980,10 +1982,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1997,31 +1999,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Set!F7</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>125.87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2038,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2076,7 +2078,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2087,7 +2089,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2098,7 +2100,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2109,7 +2111,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2120,7 +2122,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2131,7 +2133,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2142,7 +2144,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2153,7 +2155,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2164,7 +2166,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2175,7 +2177,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2186,7 +2188,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2197,70 +2199,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2274,7 +2276,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2282,7 +2284,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2295,7 +2297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2305,7 +2307,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2320,8 +2322,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
@@ -2339,7 +2341,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2347,13 +2349,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2365,10 +2367,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2382,31 +2384,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>125.87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +2423,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2461,7 +2463,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2472,7 +2474,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2483,7 +2485,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2494,7 +2496,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2505,7 +2507,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2516,7 +2518,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2527,7 +2529,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2538,7 +2540,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2549,7 +2551,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2560,7 +2562,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2571,7 +2573,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2582,70 +2584,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2659,7 +2661,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2667,7 +2669,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2680,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2690,7 +2692,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2705,8 +2707,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
@@ -2724,7 +2726,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2732,13 +2734,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2750,10 +2752,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2767,31 +2769,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>125.87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2846,7 +2848,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2857,7 +2859,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2868,7 +2870,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2879,7 +2881,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2890,7 +2892,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2901,7 +2903,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2912,7 +2914,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2923,7 +2925,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2934,7 +2936,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2945,7 +2947,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2956,7 +2958,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2967,70 +2969,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3044,7 +3046,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3052,7 +3054,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -3065,22 +3067,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N11" sqref="N11:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="12.7109375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
         <v>53</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
         <v>65</v>
       </c>
@@ -3155,26 +3157,26 @@
       </c>
       <c r="J3" s="42">
         <f>Ago!$F$3</f>
-        <v>698.02</v>
+        <v>798.02</v>
       </c>
       <c r="K3" s="42">
         <f>Set!$F$3</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>125.87</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
         <v>66</v>
       </c>
@@ -3208,7 +3210,7 @@
       </c>
       <c r="J4" s="44">
         <f>Ago!$F$4</f>
-        <v>412.15</v>
+        <v>427.15</v>
       </c>
       <c r="K4" s="44">
         <f>Set!$F$4</f>
@@ -3227,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
         <v>67</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
         <v>68</v>
       </c>
@@ -3314,7 +3316,7 @@
       </c>
       <c r="J6" s="46">
         <f t="shared" si="0"/>
-        <v>572.15</v>
+        <v>587.15</v>
       </c>
       <c r="K6" s="46">
         <f t="shared" si="0"/>
@@ -3333,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
@@ -3367,23 +3369,23 @@
       </c>
       <c r="J7" s="47">
         <f t="shared" si="1"/>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
     </row>
   </sheetData>
@@ -3392,14 +3394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -3416,8 +3418,8 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -3433,7 +3435,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3468,7 +3470,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
+        <v>45893</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -3481,7 +3483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -3516,7 +3518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -3531,13 +3533,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1">
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1">
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3609,7 +3611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3623,7 +3625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3637,7 +3639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3651,7 +3653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3665,7 +3667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3679,7 +3681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3691,7 +3693,7 @@
       <c r="K17" s="2"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3702,7 +3704,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3720,7 +3722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3734,7 +3736,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3748,7 +3750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1">
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3762,7 +3764,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3772,7 +3774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3782,7 +3784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3790,21 +3792,21 @@
       <c r="F25" s="35"/>
       <c r="N25" s="59"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3818,7 +3820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3828,7 +3830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3838,7 +3840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3848,7 +3850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1">
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3858,15 +3860,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="13:14">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N33" s="58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="13:14">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N34" s="59"/>
     </row>
-    <row r="36" spans="13:14">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36" s="60" t="str">
         <f>P7</f>
         <v>Transporte</v>
@@ -3875,35 +3877,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="13:14">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N37" s="58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="13:14">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N38" s="58" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="13:14">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N39" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="13:14">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N40" s="58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="13:14">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N41" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:14">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N42" s="59"/>
     </row>
-    <row r="44" spans="13:14">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M44" s="60" t="str">
         <f>P8</f>
         <v>Educação</v>
@@ -3912,35 +3914,35 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="13:14">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N45" s="62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="13:14">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N46" s="62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="13:14">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N47" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="13:14">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N48" s="62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="13:14">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N49" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="13:14">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N50" s="61"/>
     </row>
-    <row r="52" spans="13:14">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" s="60" t="str">
         <f>P9</f>
         <v>Saúde</v>
@@ -3949,35 +3951,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="13:14">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N53" s="58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="13:14">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N54" s="58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="13:14">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N55" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="13:14">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N56" s="58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="13:14">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N57" s="58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="13:14">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N58" s="59"/>
     </row>
-    <row r="60" spans="13:14">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M60" s="60" t="str">
         <f>P10</f>
         <v>Imprevistos</v>
@@ -3986,32 +3988,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="13:14">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N61" s="58" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="13:14">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N62" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="13:14">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N63" s="58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="13:14">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N64" s="58" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="14:14">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N65" s="58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="14:14">
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N66" s="59"/>
     </row>
   </sheetData>
@@ -4025,7 +4027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4035,7 +4037,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4050,8 +4052,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4069,7 +4071,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4095,10 +4097,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4135,8 +4137,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -4151,7 +4153,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4191,7 +4193,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4202,7 +4204,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4213,7 +4215,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4224,7 +4226,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4235,7 +4237,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4246,7 +4248,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4257,7 +4259,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4268,7 +4270,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4279,7 +4281,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4290,7 +4292,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4301,7 +4303,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4312,70 +4314,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4389,7 +4391,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4397,7 +4399,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4410,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4420,7 +4422,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4435,8 +4437,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4454,7 +4456,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4480,10 +4482,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4520,8 +4522,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -4536,7 +4538,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4576,7 +4578,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4587,7 +4589,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4598,7 +4600,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4609,7 +4611,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4620,7 +4622,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4631,7 +4633,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4642,7 +4644,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4653,7 +4655,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4664,7 +4666,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4675,7 +4677,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4686,7 +4688,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4697,70 +4699,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4774,7 +4776,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4782,7 +4784,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4795,7 +4797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4805,7 +4807,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4820,8 +4822,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4839,7 +4841,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4865,10 +4867,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4882,7 +4884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4905,8 +4907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -4921,7 +4923,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4961,7 +4963,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4972,7 +4974,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4983,7 +4985,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4994,7 +4996,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5005,7 +5007,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5016,7 +5018,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5027,7 +5029,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5038,7 +5040,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5049,7 +5051,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5060,7 +5062,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5071,7 +5073,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5082,70 +5084,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5159,7 +5161,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5167,7 +5169,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5180,7 +5182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5190,7 +5192,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5205,8 +5207,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
@@ -5224,7 +5226,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5250,10 +5252,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5290,8 +5292,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -5306,7 +5308,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5335,7 +5337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5346,7 +5348,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5357,7 +5359,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5368,7 +5370,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5379,7 +5381,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5390,7 +5392,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5401,7 +5403,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5412,7 +5414,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5423,7 +5425,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5434,7 +5436,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5445,7 +5447,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5456,7 +5458,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5467,70 +5469,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5544,7 +5546,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5552,7 +5554,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5565,7 +5567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5575,7 +5577,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5590,8 +5592,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5609,7 +5611,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5635,10 +5637,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5666,7 +5668,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5675,8 +5677,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -5691,7 +5693,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5731,7 +5733,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5742,7 +5744,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5753,7 +5755,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5764,7 +5766,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5775,7 +5777,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5786,7 +5788,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5797,7 +5799,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5808,7 +5810,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5819,7 +5821,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5830,7 +5832,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5841,7 +5843,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5852,70 +5854,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5929,7 +5931,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5937,7 +5939,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5950,7 +5952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5960,7 +5962,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -5975,8 +5977,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
@@ -5994,7 +5996,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6023,10 +6025,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6060,8 +6062,8 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -6076,7 +6078,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>45862</v>
       </c>
@@ -6126,7 +6128,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>45894</v>
       </c>
@@ -6147,7 +6149,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>45688</v>
       </c>
@@ -6168,7 +6170,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6179,7 +6181,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6190,7 +6192,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6201,7 +6203,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6212,7 +6214,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6223,7 +6225,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6234,7 +6236,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6245,7 +6247,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6256,7 +6258,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6267,70 +6269,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6344,7 +6346,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6352,7 +6354,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6365,17 +6367,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6391,8 +6393,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -6410,7 +6412,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6420,28 +6422,32 @@
       </c>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>698.02</v>
+        <v>798.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="26">
+        <v>100</v>
+      </c>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>412.15</v>
+        <v>427.15</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6469,17 +6475,17 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>125.87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -6494,7 +6500,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6523,7 +6529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>45880</v>
       </c>
@@ -6552,7 +6558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>45879</v>
       </c>
@@ -6581,7 +6587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>45873</v>
       </c>
@@ -6602,7 +6608,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="64"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
         <v>45880</v>
       </c>
@@ -6623,7 +6629,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>45881</v>
       </c>
@@ -6644,7 +6650,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="64"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>45882</v>
       </c>
@@ -6665,7 +6671,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>45882</v>
       </c>
@@ -6686,7 +6692,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22">
         <v>45883</v>
       </c>
@@ -6707,7 +6713,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22">
         <v>45883</v>
       </c>
@@ -6728,7 +6734,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22">
         <v>45884</v>
       </c>
@@ -6749,92 +6755,112 @@
       <c r="J20" s="1"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="22"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="35"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="22">
+        <v>45885</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="35">
+        <v>7.5</v>
+      </c>
       <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="35"/>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22">
+        <v>45886</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="35">
+        <v>7.5</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6848,7 +6874,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6856,7 +6882,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6869,7 +6895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6879,7 +6905,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6894,8 +6920,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>49</v>
       </c>
@@ -6913,7 +6939,7 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6921,13 +6947,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6939,10 +6965,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6956,31 +6982,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Ago!F7</f>
-        <v>125.87</v>
+        <v>210.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>125.87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
@@ -6995,7 +7021,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -7024,7 +7050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7035,7 +7061,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -7046,7 +7072,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -7057,7 +7083,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -7068,7 +7094,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -7079,7 +7105,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -7090,7 +7116,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -7101,7 +7127,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -7112,7 +7138,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7123,7 +7149,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7134,7 +7160,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7145,7 +7171,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7156,70 +7182,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7233,7 +7259,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7241,7 +7267,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="116">
   <si>
     <t>JAN</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>minha mãe me mandou 100 reias</t>
+  </si>
+  <si>
+    <t>cabelo</t>
+  </si>
+  <si>
+    <t>corte de cabelo antes da festa</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1607,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1964,7 +1970,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2006,7 +2012,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Set!F7</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2019,7 +2025,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2349,7 +2355,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2367,7 +2373,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,7 +2397,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2404,7 +2410,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2734,7 +2740,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2752,7 +2758,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2776,7 +2782,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2789,7 +2795,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3161,19 +3167,19 @@
       </c>
       <c r="K3" s="42">
         <f>Set!$F$3</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -3263,7 +3269,7 @@
       </c>
       <c r="J5" s="45">
         <f>Ago!$F$5</f>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K5" s="45">
         <f>Set!$F$5</f>
@@ -3316,7 +3322,7 @@
       </c>
       <c r="J6" s="46">
         <f t="shared" si="0"/>
-        <v>587.15</v>
+        <v>647.15</v>
       </c>
       <c r="K6" s="46">
         <f t="shared" si="0"/>
@@ -3369,23 +3375,23 @@
       </c>
       <c r="J7" s="47">
         <f t="shared" si="1"/>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +3476,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -4097,7 +4103,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4482,7 +4488,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4867,7 +4873,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5252,7 +5258,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5637,7 +5643,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6025,7 +6031,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6374,7 +6380,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6444,7 +6450,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6455,7 +6461,7 @@
       <c r="D5" s="27"/>
       <c r="F5" s="37">
         <f>SUM(K11:K22)</f>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>8</v>
@@ -6481,7 +6487,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6555,7 +6561,7 @@
         <v>35</v>
       </c>
       <c r="K11" s="63">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -6603,10 +6609,18 @@
       <c r="F13" s="35">
         <v>5</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="64"/>
+      <c r="H13" s="19">
+        <v>45899</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="64">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
@@ -6947,7 +6961,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -6965,7 +6979,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45893</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6989,7 +7003,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Ago!F7</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -7002,7 +7016,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>210.87</v>
+        <v>150.87</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="121">
   <si>
     <t>JAN</t>
   </si>
@@ -406,6 +406,21 @@
   </si>
   <si>
     <t>corte de cabelo antes da festa</t>
+  </si>
+  <si>
+    <t>parcelas</t>
+  </si>
+  <si>
+    <t>cell, camera</t>
+  </si>
+  <si>
+    <t>curso</t>
+  </si>
+  <si>
+    <t>cartão de memória e adaptador</t>
+  </si>
+  <si>
+    <t>biscoito</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1249,6 +1264,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1607,7 +1625,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1970,7 +1988,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -1988,7 +2006,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2012,7 +2030,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Set!F7</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2025,7 +2043,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2355,7 +2373,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2373,7 +2391,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2415,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2410,7 +2428,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2740,7 +2758,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2758,7 +2776,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,7 +2800,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2795,7 +2813,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3167,19 +3185,19 @@
       </c>
       <c r="K3" s="42">
         <f>Set!$F$3</f>
-        <v>150.87</v>
+        <v>810.39</v>
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -3220,7 +3238,7 @@
       </c>
       <c r="K4" s="44">
         <f>Set!$F$4</f>
-        <v>0</v>
+        <v>92.39</v>
       </c>
       <c r="L4" s="44">
         <f>Out!$F$4</f>
@@ -3273,7 +3291,7 @@
       </c>
       <c r="K5" s="45">
         <f>Set!$F$5</f>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="L5" s="45">
         <f>Out!$F$5</f>
@@ -3326,7 +3344,7 @@
       </c>
       <c r="K6" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>369.39</v>
       </c>
       <c r="L6" s="46">
         <f t="shared" si="0"/>
@@ -3379,19 +3397,19 @@
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>150.87</v>
+        <v>441</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>150.87</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3494,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -4103,7 +4121,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4488,7 +4506,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4873,7 +4891,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5258,7 +5276,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5643,7 +5661,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6031,7 +6049,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6379,7 +6397,7 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6450,7 +6468,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6915,8 +6933,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6958,10 +6976,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="30">
+        <v>659.52</v>
+      </c>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>150.87</v>
+        <v>810.39</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -6975,11 +6995,11 @@
       <c r="D4" s="26"/>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>92.39</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6990,7 +7010,7 @@
       <c r="D5" s="27"/>
       <c r="F5" s="37">
         <f>SUM(K11:K22)</f>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>8</v>
@@ -7016,7 +7036,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>150.87</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7065,37 +7085,75 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="34"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
+      <c r="B11" s="21">
+        <v>45901</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="H11" s="18">
+        <v>45901</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="71">
+        <v>277</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="22">
+        <v>45903</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="35">
+        <v>85.29</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="22">
+        <v>45903</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="35">
+        <v>1.6</v>
+      </c>
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -7106,7 +7164,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
@@ -7117,7 +7175,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
@@ -7128,7 +7186,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
@@ -7139,7 +7197,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="72"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
@@ -7150,7 +7208,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="72"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
@@ -7161,7 +7219,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="72"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
@@ -7172,7 +7230,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="72"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
@@ -7183,7 +7241,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="72"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
@@ -7194,7 +7252,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="125">
   <si>
     <t>JAN</t>
   </si>
@@ -421,6 +421,18 @@
   </si>
   <si>
     <t>biscoito</t>
+  </si>
+  <si>
+    <t>assinatura</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>fone - Marcelles e PH</t>
+  </si>
+  <si>
+    <t>Igreja - evento</t>
   </si>
 </sst>
 </file>
@@ -1249,6 +1261,9 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,9 +1279,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1594,10 +1606,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -1625,7 +1637,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1662,19 +1674,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1975,10 +1987,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -1988,7 +2000,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2006,7 +2018,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2030,7 +2042,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Set!F7</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2043,24 +2055,24 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -2360,10 +2372,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -2373,7 +2385,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2391,7 +2403,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2415,7 +2427,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2428,24 +2440,24 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -2745,10 +2757,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -2758,7 +2770,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2776,7 +2788,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2800,7 +2812,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2813,24 +2825,24 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -3189,15 +3201,15 @@
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -3238,7 +3250,7 @@
       </c>
       <c r="K4" s="44">
         <f>Set!$F$4</f>
-        <v>92.39</v>
+        <v>177.39</v>
       </c>
       <c r="L4" s="44">
         <f>Out!$F$4</f>
@@ -3291,7 +3303,7 @@
       </c>
       <c r="K5" s="45">
         <f>Set!$F$5</f>
-        <v>277</v>
+        <v>283.8</v>
       </c>
       <c r="L5" s="45">
         <f>Out!$F$5</f>
@@ -3344,7 +3356,7 @@
       </c>
       <c r="K6" s="46">
         <f t="shared" si="0"/>
-        <v>369.39</v>
+        <v>461.19</v>
       </c>
       <c r="L6" s="46">
         <f t="shared" si="0"/>
@@ -3397,19 +3409,19 @@
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>349.2</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>349.2</v>
       </c>
     </row>
   </sheetData>
@@ -3454,10 +3466,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -3494,7 +3506,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -3564,19 +3576,19 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
       <c r="N9" s="57"/>
       <c r="P9" s="60" t="s">
         <v>76</v>
@@ -4090,10 +4102,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -4121,7 +4133,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4163,19 +4175,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -4475,10 +4487,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -4506,7 +4518,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4548,19 +4560,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -4860,10 +4872,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -4891,7 +4903,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4933,19 +4945,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -5245,10 +5257,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -5276,7 +5288,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5318,19 +5330,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -5630,10 +5642,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -5661,7 +5673,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5703,19 +5715,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -6015,10 +6027,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -6049,7 +6061,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6088,19 +6100,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -6431,10 +6443,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -6468,7 +6480,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6510,19 +6522,19 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -6934,7 +6946,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6966,10 +6978,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -6995,11 +7007,11 @@
       <c r="D4" s="26"/>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>92.39</v>
+        <v>177.39</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7010,7 +7022,7 @@
       <c r="D5" s="27"/>
       <c r="F5" s="37">
         <f>SUM(K11:K22)</f>
-        <v>277</v>
+        <v>283.8</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>8</v>
@@ -7036,24 +7048,24 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>441</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -7109,7 +7121,7 @@
       <c r="J11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="66">
         <v>277</v>
       </c>
     </row>
@@ -7129,10 +7141,18 @@
       <c r="F12" s="35">
         <v>85.29</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="72"/>
+      <c r="H12" s="19">
+        <v>45906</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="67">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
@@ -7153,29 +7173,49 @@
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="22">
+        <v>1209</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="35">
+        <v>75</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="72"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="22">
+        <v>45918</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="35">
+        <v>10</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
@@ -7186,7 +7226,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="72"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
@@ -7197,7 +7237,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
@@ -7208,7 +7248,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="72"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
@@ -7219,7 +7259,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
@@ -7230,7 +7270,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="72"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
@@ -7241,7 +7281,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
@@ -7252,7 +7292,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="73"/>
+      <c r="K22" s="68"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
   <si>
     <t>JAN</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Igreja - evento</t>
+  </si>
+  <si>
+    <t>do mês todo</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1640,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,8 +1957,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,10 +2000,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="30">
+        <v>1037</v>
+      </c>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>349.2</v>
+        <v>1386.2</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2014,11 +2019,11 @@
       <c r="D4" s="26"/>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2055,7 +2060,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2104,11 +2109,15 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="34">
+        <v>1018</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -2339,8 +2348,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2394,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2403,7 +2412,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2427,7 +2436,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2440,7 +2449,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2770,7 +2779,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2788,7 +2797,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2812,7 +2821,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2825,7 +2834,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3201,15 +3210,15 @@
       </c>
       <c r="L3" s="42">
         <f>Out!$F$3</f>
-        <v>349.2</v>
+        <v>1386.2</v>
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -3254,7 +3263,7 @@
       </c>
       <c r="L4" s="44">
         <f>Out!$F$4</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M4" s="44">
         <f>Nov!$F$4</f>
@@ -3360,7 +3369,7 @@
       </c>
       <c r="L6" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M6" s="46">
         <f t="shared" si="0"/>
@@ -3413,15 +3422,15 @@
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>349.2</v>
+        <v>368.20000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3515,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -4133,7 +4142,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4518,7 +4527,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4903,7 +4912,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5297,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5673,7 +5682,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6061,7 +6070,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6480,7 +6489,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6945,7 +6954,7 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -7011,7 +7020,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="133">
   <si>
     <t>JAN</t>
   </si>
@@ -436,6 +436,27 @@
   </si>
   <si>
     <t>do mês todo</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>parecelas</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>mochila</t>
+  </si>
+  <si>
+    <t>cadeado</t>
+  </si>
+  <si>
+    <t>plano internet</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1661,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1957,7 +1978,7 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +2044,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2348,8 +2369,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,13 +2378,14 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2391,10 +2413,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="30">
+        <v>478.82</v>
+      </c>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>368.20000000000005</v>
+        <v>847.02</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2408,11 +2432,11 @@
       <c r="D4" s="26"/>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>214.83</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2423,7 +2447,7 @@
       <c r="D5" s="27"/>
       <c r="F5" s="37">
         <f>SUM(K11:K22)</f>
-        <v>0</v>
+        <v>315.66000000000003</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>8</v>
@@ -2449,7 +2473,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>368.20000000000005</v>
+        <v>316.52999999999992</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2498,26 +2522,62 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="34"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
+      <c r="B11" s="21">
+        <v>45966</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="34">
+        <v>158.21</v>
+      </c>
+      <c r="H11" s="18">
+        <v>45966</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="66">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="35"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="22">
+        <v>45966</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="35">
+        <v>56.62</v>
+      </c>
+      <c r="H12" s="19">
+        <v>45966</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="67">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
@@ -2525,10 +2585,18 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="35"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
+      <c r="H13" s="19">
+        <v>45966</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="67">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -2536,10 +2604,18 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="35"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="H14" s="19">
+        <v>45966</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="67">
+        <v>8.16</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
@@ -2550,7 +2626,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
@@ -2561,7 +2637,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
@@ -2572,7 +2648,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
@@ -2583,7 +2659,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
@@ -2594,7 +2670,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
@@ -2605,7 +2681,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
@@ -2616,7 +2692,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
@@ -2627,7 +2703,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="68"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
@@ -2779,7 +2855,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>368.20000000000005</v>
+        <v>316.52999999999992</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -2797,7 +2873,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2821,7 +2897,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>368.20000000000005</v>
+        <v>316.52999999999992</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
@@ -2834,7 +2910,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>368.20000000000005</v>
+        <v>316.52999999999992</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3214,11 +3290,11 @@
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>368.20000000000005</v>
+        <v>847.02</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>368.20000000000005</v>
+        <v>316.52999999999992</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -3267,7 +3343,7 @@
       </c>
       <c r="M4" s="44">
         <f>Nov!$F$4</f>
-        <v>0</v>
+        <v>214.83</v>
       </c>
       <c r="N4" s="44">
         <f>Dez!$F$4</f>
@@ -3320,7 +3396,7 @@
       </c>
       <c r="M5" s="45">
         <f>Nov!$F$5</f>
-        <v>0</v>
+        <v>315.66000000000003</v>
       </c>
       <c r="N5" s="45">
         <f>Dez!$F$5</f>
@@ -3373,7 +3449,7 @@
       </c>
       <c r="M6" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>530.49</v>
       </c>
       <c r="N6" s="46">
         <f t="shared" si="0"/>
@@ -3426,11 +3502,11 @@
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>368.20000000000005</v>
+        <v>316.52999999999997</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>368.20000000000005</v>
+        <v>316.52999999999992</v>
       </c>
     </row>
   </sheetData>
@@ -3515,7 +3591,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -4142,7 +4218,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4527,7 +4603,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4912,7 +4988,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5297,7 +5373,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5682,7 +5758,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6070,7 +6146,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6489,7 +6565,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7020,7 +7096,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\999532\OneDrive - SENAC em Minas - EDU\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="710" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
     <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1601,23 +1601,23 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1661,10 +1661,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -1687,7 +1687,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -1696,8 +1696,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1752,7 +1752,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1763,7 +1763,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1774,7 +1774,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1785,7 +1785,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1796,7 +1796,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1807,7 +1807,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1818,7 +1818,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1829,7 +1829,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1840,7 +1840,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1851,7 +1851,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1862,7 +1862,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1873,70 +1873,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1982,23 +1982,23 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2044,10 +2044,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2084,8 +2084,8 @@
         <v>368.20000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>125</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2155,7 +2155,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2166,7 +2166,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2177,7 +2177,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2188,7 +2188,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2199,7 +2199,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2210,7 +2210,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2221,7 +2221,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2232,7 +2232,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2243,7 +2243,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2254,7 +2254,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2265,70 +2265,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2373,24 +2373,24 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2436,10 +2436,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2476,8 +2476,8 @@
         <v>316.52999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>45966</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>45966</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2598,7 +2598,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2617,7 +2617,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2628,7 +2628,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="67"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2639,7 +2639,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2650,7 +2650,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="67"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2661,7 +2661,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2672,7 +2672,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="67"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2683,7 +2683,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="67"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2694,7 +2694,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="67"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2705,70 +2705,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="68"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2813,23 +2813,23 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2873,10 +2873,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2913,8 +2913,8 @@
         <v>316.52999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2969,7 +2969,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2980,7 +2980,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2991,7 +2991,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3002,7 +3002,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3013,7 +3013,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3024,7 +3024,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3035,7 +3035,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3046,7 +3046,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3057,7 +3057,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3068,7 +3068,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3079,7 +3079,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3090,70 +3090,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3195,15 +3195,15 @@
       <selection activeCell="N11" sqref="N11:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.7109375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.6640625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="55" t="s">
         <v>53</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="48" t="s">
         <v>65</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>316.52999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
         <v>66</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="49" t="s">
         <v>67</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="49" t="s">
         <v>68</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
@@ -3522,25 +3522,25 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11"/>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -3556,7 +3556,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -3604,7 +3604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -3639,7 +3639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -3654,13 +3654,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3732,7 +3732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3746,7 +3746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3760,7 +3760,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3774,7 +3774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3788,7 +3788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3802,7 +3802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3814,7 +3814,7 @@
       <c r="K17" s="2"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3825,7 +3825,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3843,7 +3843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3857,7 +3857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3871,7 +3871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3885,7 +3885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3895,7 +3895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3905,7 +3905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3913,21 +3913,21 @@
       <c r="F25" s="35"/>
       <c r="N25" s="59"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3941,7 +3941,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3951,7 +3951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3961,7 +3961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3971,7 +3971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3981,15 +3981,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N33" s="58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N34" s="59"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M36" s="60" t="str">
         <f>P7</f>
         <v>Transporte</v>
@@ -3998,35 +3998,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N37" s="58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N38" s="58" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N39" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N40" s="58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N41" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N42" s="59"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M44" s="60" t="str">
         <f>P8</f>
         <v>Educação</v>
@@ -4035,35 +4035,35 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N45" s="62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N46" s="62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N47" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N48" s="62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N49" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N50" s="61"/>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M52" s="60" t="str">
         <f>P9</f>
         <v>Saúde</v>
@@ -4072,35 +4072,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N53" s="58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N54" s="58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N55" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N56" s="58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N57" s="58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N58" s="59"/>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M60" s="60" t="str">
         <f>P10</f>
         <v>Imprevistos</v>
@@ -4109,32 +4109,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N61" s="58" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N62" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N63" s="58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.3">
       <c r="N64" s="58" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N65" s="58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N66" s="59"/>
     </row>
   </sheetData>
@@ -4158,23 +4158,23 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4218,10 +4218,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4258,8 +4258,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4314,7 +4314,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4325,7 +4325,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4336,7 +4336,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4347,7 +4347,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4358,7 +4358,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4369,7 +4369,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4380,7 +4380,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4391,7 +4391,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4402,7 +4402,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4413,7 +4413,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4424,7 +4424,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4435,70 +4435,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4543,23 +4543,23 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4603,10 +4603,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4643,8 +4643,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4699,7 +4699,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4710,7 +4710,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4721,7 +4721,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4732,7 +4732,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4743,7 +4743,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4754,7 +4754,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4765,7 +4765,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4776,7 +4776,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4787,7 +4787,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4798,7 +4798,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4809,7 +4809,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4820,70 +4820,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4928,23 +4928,23 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4988,10 +4988,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5028,8 +5028,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5084,7 +5084,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5095,7 +5095,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5106,7 +5106,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5117,7 +5117,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5128,7 +5128,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5139,7 +5139,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5150,7 +5150,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5161,7 +5161,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5172,7 +5172,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5183,7 +5183,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5194,7 +5194,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5205,70 +5205,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5313,23 +5313,23 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5373,10 +5373,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5413,8 +5413,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5469,7 +5469,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5480,7 +5480,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5491,7 +5491,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5502,7 +5502,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5513,7 +5513,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5524,7 +5524,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5535,7 +5535,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5546,7 +5546,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5557,7 +5557,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5568,7 +5568,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5579,7 +5579,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5590,70 +5590,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5698,23 +5698,23 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5758,10 +5758,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5798,8 +5798,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5854,7 +5854,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5865,7 +5865,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5876,7 +5876,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5887,7 +5887,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5898,7 +5898,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5909,7 +5909,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5920,7 +5920,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5931,7 +5931,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5942,7 +5942,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5953,7 +5953,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5964,7 +5964,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5975,70 +5975,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6083,23 +6083,23 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6146,10 +6146,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6183,8 +6183,8 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>45862</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>45894</v>
       </c>
@@ -6270,7 +6270,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>45688</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6302,7 +6302,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6313,7 +6313,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6324,7 +6324,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6335,7 +6335,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6346,7 +6346,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6357,7 +6357,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6368,7 +6368,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6379,7 +6379,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6390,70 +6390,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6498,24 +6498,24 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6565,10 +6565,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6605,8 +6605,8 @@
         <v>150.87</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -6621,7 +6621,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>45880</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>45879</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>45873</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22">
         <v>45880</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>45881</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="64"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>45882</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>45882</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>45883</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
         <v>45883</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>45884</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>45885</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22">
         <v>45886</v>
       </c>
@@ -6926,70 +6926,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7034,23 +7034,23 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>49</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -7096,10 +7096,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -7136,8 +7136,8 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>45901</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>45903</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>45903</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="67"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="22">
         <v>1209</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="67"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>45918</v>
       </c>
@@ -7302,7 +7302,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="67"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -7313,7 +7313,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -7324,7 +7324,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="67"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -7335,7 +7335,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7346,7 +7346,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="67"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7357,7 +7357,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="67"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7368,7 +7368,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="67"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7379,70 +7379,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="68"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="710" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="710" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <definedNames>
     <definedName name="Alimentação">Modelo!$N$4:$N$8</definedName>
     <definedName name="Despesas">Modelo!$N$19:$N$25</definedName>
-    <definedName name="Educação">Modelo!$N$44:$N$50</definedName>
-    <definedName name="Imprevistos">Modelo!$N$60:$N$66</definedName>
+    <definedName name="Educação">Modelo!$N$43:$N$49</definedName>
+    <definedName name="Imprevistos">Modelo!$N$59:$N$65</definedName>
     <definedName name="Lazer">Modelo!$N$10:$N$17</definedName>
-    <definedName name="Moradia">Modelo!$N$28:$N$34</definedName>
-    <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
-    <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
+    <definedName name="Moradia">Modelo!$N$27:$N$33</definedName>
+    <definedName name="Saúde">Modelo!$N$51:$N$57</definedName>
+    <definedName name="Transporte">Modelo!$N$35:$N$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="134">
   <si>
     <t>JAN</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>plano internet</t>
+  </si>
+  <si>
+    <t>Sub-totais</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +489,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1115,12 +1124,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1302,6 +1387,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2369,8 +2510,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3516,17 +3657,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P66"/>
+  <dimension ref="B1:P96"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -3926,6 +4067,9 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
+      <c r="N27" s="58" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
@@ -3938,7 +4082,7 @@
         <v>Moradia</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
@@ -3948,7 +4092,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
       <c r="N29" s="58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -3958,7 +4102,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
       <c r="N30" s="58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
@@ -3968,7 +4112,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
       <c r="N31" s="58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3978,172 +4122,795 @@
       <c r="E32" s="9"/>
       <c r="F32" s="36"/>
       <c r="N32" s="58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N33" s="58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N34" s="59"/>
-    </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="59"/>
+    </row>
+    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="81" t="str">
+        <f>M4</f>
+        <v>Alimentação</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="83">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="77">
+        <f>SUBTOTAL(9,D35:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="84"/>
+      <c r="C36" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="75">
+        <f t="shared" ref="D36:D39" si="0">SUMIFS($F$11:$F$32,$D$11:$D$32,C36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="78"/>
       <c r="M36" s="60" t="str">
         <f>P7</f>
         <v>Transporte</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="84"/>
+      <c r="C37" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="78"/>
       <c r="N37" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="84"/>
+      <c r="C38" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="78"/>
       <c r="N38" s="58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="84"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="79"/>
       <c r="N39" s="58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="57"/>
       <c r="N40" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N41" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N42" s="59"/>
-    </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="93" t="str">
+        <f>M10</f>
+        <v>Lazer</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="83">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C41)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="77">
+        <f>SUBTOTAL(9,D41:D48)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="59"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="94"/>
+      <c r="C42" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="75">
+        <f t="shared" ref="D42:D56" si="1">SUMIFS($F$11:$F$32,$D$11:$D$32,C42)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="78"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="94"/>
+      <c r="C43" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="78"/>
+      <c r="N43" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="94"/>
+      <c r="C44" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="78"/>
       <c r="M44" s="60" t="str">
         <f>P8</f>
         <v>Educação</v>
       </c>
       <c r="N44" s="62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="94"/>
+      <c r="C45" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="78"/>
       <c r="N45" s="62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="94"/>
+      <c r="C46" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="78"/>
       <c r="N46" s="62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="94"/>
+      <c r="C47" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="78"/>
       <c r="N47" s="62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="95"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="80"/>
       <c r="N48" s="62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N49" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N50" s="61"/>
-    </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="74"/>
+      <c r="N49" s="61"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="81" t="str">
+        <f>M19</f>
+        <v>Despesas</v>
+      </c>
+      <c r="C50" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="77">
+        <f>SUBTOTAL(9,D50:D56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="84"/>
+      <c r="C51" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="78"/>
+      <c r="N51" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="84"/>
+      <c r="C52" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="78"/>
       <c r="M52" s="60" t="str">
         <f>P9</f>
         <v>Saúde</v>
       </c>
       <c r="N52" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="84"/>
+      <c r="C53" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="78"/>
       <c r="N53" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="84"/>
+      <c r="C54" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="78"/>
       <c r="N54" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="84"/>
+      <c r="C55" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="78"/>
       <c r="N55" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="85"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="79"/>
       <c r="N56" s="58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N57" s="58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N58" s="59"/>
-    </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M60" s="60" t="str">
+    <row r="57" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="74"/>
+      <c r="N57" s="59"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="81" t="str">
+        <f>M28</f>
+        <v>Moradia</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="83">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C58)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="77">
+        <f>SUBTOTAL(9,D58:D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="84"/>
+      <c r="C59" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C59)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="78"/>
+      <c r="M59" s="60" t="str">
         <f>P10</f>
         <v>Imprevistos</v>
       </c>
+      <c r="N59" s="58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="84"/>
+      <c r="C60" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C60)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="78"/>
       <c r="N60" s="58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="84"/>
+      <c r="C61" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C61)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="78"/>
+      <c r="N61" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="84"/>
+      <c r="C62" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C62)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="78"/>
+      <c r="N62" s="58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="84"/>
+      <c r="C63" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C63)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="78"/>
+      <c r="N63" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="85"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="87">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C64)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="79"/>
+      <c r="N64" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="74"/>
+      <c r="N65" s="59"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="81" t="str">
+        <f>M36</f>
+        <v>Transporte</v>
+      </c>
+      <c r="C66" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="83">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C66)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="77">
+        <f>SUBTOTAL(9,D66:D72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="84"/>
+      <c r="C67" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C67)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="78"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="84"/>
+      <c r="C68" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C68)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="78"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="84"/>
+      <c r="C69" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C69)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="78"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="84"/>
+      <c r="C70" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C70)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="78"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="84"/>
+      <c r="C71" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C71)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="78"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="85"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="87">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C72)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="79"/>
+    </row>
+    <row r="73" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D73" s="74"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="81" t="str">
+        <f>M44</f>
+        <v>Educação</v>
+      </c>
+      <c r="C74" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="83">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C74)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="77">
+        <f>SUBTOTAL(9,D74:D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="84"/>
+      <c r="C75" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C75)</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="78"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="84"/>
+      <c r="C76" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C76)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="78"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="84"/>
+      <c r="C77" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C77)</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="78"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="84"/>
+      <c r="C78" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C78)</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="78"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="84"/>
+      <c r="C79" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C79)</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="78"/>
+    </row>
+    <row r="80" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="85"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="87">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C80)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="79"/>
+    </row>
+    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D81" s="74"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="81" t="str">
+        <f>M52</f>
+        <v>Saúde</v>
+      </c>
+      <c r="C82" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="83">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C82)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="77">
+        <f>SUBTOTAL(9,D82:D88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="84"/>
+      <c r="C83" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C83)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="78"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="84"/>
+      <c r="C84" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C84)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="78"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="84"/>
+      <c r="C85" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C85)</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="78"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="84"/>
+      <c r="C86" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C86)</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="78"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="84"/>
+      <c r="C87" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C87)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="78"/>
+    </row>
+    <row r="88" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="85"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="87">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C88)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="79"/>
+    </row>
+    <row r="89" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D89" s="74"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="81" t="str">
+        <f>M59</f>
+        <v>Imprevistos</v>
+      </c>
+      <c r="C90" s="82" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N61" s="58" t="s">
+      <c r="D90" s="83">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C90)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="77">
+        <f>SUBTOTAL(9,D90:D96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="84"/>
+      <c r="C91" s="76" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N62" s="58" t="s">
+      <c r="D91" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C91)</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="78"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="84"/>
+      <c r="C92" s="76" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N63" s="58" t="s">
+      <c r="D92" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C92)</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="78"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="84"/>
+      <c r="C93" s="76" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N64" s="58" t="s">
+      <c r="D93" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C93)</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="78"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="84"/>
+      <c r="C94" s="76" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N65" s="58" t="s">
+      <c r="D94" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C94)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="78"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="84"/>
+      <c r="C95" s="76" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N66" s="59"/>
+      <c r="D95" s="75">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C95)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="78"/>
+    </row>
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="85"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="87">
+        <f>SUMIFS($F$11:$F$32,$D$11:$D$32,C96)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="20">
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="E66:E72"/>
+    <mergeCell ref="E74:E80"/>
+    <mergeCell ref="E82:E88"/>
+    <mergeCell ref="E90:E96"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B58:B64"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B35:B39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA2AA1C-F761-4507-A082-AF615475504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
     <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
     <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="126">
   <si>
     <t>JAN</t>
   </si>
@@ -156,6 +157,9 @@
     <t>AGO</t>
   </si>
   <si>
+    <t>minha mãe me mandou 100 reias</t>
+  </si>
+  <si>
     <t>Uber / Táxi</t>
   </si>
   <si>
@@ -183,6 +187,12 @@
     <t>Parcla de cell</t>
   </si>
   <si>
+    <t>cabelo</t>
+  </si>
+  <si>
+    <t>corte de cabelo antes da festa</t>
+  </si>
+  <si>
     <t>Passeios / Viagens</t>
   </si>
   <si>
@@ -210,9 +220,45 @@
     <t>SET</t>
   </si>
   <si>
+    <t>curso</t>
+  </si>
+  <si>
+    <t>parcelas</t>
+  </si>
+  <si>
+    <t>cell, camera</t>
+  </si>
+  <si>
+    <t>Compras online aleatórias</t>
+  </si>
+  <si>
+    <t>cartão de memória e adaptador</t>
+  </si>
+  <si>
+    <t>assinatura</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>biscoito</t>
+  </si>
+  <si>
+    <t>fone - Marcelles e PH</t>
+  </si>
+  <si>
+    <t>Igreja - evento</t>
+  </si>
+  <si>
     <t>OUT</t>
   </si>
   <si>
+    <t>Gastos pessoais (roupas, acessórios)</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
     <t>NOV</t>
   </si>
   <si>
@@ -309,15 +355,9 @@
     <t>Taxas bancárias / Pix por engano</t>
   </si>
   <si>
-    <t>Compras online aleatórias</t>
-  </si>
-  <si>
     <t>Manutenção da casa (lâmpada, pilha, etc)</t>
   </si>
   <si>
-    <t>Gastos pessoais (roupas, acessórios)</t>
-  </si>
-  <si>
     <t>Aluguel / Financiamento</t>
   </si>
   <si>
@@ -397,53 +437,17 @@
   </si>
   <si>
     <t>Conserto urgente (casa, carro, etc)</t>
-  </si>
-  <si>
-    <t>minha mãe me mandou 100 reias</t>
-  </si>
-  <si>
-    <t>cabelo</t>
-  </si>
-  <si>
-    <t>corte de cabelo antes da festa</t>
-  </si>
-  <si>
-    <t>parcelas</t>
-  </si>
-  <si>
-    <t>cell, camera</t>
-  </si>
-  <si>
-    <t>curso</t>
-  </si>
-  <si>
-    <t>cartão de memória e adaptador</t>
-  </si>
-  <si>
-    <t>biscoito</t>
-  </si>
-  <si>
-    <t>assinatura</t>
-  </si>
-  <si>
-    <t>spotify</t>
-  </si>
-  <si>
-    <t>fone - Marcelles e PH</t>
-  </si>
-  <si>
-    <t>Igreja - evento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1577,7 +1581,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1592,8 +1596,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1615,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1637,10 +1641,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -1663,7 +1667,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -1672,8 +1676,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1692,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1728,7 +1732,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1739,7 +1743,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1750,7 +1754,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1761,7 +1765,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1772,7 +1776,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1783,7 +1787,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1794,7 +1798,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1805,7 +1809,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1816,7 +1820,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1827,7 +1831,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1838,7 +1842,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1849,70 +1853,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1926,7 +1930,7 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1935,7 +1939,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -1948,17 +1952,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1973,10 +1977,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -1992,7 +1996,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2014,14 +2018,14 @@
       <c r="D4" s="26"/>
       <c r="F4" s="38">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2049,17 +2053,17 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>349.2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>285.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2074,7 +2078,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2103,18 +2107,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="34"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="21">
+        <v>30</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="34">
+        <v>63.8</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2125,7 +2139,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2136,7 +2150,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2147,7 +2161,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2158,7 +2172,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2169,7 +2183,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2180,7 +2194,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2191,7 +2205,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2202,7 +2216,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2213,7 +2227,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2224,7 +2238,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2235,70 +2249,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2312,7 +2326,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2320,7 +2334,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2333,17 +2347,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D32"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2358,10 +2372,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2377,7 +2391,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2385,13 +2399,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2403,10 +2417,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2420,31 +2434,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Out!F7</f>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>349.2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>285.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2473,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2488,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2499,7 +2513,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2510,7 +2524,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2521,7 +2535,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2532,7 +2546,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2543,7 +2557,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2554,7 +2568,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2565,7 +2579,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2576,7 +2590,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2587,7 +2601,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2598,7 +2612,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2609,7 +2623,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2620,70 +2634,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2697,7 +2711,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2705,7 +2719,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2718,7 +2732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2728,7 +2742,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2743,10 +2757,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -2762,7 +2776,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2770,13 +2784,13 @@
       <c r="D3" s="30"/>
       <c r="F3" s="39">
         <f>SUM(D3:D7)</f>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2788,10 +2802,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2805,31 +2819,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27">
         <f>Nov!F7</f>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="F6" s="33"/>
       <c r="I6" s="14">
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="F7" s="40">
         <f>F3-F4-F5</f>
-        <v>349.2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>285.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2858,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2873,7 +2887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2884,7 +2898,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2895,7 +2909,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2906,7 +2920,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2917,7 +2931,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2928,7 +2942,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2939,7 +2953,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2950,7 +2964,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2961,7 +2975,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2972,7 +2986,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2983,7 +2997,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2994,7 +3008,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3005,70 +3019,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3082,7 +3096,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3090,7 +3104,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -3103,65 +3117,65 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N11" sqref="N11:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="12.7109375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="B2" s="55" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C3" s="43">
         <f>Jan!$F$3</f>
@@ -3205,16 +3219,16 @@
       </c>
       <c r="M3" s="42">
         <f>Nov!$F$3</f>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="N3" s="42">
         <f>Dez!$F$3</f>
-        <v>349.2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>285.39999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="49" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C4" s="44">
         <f>Jan!$F$4</f>
@@ -3254,7 +3268,7 @@
       </c>
       <c r="L4" s="44">
         <f>Out!$F$4</f>
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="M4" s="44">
         <f>Nov!$F$4</f>
@@ -3265,9 +3279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" s="49" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C5" s="45">
         <f>Jan!$F$5</f>
@@ -3318,9 +3332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="B6" s="49" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C6" s="46">
         <f>C4+C5</f>
@@ -3360,7 +3374,7 @@
       </c>
       <c r="L6" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="M6" s="46">
         <f t="shared" si="0"/>
@@ -3371,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1">
       <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
@@ -3413,15 +3427,15 @@
       </c>
       <c r="L7" s="47">
         <f t="shared" si="1"/>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="M7" s="47">
         <f t="shared" si="1"/>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>349.2</v>
+        <v>285.39999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3430,14 +3444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -3454,8 +3468,8 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1">
       <c r="B2" s="11"/>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -3471,7 +3485,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3485,16 +3499,16 @@
         <v>5</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="N3" s="56" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3506,20 +3520,20 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
+        <v>45960</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
         <v>Alimentação</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="P4" s="60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -3533,13 +3547,13 @@
         <v>8</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="P5" s="60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -3548,13 +3562,13 @@
         <v>45847</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -3563,19 +3577,19 @@
         <v>0</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="60" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="15.75" thickBot="1">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -3591,10 +3605,10 @@
       <c r="K9" s="72"/>
       <c r="N9" s="57"/>
       <c r="P9" s="60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3627,13 +3641,13 @@
         <v>Lazer</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3647,7 +3661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3658,10 +3672,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="N12" s="58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3672,10 +3686,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="N13" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3686,10 +3700,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="N14" s="58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3700,10 +3714,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="N15" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3714,10 +3728,10 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="N16" s="58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3729,7 +3743,7 @@
       <c r="K17" s="2"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3740,7 +3754,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3758,7 +3772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3769,10 +3783,10 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="N20" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3783,10 +3797,10 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="N21" s="58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3797,30 +3811,30 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="N22" s="58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
       <c r="N23" s="58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
       <c r="N24" s="58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3828,21 +3842,21 @@
       <c r="F25" s="35"/>
       <c r="N25" s="59"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3853,203 +3867,203 @@
         <v>Moradia</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
       <c r="N29" s="58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
       <c r="N30" s="58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
       <c r="N31" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="36"/>
       <c r="N32" s="58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14">
       <c r="N33" s="58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14">
       <c r="N34" s="59"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:14">
       <c r="M36" s="60" t="str">
         <f>P7</f>
         <v>Transporte</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14">
       <c r="N37" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14">
       <c r="N38" s="58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14">
       <c r="N39" s="58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14">
       <c r="N40" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14">
       <c r="N41" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:14">
       <c r="N42" s="59"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:14">
       <c r="M44" s="60" t="str">
         <f>P8</f>
         <v>Educação</v>
       </c>
       <c r="N44" s="62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="13:14">
       <c r="N45" s="62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="13:14">
       <c r="N46" s="62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="13:14">
       <c r="N47" s="62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="13:14">
       <c r="N48" s="62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14">
       <c r="N49" s="62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14">
       <c r="N50" s="61"/>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:14">
       <c r="M52" s="60" t="str">
         <f>P9</f>
         <v>Saúde</v>
       </c>
       <c r="N52" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="13:14">
       <c r="N53" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14">
       <c r="N54" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="13:14">
       <c r="N55" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="13:14">
       <c r="N56" s="58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="13:14">
       <c r="N57" s="58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="13:14">
       <c r="N58" s="59"/>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:14">
       <c r="M60" s="60" t="str">
         <f>P10</f>
         <v>Imprevistos</v>
       </c>
       <c r="N60" s="58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="13:14">
       <c r="N61" s="58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="13:14">
       <c r="N62" s="58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="13:14">
       <c r="N63" s="58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14">
       <c r="N64" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14">
       <c r="N65" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14">
       <c r="N66" s="59"/>
     </row>
   </sheetData>
@@ -4063,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4073,7 +4087,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4088,8 +4102,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4107,7 +4121,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4121,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4133,10 +4147,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4150,7 +4164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4164,7 +4178,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4173,8 +4187,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4189,7 +4203,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4218,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4229,7 +4243,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4240,7 +4254,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4251,7 +4265,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4262,7 +4276,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4273,7 +4287,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4284,7 +4298,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4295,7 +4309,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4306,7 +4320,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4317,7 +4331,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4328,7 +4342,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4339,7 +4353,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4350,70 +4364,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4427,7 +4441,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4435,7 +4449,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4448,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4458,7 +4472,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4473,8 +4487,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4492,7 +4506,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4506,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4518,10 +4532,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4563,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4558,8 +4572,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4574,7 +4588,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4603,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4614,7 +4628,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4625,7 +4639,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4636,7 +4650,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4647,7 +4661,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4658,7 +4672,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4669,7 +4683,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4680,7 +4694,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4691,7 +4705,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4702,7 +4716,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4713,7 +4727,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4724,7 +4738,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4735,70 +4749,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4812,7 +4826,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4820,7 +4834,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4833,7 +4847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4843,7 +4857,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4858,8 +4872,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4877,7 +4891,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4903,10 +4917,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4920,7 +4934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4934,7 +4948,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4943,8 +4957,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4959,7 +4973,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4988,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4999,7 +5013,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5010,7 +5024,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5021,7 +5035,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5032,7 +5046,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5043,7 +5057,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5054,7 +5068,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5065,7 +5079,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5076,7 +5090,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5087,7 +5101,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5098,7 +5112,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5109,7 +5123,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5120,70 +5134,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5197,7 +5211,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5205,7 +5219,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5218,7 +5232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5228,7 +5242,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5243,8 +5257,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
@@ -5262,7 +5276,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5276,7 +5290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5288,10 +5302,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5305,7 +5319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5319,7 +5333,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5328,8 +5342,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -5344,7 +5358,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5373,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5384,7 +5398,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5395,7 +5409,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5406,7 +5420,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5417,7 +5431,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5428,7 +5442,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5439,7 +5453,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5450,7 +5464,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5461,7 +5475,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5472,7 +5486,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5483,7 +5497,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5494,7 +5508,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5505,70 +5519,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5582,7 +5596,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5590,7 +5604,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5603,7 +5617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5613,7 +5627,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5628,8 +5642,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5647,7 +5661,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5661,7 +5675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5673,10 +5687,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5690,7 +5704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5704,7 +5718,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5713,8 +5727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -5729,7 +5743,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5758,7 +5772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5769,7 +5783,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5780,7 +5794,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5791,7 +5805,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5802,7 +5816,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5813,7 +5827,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5824,7 +5838,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5835,7 +5849,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5846,7 +5860,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5857,7 +5871,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5868,7 +5882,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5879,7 +5893,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5890,70 +5904,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5967,7 +5981,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5975,7 +5989,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5988,7 +6002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5998,7 +6012,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -6013,8 +6027,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
@@ -6032,7 +6046,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6046,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6061,10 +6075,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6078,7 +6092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6089,7 +6103,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6098,8 +6112,8 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -6114,7 +6128,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6143,7 +6157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21">
         <v>45862</v>
       </c>
@@ -6164,7 +6178,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22">
         <v>45894</v>
       </c>
@@ -6185,7 +6199,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22">
         <v>45688</v>
       </c>
@@ -6206,7 +6220,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6217,7 +6231,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6228,7 +6242,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6239,7 +6253,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6250,7 +6264,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6261,7 +6275,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6272,7 +6286,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6283,7 +6297,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6294,7 +6308,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6305,70 +6319,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6382,7 +6396,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6390,7 +6404,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6403,7 +6417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6413,7 +6427,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6429,8 +6443,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -6448,7 +6462,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6464,12 +6478,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="D4" s="26">
         <v>100</v>
@@ -6480,10 +6494,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6511,7 +6525,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6520,8 +6534,8 @@
         <v>150.87</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -6536,7 +6550,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6565,7 +6579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21">
         <v>45880</v>
       </c>
@@ -6573,10 +6587,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="34">
         <v>5</v>
@@ -6585,27 +6599,27 @@
         <v>45876</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="63">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22">
         <v>45879</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="35">
         <v>27</v>
@@ -6614,16 +6628,16 @@
         <v>45876</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="64">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22">
         <v>45873</v>
       </c>
@@ -6631,10 +6645,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="35">
         <v>5</v>
@@ -6643,16 +6657,16 @@
         <v>45899</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="K13" s="64">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22">
         <v>45880</v>
       </c>
@@ -6660,10 +6674,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" s="35">
         <v>75</v>
@@ -6673,7 +6687,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22">
         <v>45881</v>
       </c>
@@ -6681,10 +6695,10 @@
         <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="35">
         <v>5</v>
@@ -6694,7 +6708,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="64"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22">
         <v>45882</v>
       </c>
@@ -6702,10 +6716,10 @@
         <v>25</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="35">
         <v>7</v>
@@ -6715,7 +6729,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22">
         <v>45882</v>
       </c>
@@ -6723,10 +6737,10 @@
         <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" s="35">
         <v>5.31</v>
@@ -6736,7 +6750,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22">
         <v>45883</v>
       </c>
@@ -6744,10 +6758,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="35">
         <v>6.7</v>
@@ -6757,7 +6771,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22">
         <v>45883</v>
       </c>
@@ -6765,10 +6779,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="35">
         <v>6.14</v>
@@ -6778,18 +6792,18 @@
       <c r="J19" s="1"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22">
         <v>45884</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" s="35">
         <v>270</v>
@@ -6799,7 +6813,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22">
         <v>45885</v>
       </c>
@@ -6807,10 +6821,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="35">
         <v>7.5</v>
@@ -6820,7 +6834,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22">
         <v>45886</v>
       </c>
@@ -6828,10 +6842,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="35">
         <v>7.5</v>
@@ -6841,70 +6855,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6918,7 +6932,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6926,7 +6940,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6939,17 +6953,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6964,10 +6978,10 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -6983,7 +6997,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6999,7 +7013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -7011,10 +7025,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -7028,7 +7042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -7042,7 +7056,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -7051,8 +7065,8 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7081,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -7096,7 +7110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="21">
         <v>45901</v>
       </c>
@@ -7104,10 +7118,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F11" s="34">
         <v>5.5</v>
@@ -7116,16 +7130,16 @@
         <v>45901</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="K11" s="66">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="22">
         <v>45903</v>
       </c>
@@ -7133,10 +7147,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="F12" s="35">
         <v>85.29</v>
@@ -7145,27 +7159,27 @@
         <v>45906</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="K12" s="67">
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="22">
         <v>45903</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F13" s="35">
         <v>1.6</v>
@@ -7175,7 +7189,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="67"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="22">
         <v>1209</v>
       </c>
@@ -7186,7 +7200,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="F14" s="35">
         <v>75</v>
@@ -7196,7 +7210,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="67"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="22">
         <v>45918</v>
       </c>
@@ -7204,10 +7218,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="F15" s="35">
         <v>10</v>
@@ -7217,7 +7231,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="67"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -7228,7 +7242,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -7239,7 +7253,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="67"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -7250,7 +7264,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7261,7 +7275,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="67"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7272,7 +7286,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="67"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7283,7 +7297,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="67"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7294,70 +7308,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="68"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7371,7 +7385,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7379,7 +7393,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA2AA1C-F761-4507-A082-AF615475504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
     <definedName name="Saúde">Modelo!$N$52:$N$58</definedName>
     <definedName name="Transporte">Modelo!$N$36:$N$42</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,12 +441,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,7 +1570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1581,7 +1580,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1596,8 +1595,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1614,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1641,10 +1640,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -1667,7 +1666,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -1676,8 +1675,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -1692,7 +1691,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1732,7 +1731,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1743,7 +1742,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1754,7 +1753,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1765,7 +1764,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1776,7 +1775,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1787,7 +1786,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1798,7 +1797,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1809,7 +1808,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1820,7 +1819,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1831,7 +1830,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1842,7 +1841,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1853,70 +1852,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1930,7 +1929,7 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1939,7 +1938,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -1952,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1962,7 +1961,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1977,8 +1976,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>63</v>
       </c>
@@ -1996,7 +1995,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2022,10 +2021,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2062,8 +2061,8 @@
         <v>285.39999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2077,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>30</v>
       </c>
@@ -2128,7 +2127,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2139,7 +2138,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2150,7 +2149,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2161,7 +2160,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2172,7 +2171,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2183,7 +2182,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2194,7 +2193,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2205,7 +2204,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2216,7 +2215,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2227,7 +2226,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2238,7 +2237,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2249,70 +2248,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2326,7 +2325,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2334,7 +2333,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2347,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2357,7 +2356,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2372,8 +2371,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>66</v>
       </c>
@@ -2391,7 +2390,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2417,10 +2416,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2457,8 +2456,8 @@
         <v>285.39999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2473,7 +2472,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2513,7 +2512,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2524,7 +2523,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2535,7 +2534,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2546,7 +2545,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2557,7 +2556,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2568,7 +2567,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2579,7 +2578,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2590,7 +2589,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2601,7 +2600,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2612,7 +2611,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2623,7 +2622,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2634,70 +2633,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2711,7 +2710,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2719,7 +2718,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -2732,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2742,7 +2741,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -2757,8 +2756,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>67</v>
       </c>
@@ -2776,7 +2775,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2802,10 +2801,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -2842,8 +2841,8 @@
         <v>285.39999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -2858,7 +2857,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2898,7 +2897,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2909,7 +2908,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2920,7 +2919,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2931,7 +2930,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2942,7 +2941,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2953,7 +2952,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2964,7 +2963,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2975,7 +2974,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2986,7 +2985,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2997,7 +2996,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3008,7 +3007,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3019,70 +3018,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3096,7 +3095,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3104,7 +3103,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -3117,22 +3116,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N11" sqref="N11:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="12.7109375" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
         <v>68</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
         <v>80</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>285.39999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
         <v>81</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
         <v>82</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
         <v>83</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
@@ -3444,14 +3443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -3468,8 +3467,8 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -3485,7 +3484,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3519,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
+        <v>45991</v>
       </c>
       <c r="M4" s="60" t="str">
         <f>P3</f>
@@ -3533,7 +3532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -3568,7 +3567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -3583,13 +3582,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1">
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N8" s="58"/>
       <c r="P8" s="60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1">
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3661,7 +3660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3675,7 +3674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3689,7 +3688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3703,7 +3702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3717,7 +3716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3731,7 +3730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3743,7 +3742,7 @@
       <c r="K17" s="2"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3754,7 +3753,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3772,7 +3771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3786,7 +3785,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3800,7 +3799,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15.75" thickBot="1">
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3814,7 +3813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3824,7 +3823,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3834,7 +3833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3842,21 +3841,21 @@
       <c r="F25" s="35"/>
       <c r="N25" s="59"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3870,7 +3869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3880,7 +3879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3890,7 +3889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3900,7 +3899,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1">
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3910,15 +3909,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="13:14">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N33" s="58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="13:14">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N34" s="59"/>
     </row>
-    <row r="36" spans="13:14">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36" s="60" t="str">
         <f>P7</f>
         <v>Transporte</v>
@@ -3927,35 +3926,35 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="13:14">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N37" s="58" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="13:14">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N38" s="58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="13:14">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N39" s="58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="13:14">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N40" s="58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="13:14">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N41" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="13:14">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N42" s="59"/>
     </row>
-    <row r="44" spans="13:14">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M44" s="60" t="str">
         <f>P8</f>
         <v>Educação</v>
@@ -3964,35 +3963,35 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="13:14">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N45" s="62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="13:14">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N46" s="62" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="13:14">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N47" s="62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="13:14">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N48" s="62" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="13:14">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N49" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="13:14">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N50" s="61"/>
     </row>
-    <row r="52" spans="13:14">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" s="60" t="str">
         <f>P9</f>
         <v>Saúde</v>
@@ -4001,35 +4000,35 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="13:14">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N53" s="58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="13:14">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N54" s="58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="13:14">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N55" s="58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="13:14">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N56" s="58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="13:14">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N57" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="13:14">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N58" s="59"/>
     </row>
-    <row r="60" spans="13:14">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M60" s="60" t="str">
         <f>P10</f>
         <v>Imprevistos</v>
@@ -4038,32 +4037,32 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="13:14">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N61" s="58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="13:14">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N62" s="58" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="13:14">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N63" s="58" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="13:14">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N64" s="58" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="14:14">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N65" s="58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="14:14">
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N66" s="59"/>
     </row>
   </sheetData>
@@ -4077,7 +4076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4087,7 +4086,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4102,8 +4101,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4121,7 +4120,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4147,10 +4146,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4187,8 +4186,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4203,7 +4202,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4243,7 +4242,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4254,7 +4253,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4265,7 +4264,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4276,7 +4275,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4287,7 +4286,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4298,7 +4297,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4309,7 +4308,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4320,7 +4319,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4331,7 +4330,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4342,7 +4341,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4353,7 +4352,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4364,70 +4363,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4441,7 +4440,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4449,7 +4448,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4462,7 +4461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4472,7 +4471,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4487,8 +4486,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4506,7 +4505,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4532,10 +4531,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4572,8 +4571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4588,7 +4587,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4628,7 +4627,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4639,7 +4638,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4650,7 +4649,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4661,7 +4660,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4672,7 +4671,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4683,7 +4682,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4694,7 +4693,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4705,7 +4704,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4716,7 +4715,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4727,7 +4726,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4738,7 +4737,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4749,70 +4748,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4826,7 +4825,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4834,7 +4833,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -4847,7 +4846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4857,7 +4856,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -4872,8 +4871,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
@@ -4891,7 +4890,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4917,10 +4916,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -4957,8 +4956,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -4973,7 +4972,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5013,7 +5012,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5024,7 +5023,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5035,7 +5034,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5046,7 +5045,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5057,7 +5056,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5068,7 +5067,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5079,7 +5078,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5090,7 +5089,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5101,7 +5100,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5112,7 +5111,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5123,7 +5122,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5134,70 +5133,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5211,7 +5210,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5219,7 +5218,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5232,7 +5231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5242,7 +5241,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5257,8 +5256,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
@@ -5276,7 +5275,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5302,10 +5301,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5342,8 +5341,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -5358,7 +5357,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5398,7 +5397,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5409,7 +5408,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5420,7 +5419,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5431,7 +5430,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5442,7 +5441,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5453,7 +5452,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5464,7 +5463,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5475,7 +5474,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5486,7 +5485,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5497,7 +5496,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5508,7 +5507,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5519,70 +5518,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5596,7 +5595,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5604,7 +5603,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -5617,7 +5616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5627,7 +5626,7 @@
       <selection activeCell="D11" sqref="D11:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -5642,8 +5641,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5661,7 +5660,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5687,10 +5686,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -5727,8 +5726,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -5743,7 +5742,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5783,7 +5782,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5794,7 +5793,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5805,7 +5804,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5816,7 +5815,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5827,7 +5826,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5838,7 +5837,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5849,7 +5848,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5860,7 +5859,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5871,7 +5870,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5882,7 +5881,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5893,7 +5892,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5904,70 +5903,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5981,7 +5980,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5989,7 +5988,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6002,7 +6001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6012,7 +6011,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -6027,8 +6026,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
@@ -6046,7 +6045,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6075,10 +6074,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6112,8 +6111,8 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -6128,7 +6127,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>45862</v>
       </c>
@@ -6178,7 +6177,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>45894</v>
       </c>
@@ -6199,7 +6198,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>45688</v>
       </c>
@@ -6220,7 +6219,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6231,7 +6230,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6242,7 +6241,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6253,7 +6252,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6264,7 +6263,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6275,7 +6274,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6286,7 +6285,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6297,7 +6296,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6308,7 +6307,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6319,70 +6318,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6396,7 +6395,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6404,7 +6403,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6417,7 +6416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6427,7 +6426,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6443,8 +6442,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -6462,7 +6461,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6494,10 +6493,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -6534,8 +6533,8 @@
         <v>150.87</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -6550,7 +6549,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>45880</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>45879</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>45873</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
         <v>45880</v>
       </c>
@@ -6687,7 +6686,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>45881</v>
       </c>
@@ -6708,7 +6707,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="64"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>45882</v>
       </c>
@@ -6729,7 +6728,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>45882</v>
       </c>
@@ -6750,7 +6749,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22">
         <v>45883</v>
       </c>
@@ -6771,7 +6770,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22">
         <v>45883</v>
       </c>
@@ -6792,7 +6791,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22">
         <v>45884</v>
       </c>
@@ -6813,7 +6812,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22">
         <v>45885</v>
       </c>
@@ -6834,7 +6833,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>45886</v>
       </c>
@@ -6855,70 +6854,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6932,7 +6931,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6940,7 +6939,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>
@@ -6953,7 +6952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6963,7 +6962,7 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -6978,8 +6977,8 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
@@ -6997,7 +6996,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -7025,10 +7024,10 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="28"/>
@@ -7065,8 +7064,8 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
@@ -7081,7 +7080,7 @@
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>45901</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>45903</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>45903</v>
       </c>
@@ -7189,7 +7188,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="67"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
         <v>1209</v>
       </c>
@@ -7210,7 +7209,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="67"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>45918</v>
       </c>
@@ -7231,7 +7230,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="67"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -7242,7 +7241,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -7253,7 +7252,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="67"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -7264,7 +7263,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7275,7 +7274,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="67"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7286,7 +7285,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="67"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7297,7 +7296,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="67"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7308,70 +7307,70 @@
       <c r="J22" s="3"/>
       <c r="K22" s="68"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7385,7 +7384,7 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7393,7 +7392,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
           </x14:formula1>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="710" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="Out" sheetId="7" r:id="rId10"/>
     <sheet name="Nov" sheetId="8" r:id="rId11"/>
     <sheet name="Dez" sheetId="9" r:id="rId12"/>
-    <sheet name="Anual" sheetId="3" r:id="rId13"/>
-    <sheet name="Modelo" sheetId="2" r:id="rId14"/>
+    <sheet name="Fluxo mensal" sheetId="15" r:id="rId13"/>
+    <sheet name="Anual" sheetId="3" r:id="rId14"/>
+    <sheet name="Modelo" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="Alimentação">Modelo!$N$4:$N$8</definedName>
@@ -1306,6 +1307,1270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Anual!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entradas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Anual!$C$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Anual!$C$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>566.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>798.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>810.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Anual!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saidas Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Anual!$C$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Anual!$C$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>647.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>461.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Anual!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Anual!$C$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Anual!$C$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="196278496"/>
+        <c:axId val="196280128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="196278496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196280128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196280128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196278496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9644062" cy="6006042"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1957,7 +3222,7 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3120,7 +4385,7 @@
   <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,7 +4711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="135">
   <si>
     <t>JAN</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>claro</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2141,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.8</c:v>
@@ -2433,7 +2436,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>272.89999999999998</c:v>
+                  <c:v>1009.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,7 +2579,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2699,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>272.89999999999998</c:v>
+                  <c:v>979.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,11 +2715,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2142636736"/>
-        <c:axId val="-2142636192"/>
+        <c:axId val="-54467088"/>
+        <c:axId val="-54461104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142636736"/>
+        <c:axId val="-54467088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2761,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142636192"/>
+        <c:crossAx val="-54461104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2766,7 +2769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142636192"/>
+        <c:axId val="-54461104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2819,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142636736"/>
+        <c:crossAx val="-54467088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7458,8 +7461,8 @@
   </sheetPr>
   <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7502,10 +7505,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="30">
+        <v>652.59</v>
+      </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>272.89999999999998</v>
+        <v>1009.49</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7534,7 +7539,9 @@
         <v>6</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
+      <c r="D5" s="27">
+        <v>84</v>
+      </c>
       <c r="F5" s="99">
         <f>D4</f>
         <v>0</v>
@@ -7551,7 +7558,7 @@
       <c r="D6" s="27"/>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I6" s="14">
         <v>45847</v>
@@ -7568,7 +7575,7 @@
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>272.89999999999998</v>
+        <v>979.49</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7638,10 +7645,18 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="60"/>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="60">
+        <v>30</v>
+      </c>
       <c r="M11" s="77"/>
       <c r="N11" s="96"/>
       <c r="O11" s="87"/>
@@ -7911,7 +7926,7 @@
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8601,7 +8616,7 @@
       </c>
       <c r="N3" s="104">
         <f>Dez!$F$3</f>
-        <v>272.89999999999998</v>
+        <v>1009.49</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -8707,7 +8722,7 @@
       </c>
       <c r="N5" s="106">
         <f>Dez!$F$6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -8760,7 +8775,7 @@
       </c>
       <c r="N6" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -8813,7 +8828,7 @@
       </c>
       <c r="N7" s="108">
         <f t="shared" si="1"/>
-        <v>272.89999999999998</v>
+        <v>979.49</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9345,7 +9360,7 @@
       </c>
       <c r="G25" s="67">
         <f>SUBTOTAL(9,Jan!I35,Fev!I35,Mar!I35,Abr!I35,Mai!I35,Jun!I35,Jul!I35,Ago!I35,Set!I35,Out!I35,Nov!I35,Dez!I35)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -11057,7 +11072,7 @@
   </sheetPr>
   <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="136">
   <si>
     <t>JAN</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>claro</t>
+  </si>
+  <si>
+    <t>ultima do cell</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2147,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2162,7 +2165,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2436,7 +2439,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1009.49</c:v>
+                  <c:v>816.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,10 +2579,10 @@
                   <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>166.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,10 +2699,10 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>272.89999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>979.49</c:v>
+                  <c:v>649.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,11 +2718,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-54467088"/>
-        <c:axId val="-54461104"/>
+        <c:axId val="1225900688"/>
+        <c:axId val="1478407008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-54467088"/>
+        <c:axId val="1225900688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +2764,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-54461104"/>
+        <c:crossAx val="1478407008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2769,7 +2772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-54461104"/>
+        <c:axId val="1478407008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2822,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-54467088"/>
+        <c:crossAx val="1225900688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4429,7 +4432,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5456,7 +5459,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6431,7 +6434,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,11 +6496,11 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6539,7 +6542,7 @@
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>272.89999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6608,7 +6611,9 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="33">
+        <v>272.89999999999998</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -7462,7 +7467,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7510,7 +7515,7 @@
       </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1009.49</v>
+        <v>816.59</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7531,7 +7536,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7555,10 +7560,12 @@
         <v>132</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="27">
+        <v>80</v>
+      </c>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>30</v>
+        <v>166.8</v>
       </c>
       <c r="I6" s="14">
         <v>45847</v>
@@ -7571,11 +7578,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Nov!F7</f>
-        <v>272.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>979.49</v>
+        <v>649.79</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7668,10 +7675,18 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="34"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="61"/>
+      <c r="H12" s="19">
+        <v>45966</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="61">
+        <v>6.8</v>
+      </c>
       <c r="M12" s="77"/>
       <c r="N12" s="96"/>
       <c r="O12" s="87"/>
@@ -7683,10 +7698,18 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="34"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="61"/>
+      <c r="H13" s="19">
+        <v>45996</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="61">
+        <v>130</v>
+      </c>
       <c r="M13" s="77"/>
       <c r="N13" s="96"/>
       <c r="O13" s="87"/>
@@ -7946,7 +7969,7 @@
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -8042,7 +8065,7 @@
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -8616,7 +8639,7 @@
       </c>
       <c r="N3" s="104">
         <f>Dez!$F$3</f>
-        <v>1009.49</v>
+        <v>816.59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -8665,7 +8688,7 @@
       </c>
       <c r="M4" s="43">
         <f>Nov!$F$4</f>
-        <v>0</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="N4" s="105">
         <f>Dez!$F$4</f>
@@ -8722,7 +8745,7 @@
       </c>
       <c r="N5" s="106">
         <f>Dez!$F$6</f>
-        <v>30</v>
+        <v>166.8</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -8771,11 +8794,11 @@
       </c>
       <c r="M6" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="N6" s="107">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>166.8</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -8824,11 +8847,11 @@
       </c>
       <c r="M7" s="103">
         <f t="shared" si="1"/>
-        <v>272.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="N7" s="108">
         <f t="shared" si="1"/>
-        <v>979.49</v>
+        <v>649.79</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9377,7 +9400,7 @@
       </c>
       <c r="G26" s="69">
         <f>SUBTOTAL(9,Jan!I36,Fev!I36,Mar!I36,Abr!I36,Mai!I36,Jun!I36,Jul!I36,Ago!I36,Set!I36,Out!I36,Nov!I36,Dez!I36)</f>
-        <v>6.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -9477,7 +9500,7 @@
       </c>
       <c r="G32" s="69">
         <f>SUBTOTAL(9,Jan!I42,Fev!I42,Mar!I42,Abr!I42,Mai!I42,Jun!I42,Jul!I42,Ago!I42,Set!I42,Out!I42,Nov!I42,Dez!I42)</f>
-        <v>277</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -11139,7 +11162,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12170,7 +12193,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13201,7 +13224,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14232,7 +14255,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15263,7 +15286,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16296,7 +16319,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17362,7 +17385,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18533,7 +18556,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -27,7 +27,7 @@
     <sheet name="Anual" sheetId="3" r:id="rId13"/>
     <sheet name="Gastos Fixos anual" sheetId="16" r:id="rId14"/>
     <sheet name="Fluxo mensal" sheetId="15" r:id="rId15"/>
-    <sheet name="Modelo" sheetId="2" r:id="rId16"/>
+    <sheet name="Modelo" sheetId="2" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="Alimentação">Modelo!$N$4:$N$8</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="138">
   <si>
     <t>JAN</t>
   </si>
@@ -469,6 +469,12 @@
   <si>
     <t>ultima do cell</t>
   </si>
+  <si>
+    <t>sitio carnaval</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
@@ -502,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,8 +623,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1170,15 +1188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1231,7 +1240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1413,8 +1422,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1436,17 +1445,16 @@
     <xf numFmtId="164" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="15" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,9 +1475,6 @@
     <xf numFmtId="44" fontId="0" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="16" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="18" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1484,6 +1489,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="20" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="20" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="21" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="21" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2096,7 +2146,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2165,7 +2217,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>407</c:v>
+                  <c:v>624.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2582,7 +2634,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>166.8</c:v>
+                  <c:v>384.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,7 +2754,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>649.79</c:v>
+                  <c:v>432.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2718,11 +2770,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1225900688"/>
-        <c:axId val="1478407008"/>
+        <c:axId val="-984691440"/>
+        <c:axId val="-984687088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1225900688"/>
+        <c:axId val="-984691440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2816,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1478407008"/>
+        <c:crossAx val="-984687088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2772,7 +2824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1478407008"/>
+        <c:axId val="-984687088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2874,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1225900688"/>
+        <c:crossAx val="-984691440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2873,6 +2925,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4398,10 +4451,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -4432,7 +4485,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4441,7 +4494,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -4474,19 +4527,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -5425,10 +5478,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -5459,7 +5512,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5468,7 +5521,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -5506,19 +5559,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -6466,10 +6519,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -6500,7 +6553,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6509,7 +6562,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -6547,19 +6600,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -7467,7 +7520,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,10 +7553,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -7536,7 +7589,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7547,7 +7600,7 @@
       <c r="D5" s="27">
         <v>84</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -7565,7 +7618,7 @@
       </c>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>166.8</v>
+        <v>384.3</v>
       </c>
       <c r="I6" s="14">
         <v>45847</v>
@@ -7582,24 +7635,24 @@
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>649.79</v>
+        <v>432.29</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -7721,10 +7774,18 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="34"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="61"/>
+      <c r="H14" s="19">
+        <v>45998</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="61">
+        <v>147.5</v>
+      </c>
       <c r="M14" s="77"/>
       <c r="N14" s="96"/>
       <c r="O14" s="87"/>
@@ -7736,10 +7797,18 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="34"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="61"/>
+      <c r="H15" s="19">
+        <v>45999</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="61">
+        <v>70</v>
+      </c>
       <c r="M15" s="77"/>
       <c r="N15" s="96"/>
       <c r="O15" s="87"/>
@@ -8065,7 +8134,7 @@
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -8528,8 +8597,8 @@
   </sheetPr>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8543,6 +8612,7 @@
     <col min="8" max="9" width="12.7109375" style="48" customWidth="1"/>
     <col min="10" max="13" width="13.140625" style="48" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8588,6 +8658,9 @@
       <c r="N2" s="51" t="s">
         <v>73</v>
       </c>
+      <c r="O2" s="51" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -8637,9 +8710,13 @@
         <f>Nov!$F$3</f>
         <v>272.89999999999998</v>
       </c>
-      <c r="N3" s="104">
+      <c r="N3" s="103">
         <f>Dez!$F$3</f>
         <v>816.59</v>
+      </c>
+      <c r="O3" s="103">
+        <f>SUM(C3:N3)</f>
+        <v>3663.6</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -8690,9 +8767,13 @@
         <f>Nov!$F$4</f>
         <v>272.89999999999998</v>
       </c>
-      <c r="N4" s="105">
+      <c r="N4" s="104">
         <f>Dez!$F$4</f>
         <v>0</v>
+      </c>
+      <c r="O4" s="104">
+        <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
+        <v>1469.2399999999998</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -8743,9 +8824,13 @@
         <f>Nov!$F$6</f>
         <v>0</v>
       </c>
-      <c r="N5" s="106">
+      <c r="N5" s="105">
         <f>Dez!$F$6</f>
-        <v>166.8</v>
+        <v>384.3</v>
+      </c>
+      <c r="O5" s="105">
+        <f t="shared" si="0"/>
+        <v>888.1</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -8757,153 +8842,165 @@
         <v>0</v>
       </c>
       <c r="D6" s="45">
-        <f t="shared" ref="D6:N6" si="0">D4+D5</f>
+        <f t="shared" ref="D6:N6" si="1">D4+D5</f>
         <v>0</v>
       </c>
       <c r="E6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>528</v>
       </c>
       <c r="J6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>647.15</v>
       </c>
       <c r="K6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>461.19</v>
       </c>
       <c r="L6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.8</v>
       </c>
       <c r="M6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272.89999999999998</v>
       </c>
-      <c r="N6" s="107">
-        <f t="shared" si="0"/>
-        <v>166.8</v>
+      <c r="N6" s="106">
+        <f t="shared" si="1"/>
+        <v>384.3</v>
+      </c>
+      <c r="O6" s="106">
+        <f t="shared" si="0"/>
+        <v>2357.34</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="102">
         <f>C3-C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="103">
-        <f t="shared" ref="D7:N7" si="1">D3-D6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="103">
-        <f t="shared" si="1"/>
+      <c r="D7" s="102">
+        <f t="shared" ref="D7:N7" si="2">D3-D6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="102">
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="J7" s="103">
-        <f t="shared" si="1"/>
+      <c r="J7" s="102">
+        <f t="shared" si="2"/>
         <v>138.37</v>
       </c>
-      <c r="K7" s="103">
-        <f t="shared" si="1"/>
+      <c r="K7" s="102">
+        <f t="shared" si="2"/>
         <v>336.7</v>
       </c>
-      <c r="L7" s="103">
-        <f t="shared" si="1"/>
+      <c r="L7" s="102">
+        <f t="shared" si="2"/>
         <v>272.89999999999998</v>
       </c>
-      <c r="M7" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="108">
-        <f t="shared" si="1"/>
-        <v>649.79</v>
+      <c r="M7" s="102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="107">
+        <f t="shared" si="2"/>
+        <v>432.29</v>
+      </c>
+      <c r="O7" s="107">
+        <f t="shared" si="0"/>
+        <v>1306.26</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="100">
         <f>Jan!D4</f>
         <v>0</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="100">
         <f>Fev!D4</f>
         <v>0</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="100">
         <f>Mar!D4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="100">
         <f>Abr!D4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="100">
         <f>Mai!D4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101">
+      <c r="H8" s="100">
         <f>Jun!D4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="101">
+      <c r="I8" s="100">
         <f>Jul!D4</f>
         <v>0</v>
       </c>
-      <c r="J8" s="101">
+      <c r="J8" s="100">
         <f>Ago!D4</f>
         <v>0</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="100">
         <f>Set!D4</f>
         <v>0</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="100">
         <f>Out!D4</f>
         <v>0</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="100">
         <f>Nov!D4</f>
         <v>0</v>
       </c>
-      <c r="N8" s="102">
+      <c r="N8" s="101">
         <f>Dez!D4</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="101">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8948,406 +9045,406 @@
       <c r="N13" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="109" t="s">
+      <c r="O13" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="115">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="116">
         <f>Fev!$B$36</f>
         <v>0</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="115">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="116">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="115">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="116">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="115">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="116">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="115">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="116">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="115">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="117">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="O14" s="98">
+      <c r="O14" s="126">
         <f>SUM(C14:N14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="119">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="120">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="119">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="120">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="119">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="120">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="119">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="120">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="119">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="120">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="119">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="121">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="O15" s="98">
-        <f t="shared" ref="O15:O20" si="2">SUM(C15:N15)</f>
+      <c r="O15" s="127">
+        <f t="shared" ref="O15:O20" si="3">SUM(C15:N15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="119">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="120">
         <f>Fev!B51</f>
         <v>0</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="119">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="120">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="119">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="120">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="119">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="120">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="119">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="120">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="119">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="121">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="O16" s="98">
-        <f t="shared" si="2"/>
+      <c r="O16" s="127">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="119">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="120">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="119">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="120">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="119">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="120">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="119">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="120">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="119">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="120">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="119">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="121">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="O17" s="98">
-        <f t="shared" si="2"/>
+      <c r="O17" s="127">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="119">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="120">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="119">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="120">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="119">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="120">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="119">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="120">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="119">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="120">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="119">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="121">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="O18" s="98">
-        <f t="shared" si="2"/>
+      <c r="O18" s="127">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="119">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="120">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="119">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="120">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="119">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="120">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="119">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="120">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="119">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="120">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="119">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="121">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="O19" s="98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+      <c r="O19" s="127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="123">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="124">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="123">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="124">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="123">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="124">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="123">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="124">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="123">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="124">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="123">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="125">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="O20" s="98">
-        <f t="shared" si="2"/>
+      <c r="O20" s="128">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9500,7 +9597,7 @@
       </c>
       <c r="G32" s="69">
         <f>SUBTOTAL(9,Jan!I42,Fev!I42,Mar!I42,Abr!I42,Mai!I42,Jun!I42,Jul!I42,Ago!I42,Set!I42,Out!I42,Nov!I42,Dez!I42)</f>
-        <v>407</v>
+        <v>624.5</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -10060,7 +10157,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -10125,19 +10222,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="N9" s="54"/>
       <c r="P9" s="57" t="s">
         <v>84</v>
@@ -11128,10 +11225,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -11162,7 +11259,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11171,7 +11268,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -11209,19 +11306,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -11751,7 +11848,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="110">
+      <c r="B51" s="108">
         <f>SUM(D50:D56)</f>
         <v>0</v>
       </c>
@@ -12159,10 +12256,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -12193,7 +12290,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12202,7 +12299,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -12240,19 +12337,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -13190,10 +13287,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -13224,7 +13321,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13233,7 +13330,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -13271,19 +13368,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -14221,10 +14318,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -14255,7 +14352,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14264,7 +14361,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -14302,19 +14399,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -15252,10 +15349,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -15286,7 +15383,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15295,7 +15392,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -15333,19 +15430,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -16283,10 +16380,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -16319,7 +16416,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16328,7 +16425,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -16366,19 +16463,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -17347,10 +17444,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -17385,7 +17482,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17394,7 +17491,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -17432,19 +17529,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -18520,10 +18617,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -18556,7 +18653,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18565,7 +18662,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="F5" s="99">
+      <c r="F5" s="98">
         <f>D4</f>
         <v>0</v>
       </c>
@@ -18603,19 +18700,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="114" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1476,21 +1476,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="18" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1534,6 +1519,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2146,9 +2146,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2770,11 +2768,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-984691440"/>
-        <c:axId val="-984687088"/>
+        <c:axId val="-745821792"/>
+        <c:axId val="-745816352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-984691440"/>
+        <c:axId val="-745821792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2814,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-984687088"/>
+        <c:crossAx val="-745816352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2824,7 +2822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-984687088"/>
+        <c:axId val="-745816352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,7 +2872,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-984691440"/>
+        <c:crossAx val="-745821792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2925,7 +2923,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4451,10 +4448,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -4485,7 +4482,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4527,19 +4524,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -5478,10 +5475,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -5512,7 +5509,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5559,19 +5556,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -6519,10 +6516,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -6553,7 +6550,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6600,19 +6597,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -7553,10 +7550,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -7589,7 +7586,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7640,19 +7637,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -9050,400 +9047,400 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="110">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="D14" s="116">
+      <c r="D14" s="111">
         <f>Fev!$B$36</f>
         <v>0</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="110">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="F14" s="116">
+      <c r="F14" s="111">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="110">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="H14" s="116">
+      <c r="H14" s="111">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="I14" s="115">
+      <c r="I14" s="110">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="J14" s="116">
+      <c r="J14" s="111">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="K14" s="115">
+      <c r="K14" s="110">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="L14" s="116">
+      <c r="L14" s="111">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="M14" s="115">
+      <c r="M14" s="110">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="N14" s="117">
+      <c r="N14" s="112">
         <f>Jan!$B$36</f>
         <v>0</v>
       </c>
-      <c r="O14" s="126">
+      <c r="O14" s="121">
         <f>SUM(C14:N14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="114">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="115">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="114">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="F15" s="120">
+      <c r="F15" s="115">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="G15" s="119">
+      <c r="G15" s="114">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="115">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="I15" s="119">
+      <c r="I15" s="114">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="J15" s="120">
+      <c r="J15" s="115">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="114">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="L15" s="120">
+      <c r="L15" s="115">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="M15" s="119">
+      <c r="M15" s="114">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="N15" s="121">
+      <c r="N15" s="116">
         <f>Fev!$B$42</f>
         <v>0</v>
       </c>
-      <c r="O15" s="127">
+      <c r="O15" s="122">
         <f t="shared" ref="O15:O20" si="3">SUM(C15:N15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="114">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="115">
         <f>Fev!B51</f>
         <v>0</v>
       </c>
-      <c r="E16" s="119">
+      <c r="E16" s="114">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="F16" s="120">
+      <c r="F16" s="115">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="G16" s="119">
+      <c r="G16" s="114">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="H16" s="120">
+      <c r="H16" s="115">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="I16" s="119">
+      <c r="I16" s="114">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="J16" s="120">
+      <c r="J16" s="115">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="114">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="L16" s="120">
+      <c r="L16" s="115">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="M16" s="119">
+      <c r="M16" s="114">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="N16" s="121">
+      <c r="N16" s="116">
         <f>Jan!$B$51</f>
         <v>0</v>
       </c>
-      <c r="O16" s="127">
+      <c r="O16" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="114">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="115">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="114">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="115">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="114">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="115">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="I17" s="119">
+      <c r="I17" s="114">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="115">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="114">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="L17" s="120">
+      <c r="L17" s="115">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="M17" s="119">
+      <c r="M17" s="114">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="N17" s="121">
+      <c r="N17" s="116">
         <f>Jan!$B$59</f>
         <v>0</v>
       </c>
-      <c r="O17" s="127">
+      <c r="O17" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="114">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="D18" s="120">
+      <c r="D18" s="115">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="114">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="F18" s="120">
+      <c r="F18" s="115">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="G18" s="119">
+      <c r="G18" s="114">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="H18" s="120">
+      <c r="H18" s="115">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="I18" s="119">
+      <c r="I18" s="114">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="J18" s="120">
+      <c r="J18" s="115">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="114">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="L18" s="120">
+      <c r="L18" s="115">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="M18" s="119">
+      <c r="M18" s="114">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="N18" s="121">
+      <c r="N18" s="116">
         <f>Jan!$B$67</f>
         <v>0</v>
       </c>
-      <c r="O18" s="127">
+      <c r="O18" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="114">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="115">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="114">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="115">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="G19" s="119">
+      <c r="G19" s="114">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="H19" s="120">
+      <c r="H19" s="115">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="114">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="115">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="114">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="L19" s="120">
+      <c r="L19" s="115">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="M19" s="119">
+      <c r="M19" s="114">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="N19" s="121">
+      <c r="N19" s="116">
         <f>Jan!$B$75</f>
         <v>0</v>
       </c>
-      <c r="O19" s="127">
+      <c r="O19" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="123">
+      <c r="C20" s="118">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="D20" s="124">
+      <c r="D20" s="119">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="E20" s="123">
+      <c r="E20" s="118">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="F20" s="124">
+      <c r="F20" s="119">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="G20" s="123">
+      <c r="G20" s="118">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="H20" s="124">
+      <c r="H20" s="119">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="I20" s="123">
+      <c r="I20" s="118">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="J20" s="124">
+      <c r="J20" s="119">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="K20" s="123">
+      <c r="K20" s="118">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="L20" s="124">
+      <c r="L20" s="119">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="M20" s="123">
+      <c r="M20" s="118">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="N20" s="125">
+      <c r="N20" s="120">
         <f>Jan!$B$83</f>
         <v>0</v>
       </c>
-      <c r="O20" s="128">
+      <c r="O20" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10222,19 +10219,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="N9" s="54"/>
       <c r="P9" s="57" t="s">
         <v>84</v>
@@ -11225,10 +11222,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -11259,7 +11256,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11306,19 +11303,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -12256,10 +12253,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -12290,7 +12287,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12337,19 +12334,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -13287,10 +13284,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -13321,7 +13318,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13368,19 +13365,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -14318,10 +14315,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -14352,7 +14349,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14399,19 +14396,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -15349,10 +15346,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -15383,7 +15380,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15430,19 +15427,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -16380,10 +16377,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -16416,7 +16413,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16463,19 +16460,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -17444,10 +17441,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -17482,7 +17479,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17529,19 +17526,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -18617,10 +18614,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -18653,7 +18650,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18700,19 +18697,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="H9" s="112" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="H9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="142">
   <si>
     <t>JAN</t>
   </si>
@@ -474,6 +474,18 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>moto</t>
+  </si>
+  <si>
+    <t>caixa de bombom</t>
+  </si>
+  <si>
+    <t>caixa para camera</t>
+  </si>
+  <si>
+    <t>tripe e led</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2218,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2489,7 +2501,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>816.59</c:v>
+                  <c:v>766.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,10 +2641,10 @@
                   <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>272.89999999999998</c:v>
+                  <c:v>322.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>384.3</c:v>
+                  <c:v>566.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2749,10 +2761,10 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>432.29</c:v>
+                  <c:v>199.83000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,11 +2780,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-745821792"/>
-        <c:axId val="-745816352"/>
+        <c:axId val="-1677167680"/>
+        <c:axId val="-1677174208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-745821792"/>
+        <c:axId val="-1677167680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,7 +2826,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-745816352"/>
+        <c:crossAx val="-1677174208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2822,7 +2834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-745816352"/>
+        <c:axId val="-1677174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +2884,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-745821792"/>
+        <c:crossAx val="-1677167680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6484,7 +6496,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6546,7 +6558,7 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>272.89999999999998</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
@@ -6592,7 +6604,7 @@
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6678,7 +6690,9 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="34">
+        <v>50</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12" s="13"/>
       <c r="J12" s="1"/>
@@ -7565,7 +7579,7 @@
       </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>816.59</v>
+        <v>766.59</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7582,7 +7596,7 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>152.46</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
@@ -7615,10 +7629,10 @@
       </c>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>384.3</v>
+        <v>414.3</v>
       </c>
       <c r="I6" s="14">
-        <v>45847</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7628,11 +7642,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Nov!F7</f>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>432.29</v>
+        <v>199.82999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7697,11 +7711,21 @@
       <c r="P10" s="60"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="21">
+        <v>46001</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="33">
+        <v>14.98</v>
+      </c>
       <c r="H11" s="18">
         <v>1</v>
       </c>
@@ -7720,11 +7744,21 @@
       <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="22">
+        <v>46002</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="34">
+        <v>22.5</v>
+      </c>
       <c r="H12" s="19">
         <v>45966</v>
       </c>
@@ -7743,11 +7777,21 @@
       <c r="P12" s="61"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="22">
+        <v>46002</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="34">
+        <v>114.98</v>
+      </c>
       <c r="H13" s="19">
         <v>45996</v>
       </c>
@@ -7817,10 +7861,18 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="34"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="61"/>
+      <c r="H16" s="19">
+        <v>46000</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="61">
+        <v>30</v>
+      </c>
       <c r="M16" s="77"/>
       <c r="N16" s="96"/>
       <c r="O16" s="87"/>
@@ -8008,7 +8060,7 @@
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="H35" s="78" t="s">
         <v>111</v>
@@ -8021,7 +8073,7 @@
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f>SUM(D35:D39)</f>
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="C36" s="68" t="s">
         <v>80</v>
@@ -8081,7 +8133,7 @@
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8221,7 +8273,7 @@
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="73">
         <f>SUM(D50:D56)</f>
-        <v>0</v>
+        <v>137.48000000000002</v>
       </c>
       <c r="C51" s="68" t="s">
         <v>88</v>
@@ -8246,7 +8298,7 @@
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114.98</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -8255,7 +8307,7 @@
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -8709,11 +8761,11 @@
       </c>
       <c r="N3" s="103">
         <f>Dez!$F$3</f>
-        <v>816.59</v>
+        <v>766.59</v>
       </c>
       <c r="O3" s="103">
         <f>SUM(C3:N3)</f>
-        <v>3663.6</v>
+        <v>3613.6</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -8762,15 +8814,15 @@
       </c>
       <c r="M4" s="43">
         <f>Nov!$F$4</f>
-        <v>272.89999999999998</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="N4" s="104">
         <f>Dez!$F$4</f>
-        <v>0</v>
+        <v>152.46</v>
       </c>
       <c r="O4" s="104">
         <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
-        <v>1469.2399999999998</v>
+        <v>1671.6999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -8823,11 +8875,11 @@
       </c>
       <c r="N5" s="105">
         <f>Dez!$F$6</f>
-        <v>384.3</v>
+        <v>414.3</v>
       </c>
       <c r="O5" s="105">
         <f t="shared" si="0"/>
-        <v>888.1</v>
+        <v>918.1</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -8876,15 +8928,15 @@
       </c>
       <c r="M6" s="45">
         <f t="shared" si="1"/>
-        <v>272.89999999999998</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="N6" s="106">
         <f t="shared" si="1"/>
-        <v>384.3</v>
+        <v>566.76</v>
       </c>
       <c r="O6" s="106">
         <f t="shared" si="0"/>
-        <v>2357.34</v>
+        <v>2589.8000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -8933,15 +8985,15 @@
       </c>
       <c r="M7" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="N7" s="107">
         <f t="shared" si="2"/>
-        <v>432.29</v>
+        <v>199.83000000000004</v>
       </c>
       <c r="O7" s="107">
         <f t="shared" si="0"/>
-        <v>1306.26</v>
+        <v>1023.8</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9455,7 +9507,7 @@
       </c>
       <c r="D24" s="67">
         <f>SUBTOTAL(9,Fev!D35,Fev!D35,Mar!D35,Abr!D35,Mai!D35,Jun!D35,Jul!D35,Ago!D35,Set!D35,Out!D35,Nov!D35,Dez!D35)</f>
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -9463,7 +9515,7 @@
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f>SUM(D24:D28)</f>
-        <v>28.6</v>
+        <v>43.58</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>80</v>
@@ -9538,7 +9590,7 @@
       </c>
       <c r="G29" s="69">
         <f>SUBTOTAL(9,Jan!I39,Fev!I39,Mar!I39,Abr!I39,Mai!I39,Jun!I39,Jul!I39,Ago!I39,Set!I39,Out!I39,Nov!I39,Dez!I39)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -9682,7 +9734,7 @@
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="73">
         <f>SUM(D39:D45)</f>
-        <v>235.09000000000003</v>
+        <v>372.57</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>88</v>
@@ -9709,7 +9761,7 @@
       </c>
       <c r="D42" s="69">
         <f>SUBTOTAL(9,Fev!D53,Fev!D53,Mar!D53,Abr!D53,Mai!D53,Jun!D53,Jul!D53,Ago!D53,Set!D53,Out!D53,Nov!D53,Dez!D53)</f>
-        <v>85.29</v>
+        <v>200.27</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -9719,7 +9771,7 @@
       </c>
       <c r="D43" s="69">
         <f>SUBTOTAL(9,Fev!D54,Fev!D54,Mar!D54,Abr!D54,Mai!D54,Jun!D54,Jul!D54,Ago!D54,Set!D54,Out!D54,Nov!D54,Dez!D54)</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="158">
   <si>
     <t>JAN</t>
   </si>
@@ -486,6 +486,54 @@
   </si>
   <si>
     <t>tripe e led</t>
+  </si>
+  <si>
+    <t>alimentação</t>
+  </si>
+  <si>
+    <t>trident</t>
+  </si>
+  <si>
+    <t>lazer</t>
+  </si>
+  <si>
+    <t>volei</t>
+  </si>
+  <si>
+    <t>Xadrez Dance</t>
+  </si>
+  <si>
+    <t>Fotos vendidas individualmente</t>
+  </si>
+  <si>
+    <t>ceia de fim de ano</t>
+  </si>
+  <si>
+    <t>barbeiro</t>
+  </si>
+  <si>
+    <t>apostila de fotografia</t>
+  </si>
+  <si>
+    <t>pao de queijo e varejao</t>
+  </si>
+  <si>
+    <t>Barbeiro</t>
+  </si>
+  <si>
+    <t>Almoço fora</t>
+  </si>
+  <si>
+    <t>Supermercado</t>
+  </si>
+  <si>
+    <t>Esportes / saidas</t>
+  </si>
+  <si>
+    <t>Jogos / Games / Aplicativos pagos</t>
+  </si>
+  <si>
+    <t>Fotografia (equipamentos e cursos)</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1547,6 +1595,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2158,7 +2213,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2218,7 +2275,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2501,7 +2558,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>766.59</c:v>
+                  <c:v>946.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2644,7 +2701,7 @@
                   <c:v>322.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>566.76</c:v>
+                  <c:v>711.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,7 +2821,7 @@
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>199.83000000000004</c:v>
+                  <c:v>234.96000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,11 +2837,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1677167680"/>
-        <c:axId val="-1677174208"/>
+        <c:axId val="-1433696144"/>
+        <c:axId val="-1433695600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1677167680"/>
+        <c:axId val="-1433696144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +2883,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1677174208"/>
+        <c:crossAx val="-1433695600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2834,7 +2891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1677174208"/>
+        <c:axId val="-1433695600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2941,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1677167680"/>
+        <c:crossAx val="-1433696144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2935,6 +2992,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4494,7 +4552,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5521,7 +5579,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6562,7 +6620,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7530,8 +7588,8 @@
   </sheetPr>
   <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7546,11 +7604,15 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="15" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1"/>
+    </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>61</v>
@@ -7568,6 +7630,7 @@
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
+      <c r="N2"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -7579,11 +7642,12 @@
       </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>766.59</v>
+        <v>946.84</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="N3"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -7592,16 +7656,17 @@
       <c r="C4" s="7"/>
       <c r="D4" s="26">
         <f>SUM(P10:P25)</f>
-        <v>0</v>
+        <v>160.25</v>
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>152.46</v>
+        <v>237.58</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
-      </c>
+        <v>46012</v>
+      </c>
+      <c r="N4"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
@@ -7609,15 +7674,16 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F5" s="98">
         <f>D4</f>
-        <v>0</v>
+        <v>160.25</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>7</v>
       </c>
+      <c r="N5"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
@@ -7629,11 +7695,12 @@
       </c>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>414.3</v>
+        <v>474.3</v>
       </c>
       <c r="I6" s="14">
         <v>46002</v>
       </c>
+      <c r="N6"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
@@ -7646,10 +7713,13 @@
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>199.82999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>234.95999999999998</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8"/>
+    </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="124" t="s">
         <v>8</v>
@@ -7705,10 +7775,18 @@
       <c r="K10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="129">
+        <v>46005</v>
+      </c>
+      <c r="O10" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="60">
+        <v>160.25</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
@@ -7739,7 +7817,7 @@
         <v>30</v>
       </c>
       <c r="M11" s="77"/>
-      <c r="N11" s="96"/>
+      <c r="N11" s="130"/>
       <c r="O11" s="87"/>
       <c r="P11" s="61"/>
     </row>
@@ -7772,7 +7850,7 @@
         <v>6.8</v>
       </c>
       <c r="M12" s="77"/>
-      <c r="N12" s="96"/>
+      <c r="N12" s="130"/>
       <c r="O12" s="87"/>
       <c r="P12" s="61"/>
     </row>
@@ -7805,16 +7883,26 @@
         <v>130</v>
       </c>
       <c r="M13" s="77"/>
-      <c r="N13" s="96"/>
+      <c r="N13" s="130"/>
       <c r="O13" s="87"/>
       <c r="P13" s="61"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="22">
+        <v>46004</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="34">
+        <v>17.399999999999999</v>
+      </c>
       <c r="H14" s="19">
         <v>45998</v>
       </c>
@@ -7828,16 +7916,26 @@
         <v>147.5</v>
       </c>
       <c r="M14" s="77"/>
-      <c r="N14" s="96"/>
+      <c r="N14" s="130"/>
       <c r="O14" s="87"/>
       <c r="P14" s="61"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="22">
+        <v>46010</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="34">
+        <v>20</v>
+      </c>
       <c r="H15" s="19">
         <v>45999</v>
       </c>
@@ -7851,16 +7949,26 @@
         <v>70</v>
       </c>
       <c r="M15" s="77"/>
-      <c r="N15" s="96"/>
+      <c r="N15" s="130"/>
       <c r="O15" s="87"/>
       <c r="P15" s="61"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="22">
+        <v>46011</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="34">
+        <v>19.899999999999999</v>
+      </c>
       <c r="H16" s="19">
         <v>46000</v>
       </c>
@@ -7874,37 +7982,73 @@
         <v>30</v>
       </c>
       <c r="M16" s="77"/>
-      <c r="N16" s="96"/>
+      <c r="N16" s="130"/>
       <c r="O16" s="87"/>
       <c r="P16" s="61"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="34"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="61"/>
+      <c r="B17" s="22">
+        <v>46012</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="34">
+        <v>25.57</v>
+      </c>
+      <c r="H17" s="19">
+        <v>46009</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="61">
+        <v>30</v>
+      </c>
       <c r="M17" s="77"/>
-      <c r="N17" s="96"/>
+      <c r="N17" s="130"/>
       <c r="O17" s="87"/>
       <c r="P17" s="61"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="34"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="61"/>
+      <c r="B18" s="22">
+        <v>46011</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="34">
+        <v>2.25</v>
+      </c>
+      <c r="H18" s="19">
+        <v>46010</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="61">
+        <v>30</v>
+      </c>
       <c r="M18" s="77"/>
-      <c r="N18" s="96"/>
+      <c r="N18" s="130"/>
       <c r="O18" s="87"/>
       <c r="P18" s="61"/>
     </row>
@@ -7919,7 +8063,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="61"/>
       <c r="M19" s="77"/>
-      <c r="N19" s="96"/>
+      <c r="N19" s="130"/>
       <c r="O19" s="87"/>
       <c r="P19" s="61"/>
     </row>
@@ -7934,7 +8078,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="61"/>
       <c r="M20" s="77"/>
-      <c r="N20" s="96"/>
+      <c r="N20" s="130"/>
       <c r="O20" s="87"/>
       <c r="P20" s="61"/>
     </row>
@@ -7949,7 +8093,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="61"/>
       <c r="M21" s="77"/>
-      <c r="N21" s="96"/>
+      <c r="N21" s="130"/>
       <c r="O21" s="87"/>
       <c r="P21" s="61"/>
     </row>
@@ -7964,7 +8108,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="62"/>
       <c r="M22" s="77"/>
-      <c r="N22" s="96"/>
+      <c r="N22" s="130"/>
       <c r="O22" s="87"/>
       <c r="P22" s="61"/>
     </row>
@@ -7975,7 +8119,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="34"/>
       <c r="M23" s="77"/>
-      <c r="N23" s="96"/>
+      <c r="N23" s="130"/>
       <c r="O23" s="87"/>
       <c r="P23" s="61"/>
     </row>
@@ -7986,7 +8130,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="34"/>
       <c r="M24" s="77"/>
-      <c r="N24" s="96"/>
+      <c r="N24" s="130"/>
       <c r="O24" s="87"/>
       <c r="P24" s="61"/>
     </row>
@@ -7997,7 +8141,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="34"/>
       <c r="M25" s="70"/>
-      <c r="N25" s="97"/>
+      <c r="N25" s="131"/>
       <c r="O25" s="88"/>
       <c r="P25" s="62"/>
     </row>
@@ -8060,7 +8204,7 @@
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
-        <v>14.98</v>
+        <v>17.23</v>
       </c>
       <c r="H35" s="78" t="s">
         <v>111</v>
@@ -8073,14 +8217,14 @@
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f>SUM(D35:D39)</f>
-        <v>14.98</v>
+        <v>42.8</v>
       </c>
       <c r="C36" s="68" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
-        <v>0</v>
+        <v>25.57</v>
       </c>
       <c r="H36" s="79" t="s">
         <v>112</v>
@@ -8133,7 +8277,7 @@
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8169,7 +8313,7 @@
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f>SUBTOTAL(9,D41:D48)</f>
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>22</v>
@@ -8238,7 +8382,7 @@
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -8646,8 +8790,8 @@
   </sheetPr>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8761,11 +8905,11 @@
       </c>
       <c r="N3" s="103">
         <f>Dez!$F$3</f>
-        <v>766.59</v>
+        <v>946.84</v>
       </c>
       <c r="O3" s="103">
         <f>SUM(C3:N3)</f>
-        <v>3613.6</v>
+        <v>3793.85</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -8818,11 +8962,11 @@
       </c>
       <c r="N4" s="104">
         <f>Dez!$F$4</f>
-        <v>152.46</v>
+        <v>237.58</v>
       </c>
       <c r="O4" s="104">
         <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
-        <v>1671.6999999999998</v>
+        <v>1756.8199999999997</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -8875,11 +9019,11 @@
       </c>
       <c r="N5" s="105">
         <f>Dez!$F$6</f>
-        <v>414.3</v>
+        <v>474.3</v>
       </c>
       <c r="O5" s="105">
         <f t="shared" si="0"/>
-        <v>918.1</v>
+        <v>978.1</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -8932,11 +9076,11 @@
       </c>
       <c r="N6" s="106">
         <f t="shared" si="1"/>
-        <v>566.76</v>
+        <v>711.88</v>
       </c>
       <c r="O6" s="106">
         <f t="shared" si="0"/>
-        <v>2589.8000000000002</v>
+        <v>2734.92</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -8989,11 +9133,11 @@
       </c>
       <c r="N7" s="107">
         <f t="shared" si="2"/>
-        <v>199.83000000000004</v>
+        <v>234.96000000000004</v>
       </c>
       <c r="O7" s="107">
         <f t="shared" si="0"/>
-        <v>1023.8</v>
+        <v>1058.9299999999998</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9046,11 +9190,11 @@
       </c>
       <c r="N8" s="101">
         <f>Dez!D4</f>
-        <v>0</v>
+        <v>160.25</v>
       </c>
       <c r="O8" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160.25</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9111,48 +9255,48 @@
         <v>0</v>
       </c>
       <c r="E14" s="110">
-        <f>Jan!$B$36</f>
+        <f>Mar!$B$36</f>
         <v>0</v>
       </c>
       <c r="F14" s="111">
-        <f>Jan!$B$36</f>
+        <f>Abr!$B$36</f>
         <v>0</v>
       </c>
       <c r="G14" s="110">
-        <f>Jan!$B$36</f>
+        <f>Mai!$B$36</f>
         <v>0</v>
       </c>
       <c r="H14" s="111">
-        <f>Jan!$B$36</f>
+        <f>Jun!$B$36</f>
         <v>0</v>
       </c>
       <c r="I14" s="110">
-        <f>Jan!$B$36</f>
+        <f>Jul!$B$36</f>
         <v>0</v>
       </c>
       <c r="J14" s="111">
-        <f>Jan!$B$36</f>
-        <v>0</v>
+        <f>Ago!$B$36</f>
+        <v>27</v>
       </c>
       <c r="K14" s="110">
-        <f>Jan!$B$36</f>
-        <v>0</v>
+        <f>Set!$B$36</f>
+        <v>1.6</v>
       </c>
       <c r="L14" s="111">
-        <f>Jan!$B$36</f>
+        <f>Out!$B$36</f>
         <v>0</v>
       </c>
       <c r="M14" s="110">
-        <f>Jan!$B$36</f>
+        <f>Nov!$B$36</f>
         <v>0</v>
       </c>
       <c r="N14" s="112">
-        <f>Jan!$B$36</f>
-        <v>0</v>
+        <f>Dez!$B$36</f>
+        <v>42.8</v>
       </c>
       <c r="O14" s="121">
         <f>SUM(C14:N14)</f>
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -9168,48 +9312,48 @@
         <v>0</v>
       </c>
       <c r="E15" s="114">
-        <f>Fev!$B$42</f>
+        <f>Mar!$B$42</f>
         <v>0</v>
       </c>
       <c r="F15" s="115">
-        <f>Fev!$B$42</f>
+        <f>Abr!$B$42</f>
         <v>0</v>
       </c>
       <c r="G15" s="114">
-        <f>Fev!$B$42</f>
+        <f>Mai!$B$42</f>
         <v>0</v>
       </c>
       <c r="H15" s="115">
-        <f>Fev!$B$42</f>
+        <f>Jun!$B$42</f>
         <v>0</v>
       </c>
       <c r="I15" s="114">
-        <f>Fev!$B$42</f>
-        <v>0</v>
+        <f>Jul!$B$42</f>
+        <v>57</v>
       </c>
       <c r="J15" s="115">
-        <f>Fev!$B$42</f>
-        <v>0</v>
+        <f>Ago!$B$42</f>
+        <v>81.14</v>
       </c>
       <c r="K15" s="114">
-        <f>Fev!$B$42</f>
-        <v>0</v>
+        <f>Set!$B$42</f>
+        <v>10</v>
       </c>
       <c r="L15" s="115">
-        <f>Fev!$B$42</f>
+        <f>Out!$B$42</f>
         <v>0</v>
       </c>
       <c r="M15" s="114">
-        <f>Fev!$B$42</f>
+        <f>Nov!$B$42</f>
         <v>0</v>
       </c>
       <c r="N15" s="116">
-        <f>Fev!$B$42</f>
-        <v>0</v>
+        <f>Dez!$B$42</f>
+        <v>37.4</v>
       </c>
       <c r="O15" s="122">
         <f t="shared" ref="O15:O20" si="3">SUM(C15:N15)</f>
-        <v>0</v>
+        <v>185.54</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -9225,48 +9369,48 @@
         <v>0</v>
       </c>
       <c r="E16" s="114">
-        <f>Jan!$B$51</f>
+        <f>Mar!$B$51</f>
         <v>0</v>
       </c>
       <c r="F16" s="115">
-        <f>Jan!$B$51</f>
+        <f>Abr!$B$51</f>
         <v>0</v>
       </c>
       <c r="G16" s="114">
-        <f>Jan!$B$51</f>
+        <f>Mai!$B$51</f>
         <v>0</v>
       </c>
       <c r="H16" s="115">
-        <f>Jan!$B$51</f>
+        <f>Jun!$B$51</f>
         <v>0</v>
       </c>
       <c r="I16" s="114">
-        <f>Jan!$B$51</f>
-        <v>0</v>
+        <f>Jul!$B$51</f>
+        <v>11</v>
       </c>
       <c r="J16" s="115">
-        <f>Jan!$B$51</f>
+        <f>Ago!$B$51</f>
         <v>0</v>
       </c>
       <c r="K16" s="114">
-        <f>Jan!$B$51</f>
-        <v>0</v>
+        <f>Set!$B$51</f>
+        <v>160.29000000000002</v>
       </c>
       <c r="L16" s="115">
-        <f>Jan!$B$51</f>
-        <v>0</v>
+        <f>Out!$B$51</f>
+        <v>63.8</v>
       </c>
       <c r="M16" s="114">
-        <f>Jan!$B$51</f>
+        <f>Nov!$B$51</f>
         <v>0</v>
       </c>
       <c r="N16" s="116">
-        <f>Jan!$B$51</f>
-        <v>0</v>
+        <f>Dez!$B$51</f>
+        <v>137.48000000000002</v>
       </c>
       <c r="O16" s="122">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>372.57000000000005</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -9278,52 +9422,52 @@
         <v>0</v>
       </c>
       <c r="D17" s="115">
-        <f>Jan!$B$59</f>
+        <f>Fev!$B$59</f>
         <v>0</v>
       </c>
       <c r="E17" s="114">
-        <f>Jan!$B$59</f>
+        <f>Mar!$B$59</f>
         <v>0</v>
       </c>
       <c r="F17" s="115">
-        <f>Jan!$B$59</f>
+        <f>Abr!$B$59</f>
         <v>0</v>
       </c>
       <c r="G17" s="114">
-        <f>Jan!$B$59</f>
+        <f>Mai!$B$59</f>
         <v>0</v>
       </c>
       <c r="H17" s="115">
-        <f>Jan!$B$59</f>
+        <f>Jun!$B$59</f>
         <v>0</v>
       </c>
       <c r="I17" s="114">
-        <f>Jan!$B$59</f>
-        <v>0</v>
+        <f>Jul!$B$59</f>
+        <v>460</v>
       </c>
       <c r="J17" s="115">
-        <f>Jan!$B$59</f>
-        <v>0</v>
+        <f>Ago!$B$59</f>
+        <v>49.01</v>
       </c>
       <c r="K17" s="114">
-        <f>Jan!$B$59</f>
-        <v>0</v>
+        <f>Set!$B$59</f>
+        <v>5.5</v>
       </c>
       <c r="L17" s="115">
-        <f>Jan!$B$59</f>
+        <f>Out!$B$59</f>
         <v>0</v>
       </c>
       <c r="M17" s="114">
-        <f>Jan!$B$59</f>
+        <f>Nov!$B$59</f>
         <v>0</v>
       </c>
       <c r="N17" s="116">
-        <f>Jan!$B$59</f>
+        <f>Dez!$B$59</f>
         <v>0</v>
       </c>
       <c r="O17" s="122">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>514.51</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -9335,47 +9479,47 @@
         <v>0</v>
       </c>
       <c r="D18" s="115">
-        <f>Jan!$B$67</f>
+        <f>Fev!$B$67</f>
         <v>0</v>
       </c>
       <c r="E18" s="114">
-        <f>Jan!$B$67</f>
+        <f>Mar!$B$67</f>
         <v>0</v>
       </c>
       <c r="F18" s="115">
-        <f>Jan!$B$67</f>
+        <f>Abr!$B$67</f>
         <v>0</v>
       </c>
       <c r="G18" s="114">
-        <f>Jan!$B$67</f>
+        <f>Mai!$B$67</f>
         <v>0</v>
       </c>
       <c r="H18" s="115">
-        <f>Jan!$B$67</f>
+        <f>Jun!$B$67</f>
         <v>0</v>
       </c>
       <c r="I18" s="114">
-        <f>Jan!$B$67</f>
+        <f>Jul!$B$67</f>
         <v>0</v>
       </c>
       <c r="J18" s="115">
-        <f>Jan!$B$67</f>
+        <f>Ago!$B$67</f>
         <v>0</v>
       </c>
       <c r="K18" s="114">
-        <f>Jan!$B$67</f>
+        <f>Set!$B$67</f>
         <v>0</v>
       </c>
       <c r="L18" s="115">
-        <f>Jan!$B$67</f>
+        <f>Out!$B$67</f>
         <v>0</v>
       </c>
       <c r="M18" s="114">
-        <f>Jan!$B$67</f>
+        <f>Nov!$B$67</f>
         <v>0</v>
       </c>
       <c r="N18" s="116">
-        <f>Jan!$B$67</f>
+        <f>Dez!$B$67</f>
         <v>0</v>
       </c>
       <c r="O18" s="122">
@@ -9392,47 +9536,47 @@
         <v>0</v>
       </c>
       <c r="D19" s="115">
-        <f>Jan!$B$75</f>
+        <f>Fev!$B$75</f>
         <v>0</v>
       </c>
       <c r="E19" s="114">
-        <f>Jan!$B$75</f>
+        <f>Mar!$B$75</f>
         <v>0</v>
       </c>
       <c r="F19" s="115">
-        <f>Jan!$B$75</f>
+        <f>Abr!$B$75</f>
         <v>0</v>
       </c>
       <c r="G19" s="114">
-        <f>Jan!$B$75</f>
+        <f>Mai!$B$75</f>
         <v>0</v>
       </c>
       <c r="H19" s="115">
-        <f>Jan!$B$75</f>
+        <f>Jun!$B$75</f>
         <v>0</v>
       </c>
       <c r="I19" s="114">
-        <f>Jan!$B$75</f>
+        <f>Jul!$B$75</f>
         <v>0</v>
       </c>
       <c r="J19" s="115">
-        <f>Jan!$B$75</f>
+        <f>Ago!$B$75</f>
         <v>0</v>
       </c>
       <c r="K19" s="114">
-        <f>Jan!$B$75</f>
+        <f>Set!$B$75</f>
         <v>0</v>
       </c>
       <c r="L19" s="115">
-        <f>Jan!$B$75</f>
+        <f>Out!$B$75</f>
         <v>0</v>
       </c>
       <c r="M19" s="114">
-        <f>Jan!$B$75</f>
+        <f>Nov!$B$75</f>
         <v>0</v>
       </c>
       <c r="N19" s="116">
-        <f>Jan!$B$75</f>
+        <f>Dez!$B$75</f>
         <v>0</v>
       </c>
       <c r="O19" s="122">
@@ -9449,52 +9593,52 @@
         <v>0</v>
       </c>
       <c r="D20" s="119">
-        <f>Jan!$B$83</f>
+        <f>Fev!$B$83</f>
         <v>0</v>
       </c>
       <c r="E20" s="118">
-        <f>Jan!$B$83</f>
+        <f>Mar!$B$83</f>
         <v>0</v>
       </c>
       <c r="F20" s="119">
-        <f>Jan!$B$83</f>
+        <f>Abr!$B$83</f>
         <v>0</v>
       </c>
       <c r="G20" s="118">
-        <f>Jan!$B$83</f>
+        <f>Mai!$B$83</f>
         <v>0</v>
       </c>
       <c r="H20" s="119">
-        <f>Jan!$B$83</f>
+        <f>Jun!$B$83</f>
         <v>0</v>
       </c>
       <c r="I20" s="118">
-        <f>Jan!$B$83</f>
+        <f>Jul!$B$83</f>
         <v>0</v>
       </c>
       <c r="J20" s="119">
-        <f>Jan!$B$83</f>
-        <v>0</v>
+        <f>Ago!$B$83</f>
+        <v>270</v>
       </c>
       <c r="K20" s="118">
-        <f>Jan!$B$83</f>
+        <f>Set!$B$83</f>
         <v>0</v>
       </c>
       <c r="L20" s="119">
-        <f>Jan!$B$83</f>
+        <f>Out!$B$83</f>
         <v>0</v>
       </c>
       <c r="M20" s="118">
-        <f>Jan!$B$83</f>
+        <f>Nov!$B$83</f>
         <v>0</v>
       </c>
       <c r="N20" s="120">
-        <f>Jan!$B$83</f>
+        <f>Dez!$B$83</f>
         <v>0</v>
       </c>
       <c r="O20" s="123">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9507,7 +9651,7 @@
       </c>
       <c r="D24" s="67">
         <f>SUBTOTAL(9,Fev!D35,Fev!D35,Mar!D35,Abr!D35,Mai!D35,Jun!D35,Jul!D35,Ago!D35,Set!D35,Out!D35,Nov!D35,Dez!D35)</f>
-        <v>14.98</v>
+        <v>17.23</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -9515,14 +9659,14 @@
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f>SUM(D24:D28)</f>
-        <v>43.58</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="69">
         <f>SUBTOTAL(9,Fev!D36,Fev!D36,Mar!D36,Abr!D36,Mai!D36,Jun!D36,Jul!D36,Ago!D36,Set!D36,Out!D36,Nov!D36,Dez!D36)</f>
-        <v>0</v>
+        <v>25.57</v>
       </c>
       <c r="F25" s="78" t="s">
         <v>111</v>
@@ -9590,7 +9734,7 @@
       </c>
       <c r="G29" s="69">
         <f>SUBTOTAL(9,Jan!I39,Fev!I39,Mar!I39,Abr!I39,Mai!I39,Jun!I39,Jul!I39,Ago!I39,Set!I39,Out!I39,Nov!I39,Dez!I39)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -9615,7 +9759,7 @@
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f>SUM(D30:D37)</f>
-        <v>148.13999999999999</v>
+        <v>185.54</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>22</v>
@@ -9690,7 +9834,7 @@
       </c>
       <c r="D35" s="69">
         <f>SUBTOTAL(9,Fev!D46,Fev!D46,Mar!D46,Abr!D46,Mai!D46,Jun!D46,Jul!D46,Ago!D46,Set!D46,Out!D46,Nov!D46,Dez!D46)</f>
-        <v>16.14</v>
+        <v>53.54</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="71">
@@ -10107,8 +10251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10229,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="55" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="P6" s="57" t="s">
         <v>82</v>
@@ -10262,7 +10406,9 @@
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8"/>
-      <c r="N8" s="55"/>
+      <c r="N8" s="55" t="s">
+        <v>154</v>
+      </c>
       <c r="P8" s="57" t="s">
         <v>83</v>
       </c>
@@ -10379,9 +10525,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="N13" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="56"/>
+        <v>156</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
@@ -10421,7 +10569,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
-      <c r="N16" s="56"/>
+      <c r="N16" s="133" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
@@ -10489,7 +10639,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="N21" s="55" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11308,7 +11458,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12339,7 +12489,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13370,7 +13520,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14401,7 +14551,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15432,7 +15582,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16465,7 +16615,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17531,7 +17681,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18702,7 +18852,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46002</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>55319</author>
+  </authors>
+  <commentList>
+    <comment ref="O11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Preciso melhorar:
+Abordagem
+Venda
+Preço 
+Iluminação</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="160">
   <si>
     <t>JAN</t>
   </si>
@@ -535,6 +562,12 @@
   <si>
     <t>Fotografia (equipamentos e cursos)</t>
   </si>
+  <si>
+    <t>Solei no Cristo</t>
+  </si>
+  <si>
+    <t>Abordagem e venda -Uber de 16,9</t>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +577,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +599,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1581,6 +1620,13 @@
     <xf numFmtId="44" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1595,13 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,9 +2252,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2558,7 +2595,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>946.84</c:v>
+                  <c:v>1046.8400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,7 +2858,7 @@
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>234.96000000000004</c:v>
+                  <c:v>334.96000000000015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,11 +2874,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1433696144"/>
-        <c:axId val="-1433695600"/>
+        <c:axId val="446858400"/>
+        <c:axId val="446861120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1433696144"/>
+        <c:axId val="446858400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +2920,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1433695600"/>
+        <c:crossAx val="446861120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2891,7 +2928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1433695600"/>
+        <c:axId val="446861120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2941,7 +2978,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1433696144"/>
+        <c:crossAx val="446858400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2992,7 +3029,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4518,10 +4554,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -4552,7 +4588,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4594,19 +4630,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -5545,10 +5581,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -5579,7 +5615,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5626,19 +5662,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -6586,10 +6622,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -6620,7 +6656,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6667,19 +6703,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -7582,14 +7618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7605,7 +7641,7 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="127" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7626,10 +7662,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7642,7 +7678,7 @@
       </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>946.84</v>
+        <v>1046.8400000000001</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7656,7 +7692,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="26">
         <f>SUM(P10:P25)</f>
-        <v>160.25</v>
+        <v>260.25</v>
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
@@ -7664,7 +7700,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="N4"/>
     </row>
@@ -7678,7 +7714,7 @@
       </c>
       <c r="F5" s="98">
         <f>D4</f>
-        <v>160.25</v>
+        <v>260.25</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>7</v>
@@ -7713,7 +7749,7 @@
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>234.95999999999998</v>
+        <v>334.96000000000009</v>
       </c>
       <c r="N7"/>
     </row>
@@ -7721,19 +7757,19 @@
       <c r="N8"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -7778,7 +7814,7 @@
       <c r="M10" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="N10" s="129">
+      <c r="N10" s="124">
         <v>46005</v>
       </c>
       <c r="O10" s="90" t="s">
@@ -7816,10 +7852,18 @@
       <c r="K11" s="60">
         <v>30</v>
       </c>
-      <c r="M11" s="77"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="61"/>
+      <c r="M11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="125">
+        <v>46012</v>
+      </c>
+      <c r="O11" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="61">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
@@ -7850,7 +7894,7 @@
         <v>6.8</v>
       </c>
       <c r="M12" s="77"/>
-      <c r="N12" s="130"/>
+      <c r="N12" s="125"/>
       <c r="O12" s="87"/>
       <c r="P12" s="61"/>
     </row>
@@ -7883,7 +7927,7 @@
         <v>130</v>
       </c>
       <c r="M13" s="77"/>
-      <c r="N13" s="130"/>
+      <c r="N13" s="125"/>
       <c r="O13" s="87"/>
       <c r="P13" s="61"/>
     </row>
@@ -7916,7 +7960,7 @@
         <v>147.5</v>
       </c>
       <c r="M14" s="77"/>
-      <c r="N14" s="130"/>
+      <c r="N14" s="125"/>
       <c r="O14" s="87"/>
       <c r="P14" s="61"/>
     </row>
@@ -7949,7 +7993,7 @@
         <v>70</v>
       </c>
       <c r="M15" s="77"/>
-      <c r="N15" s="130"/>
+      <c r="N15" s="125"/>
       <c r="O15" s="87"/>
       <c r="P15" s="61"/>
     </row>
@@ -7982,7 +8026,7 @@
         <v>30</v>
       </c>
       <c r="M16" s="77"/>
-      <c r="N16" s="130"/>
+      <c r="N16" s="125"/>
       <c r="O16" s="87"/>
       <c r="P16" s="61"/>
     </row>
@@ -8015,7 +8059,7 @@
         <v>30</v>
       </c>
       <c r="M17" s="77"/>
-      <c r="N17" s="130"/>
+      <c r="N17" s="125"/>
       <c r="O17" s="87"/>
       <c r="P17" s="61"/>
     </row>
@@ -8048,7 +8092,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="77"/>
-      <c r="N18" s="130"/>
+      <c r="N18" s="125"/>
       <c r="O18" s="87"/>
       <c r="P18" s="61"/>
     </row>
@@ -8063,7 +8107,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="61"/>
       <c r="M19" s="77"/>
-      <c r="N19" s="130"/>
+      <c r="N19" s="125"/>
       <c r="O19" s="87"/>
       <c r="P19" s="61"/>
     </row>
@@ -8078,7 +8122,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="61"/>
       <c r="M20" s="77"/>
-      <c r="N20" s="130"/>
+      <c r="N20" s="125"/>
       <c r="O20" s="87"/>
       <c r="P20" s="61"/>
     </row>
@@ -8093,7 +8137,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="61"/>
       <c r="M21" s="77"/>
-      <c r="N21" s="130"/>
+      <c r="N21" s="125"/>
       <c r="O21" s="87"/>
       <c r="P21" s="61"/>
     </row>
@@ -8108,7 +8152,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="62"/>
       <c r="M22" s="77"/>
-      <c r="N22" s="130"/>
+      <c r="N22" s="125"/>
       <c r="O22" s="87"/>
       <c r="P22" s="61"/>
     </row>
@@ -8119,7 +8163,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="34"/>
       <c r="M23" s="77"/>
-      <c r="N23" s="130"/>
+      <c r="N23" s="125"/>
       <c r="O23" s="87"/>
       <c r="P23" s="61"/>
     </row>
@@ -8130,7 +8174,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="34"/>
       <c r="M24" s="77"/>
-      <c r="N24" s="130"/>
+      <c r="N24" s="125"/>
       <c r="O24" s="87"/>
       <c r="P24" s="61"/>
     </row>
@@ -8141,7 +8185,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="34"/>
       <c r="M25" s="70"/>
-      <c r="N25" s="131"/>
+      <c r="N25" s="126"/>
       <c r="O25" s="88"/>
       <c r="P25" s="62"/>
     </row>
@@ -8762,6 +8806,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -8790,7 +8835,7 @@
   </sheetPr>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8905,11 +8950,11 @@
       </c>
       <c r="N3" s="103">
         <f>Dez!$F$3</f>
-        <v>946.84</v>
+        <v>1046.8400000000001</v>
       </c>
       <c r="O3" s="103">
         <f>SUM(C3:N3)</f>
-        <v>3793.85</v>
+        <v>3893.85</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -9133,11 +9178,11 @@
       </c>
       <c r="N7" s="107">
         <f t="shared" si="2"/>
-        <v>234.96000000000004</v>
+        <v>334.96000000000015</v>
       </c>
       <c r="O7" s="107">
         <f t="shared" si="0"/>
-        <v>1058.9299999999998</v>
+        <v>1158.93</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9190,11 +9235,11 @@
       </c>
       <c r="N8" s="101">
         <f>Dez!D4</f>
-        <v>160.25</v>
+        <v>260.25</v>
       </c>
       <c r="O8" s="101">
         <f t="shared" si="0"/>
-        <v>160.25</v>
+        <v>260.25</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10417,19 +10462,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="N9" s="54"/>
       <c r="P9" s="57" t="s">
         <v>84</v>
@@ -10569,7 +10614,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
-      <c r="N16" s="133" t="s">
+      <c r="N16" s="128" t="s">
         <v>155</v>
       </c>
     </row>
@@ -11424,10 +11469,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -11458,7 +11503,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11505,19 +11550,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -12455,10 +12500,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -12489,7 +12534,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12536,19 +12581,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -13486,10 +13531,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -13520,7 +13565,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13567,19 +13612,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -14517,10 +14562,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -14551,7 +14596,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14598,19 +14643,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -15548,10 +15593,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -15582,7 +15627,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15629,19 +15674,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -16579,10 +16624,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -16615,7 +16660,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16662,19 +16707,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -17643,10 +17688,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -17681,7 +17726,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17728,19 +17773,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>
@@ -18816,10 +18861,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -18852,7 +18897,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46012</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18899,19 +18944,19 @@
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="H9" s="127" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="H9" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
         <v>129</v>
       </c>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="162">
   <si>
     <t>JAN</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>Abordagem e venda -Uber de 16,9</t>
+  </si>
+  <si>
+    <t>Solei no Cristo e ainda mais na arvore de natal</t>
+  </si>
+  <si>
+    <t>anaconda</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2601,7 @@
                   <c:v>272.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1046.8400000000001</c:v>
+                  <c:v>1301.8400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2738,7 +2744,7 @@
                   <c:v>322.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>711.88</c:v>
+                  <c:v>801.88000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2864,7 @@
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>334.96000000000015</c:v>
+                  <c:v>499.96000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,11 +2880,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="446858400"/>
-        <c:axId val="446861120"/>
+        <c:axId val="271758336"/>
+        <c:axId val="271756160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446858400"/>
+        <c:axId val="271758336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,7 +2926,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446861120"/>
+        <c:crossAx val="271756160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2928,7 +2934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446861120"/>
+        <c:axId val="271756160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446858400"/>
+        <c:crossAx val="271758336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4588,7 +4594,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5615,7 +5621,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6656,7 +6662,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7624,8 +7630,8 @@
   </sheetPr>
   <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7678,7 +7684,7 @@
       </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1046.8400000000001</v>
+        <v>1301.8400000000001</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7692,15 +7698,15 @@
       <c r="C4" s="7"/>
       <c r="D4" s="26">
         <f>SUM(P10:P25)</f>
-        <v>260.25</v>
+        <v>515.25</v>
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>237.58</v>
+        <v>327.58000000000004</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
       <c r="N4"/>
     </row>
@@ -7714,7 +7720,7 @@
       </c>
       <c r="F5" s="98">
         <f>D4</f>
-        <v>260.25</v>
+        <v>515.25</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>7</v>
@@ -7749,7 +7755,7 @@
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>334.96000000000009</v>
+        <v>499.96000000000009</v>
       </c>
       <c r="N7"/>
     </row>
@@ -7893,10 +7899,18 @@
       <c r="K12" s="61">
         <v>6.8</v>
       </c>
-      <c r="M12" s="77"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="61"/>
+      <c r="M12" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="N12" s="125">
+        <v>46011</v>
+      </c>
+      <c r="O12" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="61">
+        <v>255</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
@@ -8097,11 +8111,21 @@
       <c r="P18" s="61"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="22">
+        <v>46017</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="34">
+        <v>26</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="13"/>
       <c r="J19" s="1"/>
@@ -8112,11 +8136,21 @@
       <c r="P19" s="61"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="22">
+        <v>46015</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="34">
+        <v>64</v>
+      </c>
       <c r="H20" s="19"/>
       <c r="I20" s="13"/>
       <c r="J20" s="1"/>
@@ -8357,14 +8391,14 @@
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f>SUBTOTAL(9,D41:D48)</f>
-        <v>37.4</v>
+        <v>127.4</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H42" s="79" t="s">
         <v>118</v>
@@ -8426,7 +8460,7 @@
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
-        <v>37.4</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -8835,8 +8869,8 @@
   </sheetPr>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8950,11 +8984,11 @@
       </c>
       <c r="N3" s="103">
         <f>Dez!$F$3</f>
-        <v>1046.8400000000001</v>
+        <v>1301.8400000000001</v>
       </c>
       <c r="O3" s="103">
         <f>SUM(C3:N3)</f>
-        <v>3893.85</v>
+        <v>4148.8500000000004</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -9007,11 +9041,11 @@
       </c>
       <c r="N4" s="104">
         <f>Dez!$F$4</f>
-        <v>237.58</v>
+        <v>327.58000000000004</v>
       </c>
       <c r="O4" s="104">
         <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
-        <v>1756.8199999999997</v>
+        <v>1846.8199999999997</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -9121,11 +9155,11 @@
       </c>
       <c r="N6" s="106">
         <f t="shared" si="1"/>
-        <v>711.88</v>
+        <v>801.88000000000011</v>
       </c>
       <c r="O6" s="106">
         <f t="shared" si="0"/>
-        <v>2734.92</v>
+        <v>2824.92</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -9178,11 +9212,11 @@
       </c>
       <c r="N7" s="107">
         <f t="shared" si="2"/>
-        <v>334.96000000000015</v>
+        <v>499.96000000000004</v>
       </c>
       <c r="O7" s="107">
         <f t="shared" si="0"/>
-        <v>1158.93</v>
+        <v>1323.9299999999998</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9235,11 +9269,11 @@
       </c>
       <c r="N8" s="101">
         <f>Dez!D4</f>
-        <v>260.25</v>
+        <v>515.25</v>
       </c>
       <c r="O8" s="101">
         <f t="shared" si="0"/>
-        <v>260.25</v>
+        <v>515.25</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9394,11 +9428,11 @@
       </c>
       <c r="N15" s="116">
         <f>Dez!$B$42</f>
-        <v>37.4</v>
+        <v>127.4</v>
       </c>
       <c r="O15" s="122">
         <f t="shared" ref="O15:O20" si="3">SUM(C15:N15)</f>
-        <v>185.54</v>
+        <v>275.53999999999996</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -9804,14 +9838,14 @@
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f>SUM(D30:D37)</f>
-        <v>185.54</v>
+        <v>275.54000000000002</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="69">
         <f>SUBTOTAL(9,Fev!D42,Fev!D42,Mar!D42,Abr!D42,Mai!D42,Jun!D42,Jul!D42,Ago!D42,Set!D42,Out!D42,Nov!D42,Dez!D42)</f>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F31" s="79" t="s">
         <v>117</v>
@@ -9879,7 +9913,7 @@
       </c>
       <c r="D35" s="69">
         <f>SUBTOTAL(9,Fev!D46,Fev!D46,Mar!D46,Abr!D46,Mai!D46,Jun!D46,Jul!D46,Ago!D46,Set!D46,Out!D46,Nov!D46,Dez!D46)</f>
-        <v>53.54</v>
+        <v>117.54</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="71">
@@ -11503,7 +11537,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12534,7 +12568,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13565,7 +13599,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14596,7 +14630,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15627,7 +15661,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16660,7 +16694,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17726,7 +17760,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18897,7 +18931,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="149">
   <si>
     <t>JAN</t>
   </si>
@@ -191,9 +191,6 @@
     <t>moto pista</t>
   </si>
   <si>
-    <t>plano internet claro</t>
-  </si>
-  <si>
     <t>Alimentação</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
   </si>
   <si>
     <t>Churrasco dia dos pais</t>
-  </si>
-  <si>
-    <t>Parcla de cell</t>
-  </si>
-  <si>
-    <t>corte de cabelo antes da festa</t>
   </si>
   <si>
     <t>Passeios / Viagens</t>
@@ -239,16 +230,10 @@
     <t>curso</t>
   </si>
   <si>
-    <t>cell, camera</t>
-  </si>
-  <si>
     <t>Compras online aleatórias</t>
   </si>
   <si>
     <t>cartão de memória e adaptador</t>
-  </si>
-  <si>
-    <t>spotify</t>
   </si>
   <si>
     <t>biscoito</t>
@@ -491,19 +476,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>claro</t>
-  </si>
-  <si>
-    <t>ultima do cell</t>
-  </si>
-  <si>
-    <t>sitio carnaval</t>
-  </si>
-  <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>moto</t>
   </si>
   <si>
     <t>caixa de bombom</t>
@@ -527,16 +500,7 @@
     <t>volei</t>
   </si>
   <si>
-    <t>Xadrez Dance</t>
-  </si>
-  <si>
-    <t>Fotos vendidas individualmente</t>
-  </si>
-  <si>
     <t>ceia de fim de ano</t>
-  </si>
-  <si>
-    <t>barbeiro</t>
   </si>
   <si>
     <t>apostila de fotografia</t>
@@ -563,16 +527,13 @@
     <t>Fotografia (equipamentos e cursos)</t>
   </si>
   <si>
-    <t>Solei no Cristo</t>
+    <t>anaconda</t>
   </si>
   <si>
-    <t>Abordagem e venda -Uber de 16,9</t>
+    <t>entrada total - tudo que tenho</t>
   </si>
   <si>
-    <t>Solei no Cristo e ainda mais na arvore de natal</t>
-  </si>
-  <si>
-    <t>anaconda</t>
+    <t>internet 5G</t>
   </si>
 </sst>
 </file>
@@ -2306,10 +2267,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.6</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2318,7 +2279,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2327,7 +2288,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>624.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2568,40 +2529,40 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1443.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>654</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>785.52</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>797.89</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>336.7</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>272.89999999999998</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1301.8400000000001</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,7 +2672,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2729,22 +2690,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>647.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>461.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>322.89999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>801.88000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,40 +2792,40 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138.37</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>336.7</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>272.89999999999998</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-50</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>499.96000000000004</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,11 +2841,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="271758336"/>
-        <c:axId val="271756160"/>
+        <c:axId val="-1904788096"/>
+        <c:axId val="-1904796256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271758336"/>
+        <c:axId val="-1904788096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +2887,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271756160"/>
+        <c:crossAx val="-1904796256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2934,7 +2895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271756160"/>
+        <c:axId val="-1904796256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +2945,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271758336"/>
+        <c:crossAx val="-1904788096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4526,8 +4487,8 @@
   </sheetPr>
   <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,12 +4496,12 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="12" customWidth="1"/>
@@ -4569,11 +4530,15 @@
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1443.24</v>
+      </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>0</v>
+        <v>1443.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -4581,7 +4546,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -4594,7 +4559,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4613,16 +4578,16 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I6" s="14">
-        <v>45847</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4631,7 +4596,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4650,16 +4615,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4701,10 +4666,18 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="60"/>
+      <c r="H11" s="18">
+        <v>46026</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="60">
+        <v>30</v>
+      </c>
       <c r="M11" s="77"/>
       <c r="N11" s="96"/>
       <c r="O11" s="87"/>
@@ -4960,17 +4933,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -4983,30 +4956,30 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -5015,14 +4988,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -5036,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -5047,7 +5020,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -5059,14 +5032,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -5086,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -5095,14 +5068,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -5111,14 +5084,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -5127,7 +5100,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -5141,7 +5114,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -5183,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -5192,7 +5165,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -5201,7 +5174,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -5210,7 +5183,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -5219,7 +5192,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -5241,7 +5214,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -5263,7 +5236,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -5272,7 +5245,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -5281,7 +5254,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -5309,10 +5282,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -5325,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -5334,7 +5307,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -5343,7 +5316,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -5352,7 +5325,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -5361,7 +5334,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -5380,10 +5353,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -5396,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -5405,7 +5378,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -5414,7 +5387,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -5447,10 +5420,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -5463,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -5472,7 +5445,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -5481,7 +5454,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -5490,7 +5463,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -5499,7 +5472,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -5519,7 +5492,7 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D32">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
@@ -5528,7 +5501,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Modelo!$P$3:$P$10</xm:f>
@@ -5555,7 +5528,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5576,7 +5549,7 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -5600,7 +5573,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>336.7</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -5608,7 +5581,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -5617,11 +5590,11 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5640,7 +5613,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -5659,11 +5632,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Set!F7</f>
-        <v>336.7</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>272.89999999999998</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5682,16 +5655,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5735,14 +5708,12 @@
         <v>27</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="33">
-        <v>63.8</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F11" s="33"/>
       <c r="H11" s="18"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -6002,17 +5973,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -6025,14 +5996,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -6041,14 +6012,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -6057,14 +6028,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -6078,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -6089,7 +6060,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -6101,14 +6072,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -6128,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -6137,14 +6108,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -6153,14 +6124,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -6169,7 +6140,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -6183,7 +6154,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -6222,10 +6193,10 @@
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="73">
         <f>SUM(D50:D56)</f>
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -6234,7 +6205,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -6243,7 +6214,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -6252,7 +6223,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -6261,11 +6232,11 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
-        <v>63.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6283,7 +6254,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -6305,7 +6276,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -6314,7 +6285,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -6323,7 +6294,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -6351,10 +6322,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -6367,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -6376,7 +6347,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -6385,7 +6356,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -6394,7 +6365,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -6403,7 +6374,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -6422,10 +6393,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -6438,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -6447,7 +6418,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -6456,7 +6427,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -6489,10 +6460,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -6505,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -6514,7 +6485,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -6523,7 +6494,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -6532,7 +6503,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -6541,7 +6512,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -6596,7 +6567,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,7 +6588,7 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -6641,7 +6612,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>272.89999999999998</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -6649,7 +6620,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -6658,11 +6629,11 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>322.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6681,7 +6652,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -6700,11 +6671,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Out!F7</f>
-        <v>272.89999999999998</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>-50</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6723,16 +6694,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6773,9 +6744,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="33">
-        <v>272.89999999999998</v>
-      </c>
+      <c r="F11" s="33"/>
       <c r="H11" s="18"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -6790,9 +6759,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="34">
-        <v>50</v>
-      </c>
+      <c r="F12" s="34"/>
       <c r="H12" s="19"/>
       <c r="I12" s="13"/>
       <c r="J12" s="1"/>
@@ -7037,17 +7004,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -7060,14 +7027,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -7076,14 +7043,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -7092,14 +7059,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -7113,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -7124,7 +7091,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -7136,14 +7103,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -7163,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -7172,14 +7139,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -7188,14 +7155,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -7204,7 +7171,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -7218,7 +7185,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -7260,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -7269,7 +7236,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -7278,7 +7245,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -7287,7 +7254,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -7296,7 +7263,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -7318,7 +7285,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -7340,7 +7307,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -7349,7 +7316,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -7358,7 +7325,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -7386,10 +7353,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -7402,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -7411,7 +7378,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -7420,7 +7387,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -7429,7 +7396,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -7438,7 +7405,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -7457,10 +7424,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -7473,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -7482,7 +7449,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -7491,7 +7458,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -7524,10 +7491,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -7540,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -7549,7 +7516,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -7558,7 +7525,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -7567,7 +7534,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -7576,7 +7543,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -7631,7 +7598,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,7 +7624,7 @@
     </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -7679,12 +7646,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30">
-        <v>652.59</v>
-      </c>
+      <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1301.8400000000001</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7693,20 +7658,20 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
         <f>SUM(P10:P25)</f>
-        <v>515.25</v>
+        <v>0</v>
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>327.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
       <c r="N4"/>
     </row>
@@ -7715,12 +7680,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="27">
-        <v>104</v>
-      </c>
+      <c r="D5" s="27"/>
       <c r="F5" s="98">
         <f>D4</f>
-        <v>515.25</v>
+        <v>0</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>7</v>
@@ -7729,15 +7692,13 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="27">
-        <v>80</v>
-      </c>
+      <c r="D6" s="27"/>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>474.3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="14">
         <v>46002</v>
@@ -7751,11 +7712,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Nov!F7</f>
-        <v>-50</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>499.96000000000009</v>
+        <v>1413.24</v>
       </c>
       <c r="N7"/>
     </row>
@@ -7777,16 +7738,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7817,59 +7778,33 @@
       <c r="K10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="N10" s="124">
-        <v>46005</v>
-      </c>
-      <c r="O10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" s="60">
-        <v>160.25</v>
-      </c>
+      <c r="M10" s="89"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>46001</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="33">
-        <v>14.98</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="60">
-        <v>30</v>
-      </c>
-      <c r="M11" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="N11" s="125">
-        <v>46012</v>
-      </c>
-      <c r="O11" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="P11" s="61">
-        <v>100</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="60"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
@@ -7879,38 +7814,20 @@
         <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="34">
-        <v>22.5</v>
-      </c>
-      <c r="H12" s="19">
-        <v>45966</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="61">
-        <v>6.8</v>
-      </c>
-      <c r="M12" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="N12" s="125">
-        <v>46011</v>
-      </c>
-      <c r="O12" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="P12" s="61">
-        <v>255</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="61"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
@@ -7920,26 +7837,16 @@
         <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="34">
-        <v>114.98</v>
-      </c>
-      <c r="H13" s="19">
-        <v>45996</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" s="61">
-        <v>130</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="61"/>
       <c r="M13" s="77"/>
       <c r="N13" s="125"/>
       <c r="O13" s="87"/>
@@ -7950,29 +7857,19 @@
         <v>46004</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="34">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H14" s="19">
-        <v>45998</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="61">
-        <v>147.5</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="61"/>
       <c r="M14" s="77"/>
       <c r="N14" s="125"/>
       <c r="O14" s="87"/>
@@ -7986,26 +7883,16 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="34">
-        <v>20</v>
-      </c>
-      <c r="H15" s="19">
-        <v>45999</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="61">
-        <v>70</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="61"/>
       <c r="M15" s="77"/>
       <c r="N15" s="125"/>
       <c r="O15" s="87"/>
@@ -8019,26 +7906,16 @@
         <v>27</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="34">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="H16" s="19">
-        <v>46000</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="61">
-        <v>30</v>
-      </c>
+      <c r="F16" s="34"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="61"/>
       <c r="M16" s="77"/>
       <c r="N16" s="125"/>
       <c r="O16" s="87"/>
@@ -8049,29 +7926,19 @@
         <v>46012</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="34">
-        <v>25.57</v>
-      </c>
-      <c r="H17" s="19">
-        <v>46009</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="61">
-        <v>30</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="61"/>
       <c r="M17" s="77"/>
       <c r="N17" s="125"/>
       <c r="O17" s="87"/>
@@ -8082,29 +7949,19 @@
         <v>46011</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="34">
-        <v>2.25</v>
-      </c>
-      <c r="H18" s="19">
-        <v>46010</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K18" s="61">
-        <v>30</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="61"/>
       <c r="M18" s="77"/>
       <c r="N18" s="125"/>
       <c r="O18" s="87"/>
@@ -8115,17 +7972,15 @@
         <v>46017</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="34">
-        <v>26</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F19" s="34"/>
       <c r="H19" s="19"/>
       <c r="I19" s="13"/>
       <c r="J19" s="1"/>
@@ -8140,17 +7995,15 @@
         <v>46015</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="34">
-        <v>64</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F20" s="34"/>
       <c r="H20" s="19"/>
       <c r="I20" s="13"/>
       <c r="J20" s="1"/>
@@ -8275,53 +8128,53 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
-        <v>17.23</v>
+        <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f>SUM(D35:D39)</f>
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
-        <v>25.57</v>
+        <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -8330,14 +8183,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -8351,18 +8204,18 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -8374,14 +8227,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -8391,33 +8244,33 @@
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f>SUBTOTAL(9,D41:D48)</f>
-        <v>127.4</v>
+        <v>0</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="69">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
-        <v>347.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -8426,14 +8279,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -8442,7 +8295,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -8456,11 +8309,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
-        <v>101.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -8495,10 +8348,10 @@
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="73">
         <f>SUM(D50:D56)</f>
-        <v>137.48000000000002</v>
+        <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -8507,7 +8360,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -8516,25 +8369,25 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
-        <v>114.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -8556,7 +8409,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -8578,7 +8431,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -8587,7 +8440,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -8596,7 +8449,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -8624,10 +8477,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -8640,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -8649,7 +8502,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -8658,7 +8511,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -8667,7 +8520,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -8676,7 +8529,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -8695,10 +8548,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -8711,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -8720,7 +8573,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -8729,7 +8582,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -8762,10 +8615,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -8778,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -8787,7 +8640,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -8796,7 +8649,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -8805,7 +8658,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -8814,7 +8667,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -8869,8 +8722,8 @@
   </sheetPr>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8884,7 +8737,7 @@
     <col min="8" max="9" width="12.7109375" style="48" customWidth="1"/>
     <col min="10" max="13" width="13.140625" style="48" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8892,108 +8745,108 @@
     <row r="1" spans="2:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="K2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="L2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="M2" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="N2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>73</v>
-      </c>
       <c r="O2" s="51" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" s="42">
         <f>Jan!$F$3</f>
-        <v>0</v>
+        <v>1443.24</v>
       </c>
       <c r="D3" s="41">
         <f>Fev!$F$3</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="E3" s="41">
         <f>Mar!$F$3</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F3" s="41">
         <f>Abr!$F$3</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="G3" s="41">
         <f>Mai!$F$3</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="H3" s="41">
         <f>Jun!$F$3</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="41">
         <f>Jul!$F$3</f>
-        <v>654</v>
+        <v>1413.24</v>
       </c>
       <c r="J3" s="41">
         <f>Ago!$F$3</f>
-        <v>785.52</v>
+        <v>1413.24</v>
       </c>
       <c r="K3" s="41">
         <f>Set!$F$3</f>
-        <v>797.89</v>
+        <v>1413.24</v>
       </c>
       <c r="L3" s="41">
         <f>Out!$F$3</f>
-        <v>336.7</v>
+        <v>1413.24</v>
       </c>
       <c r="M3" s="41">
         <f>Nov!$F$3</f>
-        <v>272.89999999999998</v>
+        <v>1413.24</v>
       </c>
       <c r="N3" s="103">
         <f>Dez!$F$3</f>
-        <v>1301.8400000000001</v>
+        <v>1413.24</v>
       </c>
       <c r="O3" s="103">
         <f>SUM(C3:N3)</f>
-        <v>4148.8500000000004</v>
+        <v>16988.88</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="43">
         <f>Jan!$F$4</f>
@@ -9021,40 +8874,40 @@
       </c>
       <c r="I4" s="43">
         <f>Jul!$F$4</f>
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="J4" s="43">
         <f>Ago!$F$4</f>
-        <v>427.15</v>
+        <v>0</v>
       </c>
       <c r="K4" s="43">
         <f>Set!$F$4</f>
-        <v>177.39</v>
+        <v>0</v>
       </c>
       <c r="L4" s="43">
         <f>Out!$F$4</f>
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="M4" s="43">
         <f>Nov!$F$4</f>
-        <v>322.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="N4" s="104">
         <f>Dez!$F$4</f>
-        <v>327.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="O4" s="104">
         <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
-        <v>1846.8199999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="44">
         <f>Jan!$F$6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="44">
         <f>Fev!$F$6</f>
@@ -9082,11 +8935,11 @@
       </c>
       <c r="J5" s="44">
         <f>Ago!$F$6</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K5" s="44">
         <f>Set!$F$6</f>
-        <v>283.8</v>
+        <v>0</v>
       </c>
       <c r="L5" s="44">
         <f>Out!$F$6</f>
@@ -9098,20 +8951,20 @@
       </c>
       <c r="N5" s="105">
         <f>Dez!$F$6</f>
-        <v>474.3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="105">
         <f t="shared" si="0"/>
-        <v>978.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C6" s="45">
         <f>C4+C5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D6" s="45">
         <f t="shared" ref="D6:N6" si="1">D4+D5</f>
@@ -9135,31 +8988,31 @@
       </c>
       <c r="I6" s="45">
         <f t="shared" si="1"/>
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="J6" s="45">
         <f t="shared" si="1"/>
-        <v>647.15</v>
+        <v>0</v>
       </c>
       <c r="K6" s="45">
         <f t="shared" si="1"/>
-        <v>461.19</v>
+        <v>0</v>
       </c>
       <c r="L6" s="45">
         <f t="shared" si="1"/>
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="M6" s="45">
         <f t="shared" si="1"/>
-        <v>322.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="N6" s="106">
         <f t="shared" si="1"/>
-        <v>801.88000000000011</v>
+        <v>0</v>
       </c>
       <c r="O6" s="106">
         <f t="shared" si="0"/>
-        <v>2824.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -9168,60 +9021,60 @@
       </c>
       <c r="C7" s="102">
         <f>C3-C6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="D7" s="102">
         <f t="shared" ref="D7:N7" si="2">D3-D6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="E7" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="G7" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="H7" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="I7" s="102">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>1413.24</v>
       </c>
       <c r="J7" s="102">
         <f t="shared" si="2"/>
-        <v>138.37</v>
+        <v>1413.24</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="2"/>
-        <v>336.7</v>
+        <v>1413.24</v>
       </c>
       <c r="L7" s="102">
         <f t="shared" si="2"/>
-        <v>272.89999999999998</v>
+        <v>1413.24</v>
       </c>
       <c r="M7" s="102">
         <f t="shared" si="2"/>
-        <v>-50</v>
+        <v>1413.24</v>
       </c>
       <c r="N7" s="107">
         <f t="shared" si="2"/>
-        <v>499.96000000000004</v>
+        <v>1413.24</v>
       </c>
       <c r="O7" s="107">
         <f t="shared" si="0"/>
-        <v>1323.9299999999998</v>
+        <v>16958.88</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="99" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C8" s="100">
         <f>Jan!D4</f>
@@ -9269,61 +9122,61 @@
       </c>
       <c r="N8" s="101">
         <f>Dez!D4</f>
-        <v>515.25</v>
+        <v>0</v>
       </c>
       <c r="O8" s="101">
         <f t="shared" si="0"/>
-        <v>515.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="K13" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="L13" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="M13" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="N13" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>73</v>
-      </c>
       <c r="O13" s="51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="110">
         <f>Jan!$B$36</f>
@@ -9355,11 +9208,11 @@
       </c>
       <c r="J14" s="111">
         <f>Ago!$B$36</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K14" s="110">
         <f>Set!$B$36</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="L14" s="111">
         <f>Out!$B$36</f>
@@ -9371,11 +9224,11 @@
       </c>
       <c r="N14" s="112">
         <f>Dez!$B$36</f>
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="O14" s="121">
         <f>SUM(C14:N14)</f>
-        <v>71.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -9408,15 +9261,15 @@
       </c>
       <c r="I15" s="114">
         <f>Jul!$B$42</f>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J15" s="115">
         <f>Ago!$B$42</f>
-        <v>81.14</v>
+        <v>0</v>
       </c>
       <c r="K15" s="114">
         <f>Set!$B$42</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15" s="115">
         <f>Out!$B$42</f>
@@ -9428,11 +9281,11 @@
       </c>
       <c r="N15" s="116">
         <f>Dez!$B$42</f>
-        <v>127.4</v>
+        <v>0</v>
       </c>
       <c r="O15" s="122">
         <f t="shared" ref="O15:O20" si="3">SUM(C15:N15)</f>
-        <v>275.53999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -9465,7 +9318,7 @@
       </c>
       <c r="I16" s="114">
         <f>Jul!$B$51</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J16" s="115">
         <f>Ago!$B$51</f>
@@ -9473,11 +9326,11 @@
       </c>
       <c r="K16" s="114">
         <f>Set!$B$51</f>
-        <v>160.29000000000002</v>
+        <v>0</v>
       </c>
       <c r="L16" s="115">
         <f>Out!$B$51</f>
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="M16" s="114">
         <f>Nov!$B$51</f>
@@ -9485,11 +9338,11 @@
       </c>
       <c r="N16" s="116">
         <f>Dez!$B$51</f>
-        <v>137.48000000000002</v>
+        <v>0</v>
       </c>
       <c r="O16" s="122">
         <f t="shared" si="3"/>
-        <v>372.57000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -9522,15 +9375,15 @@
       </c>
       <c r="I17" s="114">
         <f>Jul!$B$59</f>
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="J17" s="115">
         <f>Ago!$B$59</f>
-        <v>49.01</v>
+        <v>0</v>
       </c>
       <c r="K17" s="114">
         <f>Set!$B$59</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L17" s="115">
         <f>Out!$B$59</f>
@@ -9546,12 +9399,12 @@
       </c>
       <c r="O17" s="122">
         <f t="shared" si="3"/>
-        <v>514.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="113" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C18" s="114">
         <f>Jan!$B$67</f>
@@ -9608,7 +9461,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="113" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C19" s="114">
         <f>Jan!$B$75</f>
@@ -9665,7 +9518,7 @@
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="118">
         <f>Jan!$B$83</f>
@@ -9697,7 +9550,7 @@
       </c>
       <c r="J20" s="119">
         <f>Ago!$B$83</f>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K20" s="118">
         <f>Set!$B$83</f>
@@ -9717,20 +9570,20 @@
       </c>
       <c r="O20" s="123">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D24" s="67">
         <f>SUBTOTAL(9,Fev!D35,Fev!D35,Mar!D35,Abr!D35,Mai!D35,Jun!D35,Jul!D35,Ago!D35,Set!D35,Out!D35,Nov!D35,Dez!D35)</f>
-        <v>17.23</v>
+        <v>0</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -9738,51 +9591,51 @@
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f>SUM(D24:D28)</f>
-        <v>71.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D25" s="69">
         <f>SUBTOTAL(9,Fev!D36,Fev!D36,Mar!D36,Abr!D36,Mai!D36,Jun!D36,Jul!D36,Ago!D36,Set!D36,Out!D36,Nov!D36,Dez!D36)</f>
-        <v>25.57</v>
+        <v>0</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G25" s="67">
         <f>SUBTOTAL(9,Jan!I35,Fev!I35,Mar!I35,Abr!I35,Mai!I35,Jun!I35,Jul!I35,Ago!I35,Set!I35,Out!I35,Nov!I35,Dez!I35)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="69">
         <f>SUBTOTAL(9,Fev!D37,Fev!D37,Mar!D37,Abr!D37,Mai!D37,Jun!D37,Jul!D37,Ago!D37,Set!D37,Out!D37,Nov!D37,Dez!D37)</f>
         <v>0</v>
       </c>
       <c r="F26" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G26" s="69">
         <f>SUBTOTAL(9,Jan!I36,Fev!I36,Mar!I36,Abr!I36,Mai!I36,Jun!I36,Jul!I36,Ago!I36,Set!I36,Out!I36,Nov!I36,Dez!I36)</f>
-        <v>13.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="69">
         <f>SUBTOTAL(9,Fev!D38,Fev!D38,Mar!D38,Abr!D38,Mai!D38,Jun!D38,Jul!D38,Ago!D38,Set!D38,Out!D38,Nov!D38,Dez!D38)</f>
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="F27" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G27" s="69">
         <f>SUBTOTAL(9,Jan!I37,Fev!I37,Mar!I37,Abr!I37,Mai!I37,Jun!I37,Jul!I37,Ago!I37,Set!I37,Out!I37,Nov!I37,Dez!I37)</f>
@@ -9797,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G28" s="69">
         <f>SUBTOTAL(9,Jan!I38,Fev!I38,Mar!I38,Abr!I38,Mai!I38,Jun!I38,Jul!I38,Ago!I38,Set!I38,Out!I38,Nov!I38,Dez!I38)</f>
@@ -9809,11 +9662,11 @@
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="F29" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G29" s="69">
         <f>SUBTOTAL(9,Jan!I39,Fev!I39,Mar!I39,Abr!I39,Mai!I39,Jun!I39,Jul!I39,Ago!I39,Set!I39,Out!I39,Nov!I39,Dez!I39)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -9821,14 +9674,14 @@
         <v>21</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D30" s="67">
         <f>SUBTOTAL(9,Fev!D41,Fev!D41,Mar!D41,Abr!D41,Mai!D41,Jun!D41,Jul!D41,Ago!D41,Set!D41,Out!D41,Nov!D41,Dez!D41)</f>
         <v>0</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G30" s="69">
         <f>SUBTOTAL(9,Jan!I40,Fev!I40,Mar!I40,Abr!I40,Mai!I40,Jun!I40,Jul!I40,Ago!I40,Set!I40,Out!I40,Nov!I40,Dez!I40)</f>
@@ -9838,17 +9691,17 @@
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f>SUM(D30:D37)</f>
-        <v>275.54000000000002</v>
+        <v>0</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="69">
         <f>SUBTOTAL(9,Fev!D42,Fev!D42,Mar!D42,Abr!D42,Mai!D42,Jun!D42,Jul!D42,Ago!D42,Set!D42,Out!D42,Nov!D42,Dez!D42)</f>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F31" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G31" s="69">
         <f>SUBTOTAL(9,Jan!I41,Fev!I41,Mar!I41,Abr!I41,Mai!I41,Jun!I41,Jul!I41,Ago!I41,Set!I41,Out!I41,Nov!I41,Dez!I41)</f>
@@ -9858,31 +9711,31 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D32" s="69">
         <f>SUBTOTAL(9,Fev!D43,Fev!D43,Mar!D43,Abr!D43,Mai!D43,Jun!D43,Jul!D43,Ago!D43,Set!D43,Out!D43,Nov!D43,Dez!D43)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F32" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G32" s="69">
         <f>SUBTOTAL(9,Jan!I42,Fev!I42,Mar!I42,Abr!I42,Mai!I42,Jun!I42,Jul!I42,Ago!I42,Set!I42,Out!I42,Nov!I42,Dez!I42)</f>
-        <v>624.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D33" s="69">
         <f>SUBTOTAL(9,Fev!D44,Fev!D44,Mar!D44,Abr!D44,Mai!D44,Jun!D44,Jul!D44,Ago!D44,Set!D44,Out!D44,Nov!D44,Dez!D44)</f>
         <v>0</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G33" s="69">
         <f>SUBTOTAL(9,Jan!I43,Fev!I43,Mar!I43,Abr!I43,Mai!I43,Jun!I43,Jul!I43,Ago!I43,Set!I43,Out!I43,Nov!I43,Dez!I43)</f>
@@ -9892,14 +9745,14 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D34" s="69">
         <f>SUBTOTAL(9,Fev!D45,Fev!D45,Mar!D45,Abr!D45,Mai!D45,Jun!D45,Jul!D45,Ago!D45,Set!D45,Out!D45,Nov!D45,Dez!D45)</f>
         <v>0</v>
       </c>
       <c r="F34" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G34" s="69">
         <f>SUBTOTAL(9,Jan!I44,Fev!I44,Mar!I44,Abr!I44,Mai!I44,Jun!I44,Jul!I44,Ago!I44,Set!I44,Out!I44,Nov!I44,Dez!I44)</f>
@@ -9909,11 +9762,11 @@
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" s="69">
         <f>SUBTOTAL(9,Fev!D46,Fev!D46,Mar!D46,Abr!D46,Mai!D46,Jun!D46,Jul!D46,Ago!D46,Set!D46,Out!D46,Nov!D46,Dez!D46)</f>
-        <v>117.54</v>
+        <v>0</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="71">
@@ -9951,16 +9804,16 @@
       </c>
       <c r="D39" s="67">
         <f>SUBTOTAL(9,Fev!D50,Fev!D50,Mar!D50,Abr!D50,Mai!D50,Jun!D50,Jul!D50,Ago!D50,Set!D50,Out!D50,Nov!D50,Dez!D50)</f>
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="73">
         <f>SUM(D39:D45)</f>
-        <v>372.57</v>
+        <v>0</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D40" s="69">
         <f>SUBTOTAL(9,Fev!D51,Fev!D51,Mar!D51,Abr!D51,Mai!D51,Jun!D51,Jul!D51,Ago!D51,Set!D51,Out!D51,Nov!D51,Dez!D51)</f>
@@ -9970,7 +9823,7 @@
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D41" s="69">
         <f>SUBTOTAL(9,Fev!D52,Fev!D52,Mar!D52,Abr!D52,Mai!D52,Jun!D52,Jul!D52,Ago!D52,Set!D52,Out!D52,Nov!D52,Dez!D52)</f>
@@ -9980,31 +9833,31 @@
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D42" s="69">
         <f>SUBTOTAL(9,Fev!D53,Fev!D53,Mar!D53,Abr!D53,Mai!D53,Jun!D53,Jul!D53,Ago!D53,Set!D53,Out!D53,Nov!D53,Dez!D53)</f>
-        <v>200.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D43" s="69">
         <f>SUBTOTAL(9,Fev!D54,Fev!D54,Mar!D54,Abr!D54,Mai!D54,Jun!D54,Jul!D54,Ago!D54,Set!D54,Out!D54,Nov!D54,Dez!D54)</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D44" s="69">
         <f>SUBTOTAL(9,Fev!D55,Fev!D55,Mar!D55,Abr!D55,Mai!D55,Jun!D55,Jul!D55,Ago!D55,Set!D55,Out!D55,Nov!D55,Dez!D55)</f>
-        <v>63.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10025,7 +9878,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D47" s="67">
         <f>SUBTOTAL(9,Fev!D58,Fev!D58,Mar!D58,Abr!D58,Mai!D58,Jun!D58,Jul!D58,Ago!D58,Set!D58,Out!D58,Nov!D58,Dez!D58)</f>
@@ -10035,20 +9888,20 @@
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="73">
         <f>SUM(D47:D53)</f>
-        <v>514.51</v>
+        <v>0</v>
       </c>
       <c r="C48" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="69">
         <f>SUBTOTAL(9,Fev!D59,Fev!D59,Mar!D59,Abr!D59,Mai!D59,Jun!D59,Jul!D59,Ago!D59,Set!D59,Out!D59,Nov!D59,Dez!D59)</f>
-        <v>54.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D49" s="69">
         <f>SUBTOTAL(9,Fev!D60,Fev!D60,Mar!D60,Abr!D60,Mai!D60,Jun!D60,Jul!D60,Ago!D60,Set!D60,Out!D60,Nov!D60,Dez!D60)</f>
@@ -10058,7 +9911,7 @@
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D50" s="69">
         <f>SUBTOTAL(9,Fev!D61,Fev!D61,Mar!D61,Abr!D61,Mai!D61,Jun!D61,Jul!D61,Ago!D61,Set!D61,Out!D61,Nov!D61,Dez!D61)</f>
@@ -10068,7 +9921,7 @@
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D51" s="69">
         <f>SUBTOTAL(9,Fev!D62,Fev!D62,Mar!D62,Abr!D62,Mai!D62,Jun!D62,Jul!D62,Ago!D62,Set!D62,Out!D62,Nov!D62,Dez!D62)</f>
@@ -10082,7 +9935,7 @@
       </c>
       <c r="D52" s="69">
         <f>SUBTOTAL(9,Fev!D63,Fev!D63,Mar!D63,Abr!D63,Mai!D63,Jun!D63,Jul!D63,Ago!D63,Set!D63,Out!D63,Nov!D63,Dez!D63)</f>
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10100,10 +9953,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D55" s="67">
         <f>SUBTOTAL(9,Fev!D66,Fev!D66,Mar!D66,Abr!D66,Mai!D66,Jun!D66,Jul!D66,Ago!D66,Set!D66,Out!D66,Nov!D66,Dez!D66)</f>
@@ -10116,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D56" s="69">
         <f>SUBTOTAL(9,Fev!D67,Fev!D67,Mar!D67,Abr!D67,Mai!D67,Jun!D67,Jul!D67,Ago!D67,Set!D67,Out!D67,Nov!D67,Dez!D67)</f>
@@ -10126,7 +9979,7 @@
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57"/>
       <c r="C57" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D57" s="69">
         <f>SUBTOTAL(9,Fev!D68,Fev!D68,Mar!D68,Abr!D68,Mai!D68,Jun!D68,Jul!D68,Ago!D68,Set!D68,Out!D68,Nov!D68,Dez!D68)</f>
@@ -10136,7 +9989,7 @@
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58"/>
       <c r="C58" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D58" s="69">
         <f>SUBTOTAL(9,Fev!D69,Fev!D69,Mar!D69,Abr!D69,Mai!D69,Jun!D69,Jul!D69,Ago!D69,Set!D69,Out!D69,Nov!D69,Dez!D69)</f>
@@ -10146,7 +9999,7 @@
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59"/>
       <c r="C59" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D59" s="69">
         <f>SUBTOTAL(9,Fev!D70,Fev!D70,Mar!D70,Abr!D70,Mai!D70,Jun!D70,Jul!D70,Ago!D70,Set!D70,Out!D70,Nov!D70,Dez!D70)</f>
@@ -10156,7 +10009,7 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60"/>
       <c r="C60" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D60" s="69">
         <f>SUBTOTAL(9,Fev!D71,Fev!D71,Mar!D71,Abr!D71,Mai!D71,Jun!D71,Jul!D71,Ago!D71,Set!D71,Out!D71,Nov!D71,Dez!D71)</f>
@@ -10177,10 +10030,10 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D63" s="67">
         <f>SUBTOTAL(9,Fev!D74,Fev!D74,Mar!D74,Abr!D74,Mai!D74,Jun!D74,Jul!D74,Ago!D74,Set!D74,Out!D74,Nov!D74,Dez!D74)</f>
@@ -10193,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D64" s="69">
         <f>SUBTOTAL(9,Fev!D75,Fev!D75,Mar!D75,Abr!D75,Mai!D75,Jun!D75,Jul!D75,Ago!D75,Set!D75,Out!D75,Nov!D75,Dez!D75)</f>
@@ -10203,7 +10056,7 @@
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="C65" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D65" s="69">
         <f>SUBTOTAL(9,Fev!D76,Fev!D76,Mar!D76,Abr!D76,Mai!D76,Jun!D76,Jul!D76,Ago!D76,Set!D76,Out!D76,Nov!D76,Dez!D76)</f>
@@ -10213,7 +10066,7 @@
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66"/>
       <c r="C66" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D66" s="69">
         <f>SUBTOTAL(9,Fev!D77,Fev!D77,Mar!D77,Abr!D77,Mai!D77,Jun!D77,Jul!D77,Ago!D77,Set!D77,Out!D77,Nov!D77,Dez!D77)</f>
@@ -10250,10 +10103,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D71" s="67">
         <f>SUBTOTAL(9,Fev!D82,Fev!D82,Mar!D82,Abr!D82,Mai!D82,Jun!D82,Jul!D82,Ago!D82,Set!D82,Out!D82,Nov!D82,Dez!D82)</f>
@@ -10263,10 +10116,10 @@
     <row r="72" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="73">
         <f>SUM(D71:D77)</f>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="C72" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D72" s="69">
         <f>SUBTOTAL(9,Fev!D83,Fev!D83,Mar!D83,Abr!D83,Mai!D83,Jun!D83,Jul!D83,Ago!D83,Set!D83,Out!D83,Nov!D83,Dez!D83)</f>
@@ -10276,7 +10129,7 @@
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73"/>
       <c r="C73" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D73" s="69">
         <f>SUBTOTAL(9,Fev!D84,Fev!D84,Mar!D84,Abr!D84,Mai!D84,Jun!D84,Jul!D84,Ago!D84,Set!D84,Out!D84,Nov!D84,Dez!D84)</f>
@@ -10286,7 +10139,7 @@
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74"/>
       <c r="C74" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D74" s="69">
         <f>SUBTOTAL(9,Fev!D85,Fev!D85,Mar!D85,Abr!D85,Mai!D85,Jun!D85,Jul!D85,Ago!D85,Set!D85,Out!D85,Nov!D85,Dez!D85)</f>
@@ -10296,7 +10149,7 @@
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75"/>
       <c r="C75" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D75" s="69">
         <f>SUBTOTAL(9,Fev!D86,Fev!D86,Mar!D86,Abr!D86,Mai!D86,Jun!D86,Jul!D86,Ago!D86,Set!D86,Out!D86,Nov!D86,Dez!D86)</f>
@@ -10306,11 +10159,11 @@
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76"/>
       <c r="C76" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D76" s="69">
         <f>SUBTOTAL(9,Fev!D87,Fev!D87,Mar!D87,Abr!D87,Mai!D87,Jun!D87,Jul!D87,Ago!D87,Set!D87,Out!D87,Nov!D87,Dez!D87)</f>
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10357,7 +10210,7 @@
     </row>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C2" s="83" t="s">
         <v>1</v>
@@ -10387,21 +10240,21 @@
       <c r="G3" s="86"/>
       <c r="H3" s="85"/>
       <c r="M3" s="53" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N3" s="53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P3" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R3" s="56" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="27"/>
@@ -10414,13 +10267,13 @@
         <v>Alimentação</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P4" s="57" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -10434,13 +10287,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P5" s="57" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -10452,47 +10305,47 @@
         <v>0</v>
       </c>
       <c r="N6" s="55" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R6" s="56" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
         <v>0</v>
       </c>
       <c r="N7" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="57" t="s">
         <v>24</v>
       </c>
       <c r="R7" s="56" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8"/>
       <c r="N8" s="55" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="P8" s="57" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R8" s="56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10511,10 +10364,10 @@
       <c r="K9" s="132"/>
       <c r="N9" s="54"/>
       <c r="P9" s="57" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R9" s="56" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10550,13 +10403,13 @@
         <v>Lazer</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R10" s="56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -10573,7 +10426,7 @@
         <v>22</v>
       </c>
       <c r="R11" s="56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -10587,10 +10440,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="N12" s="55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R12" s="56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -10604,10 +10457,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="N13" s="55" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="R13" s="56" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -10621,7 +10474,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="N14" s="55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -10635,7 +10488,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="N15" s="55" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -10649,7 +10502,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="N16" s="128" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -10704,7 +10557,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="N20" s="55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -10718,7 +10571,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="N21" s="55" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10732,7 +10585,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="N22" s="55" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -10742,7 +10595,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="34"/>
       <c r="N23" s="55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -10752,7 +10605,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="34"/>
       <c r="N24" s="55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -10795,7 +10648,7 @@
         <v>Transporte</v>
       </c>
       <c r="N29" s="55" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -10815,7 +10668,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="34"/>
       <c r="N31" s="55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10825,13 +10678,13 @@
       <c r="E32" s="9"/>
       <c r="F32" s="35"/>
       <c r="N32" s="55" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D33"/>
       <c r="N33" s="55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -10842,10 +10695,10 @@
     </row>
     <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="64">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
@@ -10859,28 +10712,28 @@
         <v>0</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="64">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I36" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J36" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K36" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" s="55" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="64">
         <f t="shared" si="0"/>
@@ -10895,12 +10748,12 @@
         <v>Educação</v>
       </c>
       <c r="N37" s="59" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="64">
         <f t="shared" si="0"/>
@@ -10911,7 +10764,7 @@
       <c r="J38" s="87"/>
       <c r="K38" s="61"/>
       <c r="N38" s="59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -10925,7 +10778,7 @@
       <c r="J39" s="87"/>
       <c r="K39" s="61"/>
       <c r="N39" s="59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -10935,7 +10788,7 @@
       <c r="J40" s="87"/>
       <c r="K40" s="61"/>
       <c r="N40" s="59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -10943,7 +10796,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="64">
         <f t="shared" si="0"/>
@@ -10954,7 +10807,7 @@
       <c r="J41" s="87"/>
       <c r="K41" s="61"/>
       <c r="N41" s="59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -10974,12 +10827,12 @@
       <c r="J42" s="87"/>
       <c r="K42" s="61"/>
       <c r="N42" s="59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" s="55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="64">
         <f t="shared" si="0"/>
@@ -10993,7 +10846,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="55" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="64">
         <f t="shared" si="0"/>
@@ -11006,7 +10859,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="55" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="64">
         <f t="shared" si="0"/>
@@ -11021,12 +10874,12 @@
         <v>Saúde</v>
       </c>
       <c r="N45" s="55" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="64">
         <f t="shared" si="0"/>
@@ -11037,7 +10890,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="61"/>
       <c r="N46" s="55" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
@@ -11051,7 +10904,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="61"/>
       <c r="N47" s="55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -11065,7 +10918,7 @@
       <c r="J48" s="87"/>
       <c r="K48" s="61"/>
       <c r="N48" s="55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
@@ -11074,7 +10927,7 @@
       <c r="J49" s="87"/>
       <c r="K49" s="61"/>
       <c r="N49" s="55" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -11093,7 +10946,7 @@
       <c r="J50" s="87"/>
       <c r="K50" s="61"/>
       <c r="N50" s="55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -11102,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="64">
         <f t="shared" si="0"/>
@@ -11116,7 +10969,7 @@
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="64">
         <f t="shared" si="0"/>
@@ -11129,7 +10982,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" s="55" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="64">
         <f t="shared" si="0"/>
@@ -11140,31 +10993,31 @@
         <v>Imprevistos</v>
       </c>
       <c r="N53" s="55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N54" s="55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C55" s="55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N55" s="55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
@@ -11174,12 +11027,12 @@
         <v>0</v>
       </c>
       <c r="N56" s="55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N57" s="55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -11187,14 +11040,14 @@
         <v>24</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N58" s="55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
@@ -11213,7 +11066,7 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C60" s="55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="64">
         <f t="shared" si="0"/>
@@ -11222,7 +11075,7 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C61" s="55" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="64">
         <f t="shared" si="0"/>
@@ -11231,7 +11084,7 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C62" s="55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="64">
         <f t="shared" si="0"/>
@@ -11256,10 +11109,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="57" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="64">
         <f t="shared" si="0"/>
@@ -11272,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="64">
         <f t="shared" si="0"/>
@@ -11281,7 +11134,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="64">
         <f t="shared" si="0"/>
@@ -11290,7 +11143,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="64">
         <f t="shared" si="0"/>
@@ -11299,7 +11152,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="64">
         <f t="shared" si="0"/>
@@ -11308,7 +11161,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="64">
         <f t="shared" si="0"/>
@@ -11324,10 +11177,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="64">
         <f t="shared" si="0"/>
@@ -11340,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="64">
         <f t="shared" si="0"/>
@@ -11349,7 +11202,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="64">
         <f t="shared" si="0"/>
@@ -11358,7 +11211,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="64">
         <f t="shared" si="0"/>
@@ -11388,10 +11241,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="64">
         <f t="shared" si="0"/>
@@ -11404,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="64">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -11413,7 +11266,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="64">
         <f t="shared" si="0"/>
@@ -11422,7 +11275,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="64">
         <f t="shared" si="0"/>
@@ -11431,7 +11284,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="64">
         <f t="shared" si="0"/>
@@ -11440,7 +11293,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="64">
         <f t="shared" si="0"/>
@@ -11471,7 +11324,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11516,7 +11369,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -11524,7 +11377,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -11537,7 +11390,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11556,7 +11409,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -11575,11 +11428,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jan!F7</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11598,16 +11451,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11908,17 +11761,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -11931,14 +11784,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -11947,14 +11800,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -11963,14 +11816,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -11984,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -11995,7 +11848,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -12007,14 +11860,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -12034,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -12043,14 +11896,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -12059,14 +11912,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -12075,7 +11928,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -12089,7 +11942,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -12131,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -12140,7 +11993,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -12149,7 +12002,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -12158,7 +12011,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -12167,7 +12020,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -12189,7 +12042,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -12211,7 +12064,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -12220,7 +12073,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -12229,7 +12082,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -12257,10 +12110,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -12273,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -12282,7 +12135,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -12291,7 +12144,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -12300,7 +12153,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -12309,7 +12162,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -12328,10 +12181,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -12344,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -12353,7 +12206,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -12362,7 +12215,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -12395,10 +12248,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -12411,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -12420,7 +12273,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -12429,7 +12282,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -12438,7 +12291,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -12447,7 +12300,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -12502,7 +12355,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12547,7 +12400,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -12555,7 +12408,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -12568,7 +12421,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12587,7 +12440,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -12606,11 +12459,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Fev!F7</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -12629,16 +12482,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12939,17 +12792,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -12962,14 +12815,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -12978,14 +12831,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -12994,14 +12847,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -13015,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -13026,7 +12879,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -13038,14 +12891,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -13065,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -13074,14 +12927,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -13090,14 +12943,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -13106,7 +12959,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -13120,7 +12973,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -13162,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -13171,7 +13024,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -13180,7 +13033,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -13189,7 +13042,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -13198,7 +13051,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -13220,7 +13073,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -13242,7 +13095,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -13251,7 +13104,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -13260,7 +13113,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -13288,10 +13141,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -13304,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -13313,7 +13166,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -13322,7 +13175,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -13331,7 +13184,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -13340,7 +13193,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -13359,10 +13212,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -13375,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -13384,7 +13237,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -13393,7 +13246,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -13426,10 +13279,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -13442,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -13451,7 +13304,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -13460,7 +13313,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -13469,7 +13322,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -13478,7 +13331,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -13533,7 +13386,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13578,7 +13431,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -13586,7 +13439,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -13599,7 +13452,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13618,7 +13471,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -13637,11 +13490,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Mar!F7</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13660,16 +13513,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13970,17 +13823,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -13993,14 +13846,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -14009,14 +13862,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -14025,14 +13878,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -14046,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -14057,7 +13910,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -14069,14 +13922,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -14096,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -14105,14 +13958,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -14121,14 +13974,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -14137,7 +13990,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -14151,7 +14004,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -14193,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -14202,7 +14055,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -14211,7 +14064,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -14220,7 +14073,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -14229,7 +14082,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -14251,7 +14104,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -14273,7 +14126,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -14282,7 +14135,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -14291,7 +14144,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -14319,10 +14172,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -14335,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -14344,7 +14197,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -14353,7 +14206,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -14362,7 +14215,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -14371,7 +14224,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -14390,10 +14243,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -14406,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -14415,7 +14268,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -14424,7 +14277,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -14457,10 +14310,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -14473,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -14482,7 +14335,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -14491,7 +14344,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -14500,7 +14353,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -14509,7 +14362,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -14564,7 +14417,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14609,7 +14462,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -14617,7 +14470,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -14630,7 +14483,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14649,7 +14502,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -14668,11 +14521,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Abr!F7</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14691,16 +14544,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15001,17 +14854,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -15024,14 +14877,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -15040,14 +14893,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -15056,14 +14909,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -15077,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -15088,7 +14941,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -15100,14 +14953,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -15127,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -15136,14 +14989,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -15152,14 +15005,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -15168,7 +15021,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -15182,7 +15035,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -15224,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -15233,7 +15086,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -15242,7 +15095,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -15251,7 +15104,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -15260,7 +15113,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -15282,7 +15135,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -15304,7 +15157,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -15313,7 +15166,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -15322,7 +15175,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -15350,10 +15203,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -15366,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -15375,7 +15228,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -15384,7 +15237,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -15393,7 +15246,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -15402,7 +15255,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -15421,10 +15274,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -15437,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -15446,7 +15299,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -15455,7 +15308,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -15488,10 +15341,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -15504,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -15513,7 +15366,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -15522,7 +15375,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -15531,7 +15384,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -15540,7 +15393,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -15595,7 +15448,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15640,7 +15493,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -15648,7 +15501,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -15661,7 +15514,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15680,7 +15533,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -15699,11 +15552,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Mai!F7</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15722,16 +15575,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16032,17 +15885,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -16055,14 +15908,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -16071,14 +15924,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -16087,14 +15940,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -16108,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -16119,7 +15972,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -16131,14 +15984,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -16158,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -16167,14 +16020,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -16183,14 +16036,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -16199,7 +16052,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -16213,7 +16066,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -16255,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -16264,7 +16117,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -16273,7 +16126,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -16282,7 +16135,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -16291,7 +16144,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -16313,7 +16166,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -16335,7 +16188,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -16344,7 +16197,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -16353,7 +16206,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -16381,10 +16234,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -16397,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -16406,7 +16259,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -16415,7 +16268,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -16424,7 +16277,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -16433,7 +16286,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -16452,10 +16305,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -16468,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -16477,7 +16330,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -16486,7 +16339,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -16519,10 +16372,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -16535,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -16544,7 +16397,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -16553,7 +16406,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -16562,7 +16415,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -16571,7 +16424,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -16626,7 +16479,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16668,12 +16521,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30">
-        <v>654</v>
-      </c>
+      <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>654</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -16681,7 +16532,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -16690,11 +16541,11 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16713,7 +16564,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
@@ -16732,11 +16583,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jun!F7</f>
-        <v>0</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>126</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16755,16 +16606,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16813,9 +16664,7 @@
       <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="33">
-        <v>57</v>
-      </c>
+      <c r="F11" s="33"/>
       <c r="H11" s="18"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -16838,9 +16687,7 @@
       <c r="E12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="34">
-        <v>460</v>
-      </c>
+      <c r="F12" s="34"/>
       <c r="H12" s="19"/>
       <c r="I12" s="13"/>
       <c r="J12" s="1"/>
@@ -16863,9 +16710,7 @@
       <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="34">
-        <v>11</v>
-      </c>
+      <c r="F13" s="34"/>
       <c r="H13" s="19"/>
       <c r="I13" s="13"/>
       <c r="J13" s="1"/>
@@ -17095,17 +16940,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -17118,14 +16963,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -17134,14 +16979,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -17150,14 +16995,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -17171,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -17182,7 +17027,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -17194,14 +17039,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -17211,17 +17056,17 @@
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f>SUBTOTAL(9,D41:D48)</f>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="69">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -17230,14 +17075,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -17246,14 +17091,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -17262,7 +17107,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -17276,7 +17121,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
@@ -17309,16 +17154,16 @@
       </c>
       <c r="D50" s="67">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="73">
         <f>SUM(D50:D56)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -17327,7 +17172,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -17336,7 +17181,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -17345,7 +17190,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -17354,7 +17199,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -17376,7 +17221,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -17386,7 +17231,7 @@
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="73">
         <f>SUM(D58:D64)</f>
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>32</v>
@@ -17398,7 +17243,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -17407,7 +17252,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -17416,7 +17261,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -17429,7 +17274,7 @@
       </c>
       <c r="D63" s="69">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17444,10 +17289,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -17460,7 +17305,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -17469,7 +17314,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -17478,7 +17323,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -17487,7 +17332,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -17496,7 +17341,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -17515,10 +17360,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -17531,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -17540,7 +17385,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -17549,7 +17394,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -17582,10 +17427,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -17598,7 +17443,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -17607,7 +17452,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -17616,7 +17461,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -17625,7 +17470,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -17634,7 +17479,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
@@ -17689,7 +17534,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17732,12 +17577,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30">
-        <v>659.52</v>
-      </c>
+      <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>785.52</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -17745,7 +17588,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>31</v>
@@ -17756,11 +17599,11 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>427.15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17779,13 +17622,13 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I6" s="14">
         <v>45879</v>
@@ -17798,11 +17641,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jul!F7</f>
-        <v>126</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>138.37</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17821,16 +17664,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17879,19 +17722,11 @@
       <c r="E11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="33">
-        <v>5</v>
-      </c>
-      <c r="H11" s="18">
-        <v>45876</v>
-      </c>
+      <c r="F11" s="33"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="60">
-        <v>60</v>
-      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="60"/>
       <c r="M11" s="77"/>
       <c r="N11" s="96"/>
       <c r="O11" s="87"/>
@@ -17902,27 +17737,19 @@
         <v>45879</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="34">
-        <v>27</v>
-      </c>
-      <c r="H12" s="19">
-        <v>45876</v>
-      </c>
+      <c r="F12" s="34"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="61">
-        <v>130</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="61"/>
       <c r="M12" s="77"/>
       <c r="N12" s="96"/>
       <c r="O12" s="87"/>
@@ -17941,19 +17768,11 @@
       <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="34">
-        <v>5</v>
-      </c>
-      <c r="H13" s="19">
-        <v>45899</v>
-      </c>
+      <c r="F13" s="34"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="61">
-        <v>30</v>
-      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="61"/>
       <c r="M13" s="77"/>
       <c r="N13" s="96"/>
       <c r="O13" s="87"/>
@@ -17967,14 +17786,12 @@
         <v>21</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="34">
-        <v>75</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F14" s="34"/>
       <c r="H14" s="19"/>
       <c r="I14" s="13"/>
       <c r="J14" s="1"/>
@@ -17997,9 +17814,7 @@
       <c r="E15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="34">
-        <v>5</v>
-      </c>
+      <c r="F15" s="34"/>
       <c r="H15" s="19"/>
       <c r="I15" s="13"/>
       <c r="J15" s="1"/>
@@ -18022,9 +17837,7 @@
       <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="34">
-        <v>7</v>
-      </c>
+      <c r="F16" s="34"/>
       <c r="H16" s="19"/>
       <c r="I16" s="13"/>
       <c r="J16" s="1"/>
@@ -18045,11 +17858,9 @@
         <v>32</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="34">
-        <v>5.31</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F17" s="34"/>
       <c r="H17" s="19"/>
       <c r="I17" s="13"/>
       <c r="J17" s="1"/>
@@ -18072,9 +17883,7 @@
       <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="34">
-        <v>6.7</v>
-      </c>
+      <c r="F18" s="34"/>
       <c r="H18" s="19"/>
       <c r="I18" s="13"/>
       <c r="J18" s="1"/>
@@ -18092,14 +17901,12 @@
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="34">
-        <v>6.14</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F19" s="34"/>
       <c r="H19" s="19"/>
       <c r="I19" s="13"/>
       <c r="J19" s="1"/>
@@ -18114,17 +17921,15 @@
         <v>45884</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="34">
-        <v>270</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F20" s="34"/>
       <c r="H20" s="19"/>
       <c r="I20" s="13"/>
       <c r="J20" s="1"/>
@@ -18147,9 +17952,7 @@
       <c r="E21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="34">
-        <v>7.5</v>
-      </c>
+      <c r="F21" s="34"/>
       <c r="H21" s="19"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
@@ -18172,9 +17975,7 @@
       <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="34">
-        <v>7.5</v>
-      </c>
+      <c r="F22" s="34"/>
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -18269,17 +18070,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -18289,17 +18090,17 @@
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f>SUM(D35:D39)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
@@ -18308,14 +18109,14 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -18324,14 +18125,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -18345,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -18356,7 +18157,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -18368,14 +18169,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -18385,7 +18186,7 @@
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f>SUBTOTAL(9,D41:D48)</f>
-        <v>81.14</v>
+        <v>0</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>22</v>
@@ -18395,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
@@ -18404,14 +18205,14 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -18420,14 +18221,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -18436,7 +18237,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -18450,11 +18251,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
-        <v>6.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -18492,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -18501,7 +18302,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -18510,7 +18311,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
@@ -18519,7 +18320,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -18528,7 +18329,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -18550,7 +18351,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -18560,19 +18361,19 @@
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="73">
         <f>SUM(D58:D64)</f>
-        <v>49.01</v>
+        <v>0</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="69">
         <f t="shared" si="0"/>
-        <v>49.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -18581,7 +18382,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -18590,7 +18391,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -18618,10 +18419,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -18634,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -18643,7 +18444,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -18652,7 +18453,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -18661,7 +18462,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -18670,7 +18471,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -18689,10 +18490,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -18705,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -18714,7 +18515,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -18723,7 +18524,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -18756,10 +18557,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -18769,10 +18570,10 @@
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="73">
         <f>SUM(D82:D88)</f>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -18781,7 +18582,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -18790,7 +18591,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -18799,7 +18600,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -18808,11 +18609,11 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18863,7 +18664,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18884,7 +18685,7 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>1</v>
@@ -18905,12 +18706,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="30">
-        <v>659.52</v>
-      </c>
+      <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>797.89</v>
+        <v>1413.24</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -18918,7 +18717,7 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="26">
@@ -18927,11 +18726,11 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>177.39</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46020</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18950,13 +18749,13 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>283.8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="14">
         <v>45847</v>
@@ -18969,11 +18768,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Ago!F7</f>
-        <v>138.37</v>
+        <v>1413.24</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>336.7</v>
+        <v>1413.24</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18992,16 +18791,16 @@
       <c r="J9" s="132"/>
       <c r="K9" s="132"/>
       <c r="M9" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19048,23 +18847,13 @@
         <v>32</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="33">
-        <v>5.5</v>
-      </c>
-      <c r="H11" s="18">
-        <v>45901</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="60">
-        <v>277</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="60"/>
       <c r="M11" s="77"/>
       <c r="N11" s="96"/>
       <c r="O11" s="87"/>
@@ -19078,26 +18867,16 @@
         <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="34">
-        <v>85.29</v>
-      </c>
-      <c r="H12" s="19">
-        <v>45906</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="61">
-        <v>6.8</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="61"/>
       <c r="M12" s="77"/>
       <c r="N12" s="96"/>
       <c r="O12" s="87"/>
@@ -19108,17 +18887,15 @@
         <v>45903</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1.6</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F13" s="34"/>
       <c r="H13" s="19"/>
       <c r="I13" s="13"/>
       <c r="J13" s="1"/>
@@ -19139,11 +18916,9 @@
         <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="34">
-        <v>75</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F14" s="34"/>
       <c r="H14" s="19"/>
       <c r="I14" s="13"/>
       <c r="J14" s="1"/>
@@ -19161,14 +18936,12 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="34">
-        <v>10</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F15" s="34"/>
       <c r="H15" s="19"/>
       <c r="I15" s="13"/>
       <c r="J15" s="1"/>
@@ -19368,17 +19141,17 @@
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF($D$11:$D$32,C35,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I35" s="67">
         <f>SUMIF($I$11:$I$22,H35,$K$11:$K$22)</f>
@@ -19388,33 +19161,33 @@
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f>SUM(D35:D39)</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="69">
         <f t="shared" ref="D36:D88" si="0">SUMIF($D$11:$D$32,C36,$F$11:$F$32)</f>
         <v>0</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="69">
         <f t="shared" si="1"/>
@@ -19423,14 +19196,14 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="69">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" s="69">
         <f t="shared" si="1"/>
@@ -19444,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
@@ -19455,7 +19228,7 @@
       <c r="C40" s="54"/>
       <c r="D40" s="63"/>
       <c r="H40" s="79" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I40" s="69">
         <f t="shared" si="1"/>
@@ -19467,14 +19240,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D41" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" si="1"/>
@@ -19484,7 +19257,7 @@
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f>SUBTOTAL(9,D41:D48)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>22</v>
@@ -19494,23 +19267,23 @@
         <v>0</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I43" s="69">
         <f t="shared" si="1"/>
@@ -19519,14 +19292,14 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="69">
         <f t="shared" si="1"/>
@@ -19535,7 +19308,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D45" s="69">
         <f t="shared" si="0"/>
@@ -19549,11 +19322,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -19582,16 +19355,16 @@
       </c>
       <c r="D50" s="67">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="73">
         <f>SUM(D50:D56)</f>
-        <v>160.29000000000002</v>
+        <v>0</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
@@ -19600,7 +19373,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D52" s="69">
         <f t="shared" si="0"/>
@@ -19609,16 +19382,16 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="68" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
-        <v>85.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="69">
         <f t="shared" si="0"/>
@@ -19627,7 +19400,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
@@ -19649,7 +19422,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" s="67">
         <f t="shared" si="0"/>
@@ -19659,19 +19432,19 @@
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="73">
         <f>SUM(D58:D64)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="69">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D60" s="69">
         <f t="shared" si="0"/>
@@ -19680,7 +19453,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61" s="69">
         <f t="shared" si="0"/>
@@ -19689,7 +19462,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="68" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
@@ -19717,10 +19490,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="67">
         <f t="shared" si="0"/>
@@ -19733,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D67" s="69">
         <f t="shared" si="0"/>
@@ -19742,7 +19515,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="69">
         <f t="shared" si="0"/>
@@ -19751,7 +19524,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" s="68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="69">
         <f t="shared" si="0"/>
@@ -19760,7 +19533,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D70" s="69">
         <f t="shared" si="0"/>
@@ -19769,7 +19542,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="0"/>
@@ -19788,10 +19561,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="67">
         <f t="shared" si="0"/>
@@ -19804,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D75" s="69">
         <f t="shared" si="0"/>
@@ -19813,7 +19586,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D76" s="69">
         <f t="shared" si="0"/>
@@ -19822,7 +19595,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="69">
         <f t="shared" si="0"/>
@@ -19855,10 +19628,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="67">
         <f t="shared" si="0"/>
@@ -19871,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="69">
         <f>SUMIF($D$11:$D$32,C83,$F$11:$F$32)</f>
@@ -19880,7 +19653,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D84" s="69">
         <f t="shared" si="0"/>
@@ -19889,7 +19662,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D85" s="69">
         <f t="shared" si="0"/>
@@ -19898,7 +19671,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D86" s="69">
         <f t="shared" si="0"/>
@@ -19907,7 +19680,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D87" s="69">
         <f t="shared" si="0"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="845" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="154">
   <si>
     <t>JAN</t>
   </si>
@@ -534,6 +534,21 @@
   </si>
   <si>
     <t>internet 5G</t>
+  </si>
+  <si>
+    <t>presente da marcelles</t>
+  </si>
+  <si>
+    <t>gasolina pro coroa</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>oléo</t>
+  </si>
+  <si>
+    <t>açaí</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2285,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2279,7 +2294,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2288,7 +2303,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2532,37 +2547,37 @@
                   <c:v>1443.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,7 +2687,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>744.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2792,40 +2807,40 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1413.24</c:v>
+                  <c:v>698.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,11 +2856,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1904788096"/>
-        <c:axId val="-1904796256"/>
+        <c:axId val="-1156056160"/>
+        <c:axId val="-1156053984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1904788096"/>
+        <c:axId val="-1156056160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +2902,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904796256"/>
+        <c:crossAx val="-1156053984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2895,7 +2910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1904796256"/>
+        <c:axId val="-1156053984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,7 +2960,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904788096"/>
+        <c:crossAx val="-1156056160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4487,8 +4502,8 @@
   </sheetPr>
   <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4555,11 +4570,11 @@
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>0</v>
+        <v>507.69</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4584,7 +4599,7 @@
       <c r="D6" s="27"/>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I6" s="14">
         <v>46026</v>
@@ -4596,7 +4611,7 @@
       <c r="D7" s="28"/>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4661,11 +4676,21 @@
       <c r="P10" s="60"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="21">
+        <v>46026</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="33">
+        <v>63</v>
+      </c>
       <c r="H11" s="18">
         <v>46026</v>
       </c>
@@ -4684,56 +4709,118 @@
       <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="34"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="61"/>
+      <c r="B12" s="22">
+        <v>46028</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="34">
+        <v>30</v>
+      </c>
+      <c r="H12" s="19">
+        <v>46027</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="61">
+        <v>147</v>
+      </c>
       <c r="M12" s="77"/>
       <c r="N12" s="96"/>
       <c r="O12" s="87"/>
       <c r="P12" s="61"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="61"/>
+      <c r="B13" s="22">
+        <v>46029</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="34">
+        <v>349</v>
+      </c>
+      <c r="H13" s="19">
+        <v>46034</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="61">
+        <v>30</v>
+      </c>
       <c r="M13" s="77"/>
       <c r="N13" s="96"/>
       <c r="O13" s="87"/>
       <c r="P13" s="61"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="34"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="13"/>
+      <c r="B14" s="22">
+        <v>46029</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="34">
+        <v>42</v>
+      </c>
+      <c r="H14" s="19">
+        <v>46032</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="61"/>
+      <c r="K14" s="61">
+        <v>30</v>
+      </c>
       <c r="M14" s="77"/>
       <c r="N14" s="96"/>
       <c r="O14" s="87"/>
       <c r="P14" s="61"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="22">
+        <v>46031</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="34">
+        <v>23.69</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="13"/>
       <c r="J15" s="1"/>
@@ -4967,7 +5054,7 @@
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -5013,7 +5100,7 @@
       </c>
       <c r="I39" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5049,7 +5136,7 @@
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="73">
         <f>SUBTOTAL(9,D41:D48)</f>
-        <v>0</v>
+        <v>23.69</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>22</v>
@@ -5063,7 +5150,7 @@
       </c>
       <c r="I42" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -5118,7 +5205,7 @@
       </c>
       <c r="D46" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -5153,7 +5240,7 @@
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="73">
         <f>SUM(D50:D56)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C51" s="68" t="s">
         <v>83</v>
@@ -5178,7 +5265,7 @@
       </c>
       <c r="D53" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -5224,14 +5311,14 @@
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="73">
         <f>SUM(D58:D64)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C59" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -5258,7 +5345,7 @@
       </c>
       <c r="D62" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -5573,7 +5660,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -5594,7 +5681,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5632,11 +5719,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Set!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6612,7 +6699,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -6633,7 +6720,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6671,11 +6758,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Out!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7649,7 +7736,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7671,7 +7758,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
       <c r="N4"/>
     </row>
@@ -7712,11 +7799,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Nov!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="N7"/>
     </row>
@@ -8722,8 +8809,8 @@
   </sheetPr>
   <dimension ref="B1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8797,51 +8884,51 @@
       </c>
       <c r="D3" s="41">
         <f>Fev!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="E3" s="41">
         <f>Mar!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F3" s="41">
         <f>Abr!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="G3" s="41">
         <f>Mai!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="H3" s="41">
         <f>Jun!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="41">
         <f>Jul!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="J3" s="41">
         <f>Ago!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="K3" s="41">
         <f>Set!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="L3" s="41">
         <f>Out!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="M3" s="41">
         <f>Nov!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="N3" s="103">
         <f>Dez!$F$3</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="O3" s="103">
         <f>SUM(C3:N3)</f>
-        <v>16988.88</v>
+        <v>9127.2900000000009</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -8850,7 +8937,7 @@
       </c>
       <c r="C4" s="43">
         <f>Jan!$F$4</f>
-        <v>0</v>
+        <v>507.69</v>
       </c>
       <c r="D4" s="43">
         <f>Fev!$F$4</f>
@@ -8898,7 +8985,7 @@
       </c>
       <c r="O4" s="104">
         <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
-        <v>0</v>
+        <v>507.69</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -8907,7 +8994,7 @@
       </c>
       <c r="C5" s="44">
         <f>Jan!$F$6</f>
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="D5" s="44">
         <f>Fev!$F$6</f>
@@ -8955,7 +9042,7 @@
       </c>
       <c r="O5" s="105">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -8964,7 +9051,7 @@
       </c>
       <c r="C6" s="45">
         <f>C4+C5</f>
-        <v>30</v>
+        <v>744.69</v>
       </c>
       <c r="D6" s="45">
         <f t="shared" ref="D6:N6" si="1">D4+D5</f>
@@ -9012,7 +9099,7 @@
       </c>
       <c r="O6" s="106">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>744.69</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -9021,55 +9108,55 @@
       </c>
       <c r="C7" s="102">
         <f>C3-C6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="D7" s="102">
         <f t="shared" ref="D7:N7" si="2">D3-D6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="E7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="G7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="H7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="J7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="L7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="M7" s="102">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="N7" s="107">
         <f t="shared" si="2"/>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="O7" s="107">
         <f t="shared" si="0"/>
-        <v>16958.88</v>
+        <v>8382.6</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9129,7 +9216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>57</v>
@@ -9236,8 +9325,8 @@
         <v>21</v>
       </c>
       <c r="C15" s="114">
-        <f>Fev!$B$42</f>
-        <v>0</v>
+        <f>Jan!$B$42</f>
+        <v>23.69</v>
       </c>
       <c r="D15" s="115">
         <f>Fev!$B$42</f>
@@ -9285,7 +9374,7 @@
       </c>
       <c r="O15" s="122">
         <f t="shared" ref="O15:O20" si="3">SUM(C15:N15)</f>
-        <v>0</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -9294,7 +9383,7 @@
       </c>
       <c r="C16" s="114">
         <f>Jan!$B$51</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D16" s="115">
         <f>Fev!B51</f>
@@ -9342,7 +9431,7 @@
       </c>
       <c r="O16" s="122">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -9351,7 +9440,7 @@
       </c>
       <c r="C17" s="114">
         <f>Jan!$B$59</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D17" s="115">
         <f>Fev!$B$59</f>
@@ -9399,7 +9488,7 @@
       </c>
       <c r="O17" s="122">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -9622,7 +9711,7 @@
       </c>
       <c r="G26" s="69">
         <f>SUBTOTAL(9,Jan!I36,Fev!I36,Mar!I36,Abr!I36,Mai!I36,Jun!I36,Jul!I36,Ago!I36,Set!I36,Out!I36,Nov!I36,Dez!I36)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -9666,7 +9755,7 @@
       </c>
       <c r="G29" s="69">
         <f>SUBTOTAL(9,Jan!I39,Fev!I39,Mar!I39,Abr!I39,Mai!I39,Jun!I39,Jul!I39,Ago!I39,Set!I39,Out!I39,Nov!I39,Dez!I39)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -9722,7 +9811,7 @@
       </c>
       <c r="G32" s="69">
         <f>SUBTOTAL(9,Jan!I42,Fev!I42,Mar!I42,Abr!I42,Mai!I42,Jun!I42,Jul!I42,Ago!I42,Set!I42,Out!I42,Nov!I42,Dez!I42)</f>
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -11369,7 +11458,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -11390,7 +11479,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11428,11 +11517,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jan!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -12400,7 +12489,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -12421,7 +12510,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12459,11 +12548,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Fev!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13431,7 +13520,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -13452,7 +13541,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13490,11 +13579,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Mar!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14462,7 +14551,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -14483,7 +14572,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14521,11 +14610,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Abr!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15493,7 +15582,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -15514,7 +15603,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15552,11 +15641,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Mai!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16524,7 +16613,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -16545,7 +16634,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16583,11 +16672,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jun!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17580,7 +17669,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -17603,7 +17692,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17641,11 +17730,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jul!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -18709,7 +18798,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -18730,7 +18819,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46026</v>
+        <v>46034</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18768,11 +18857,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Ago!F7</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>1413.24</v>
+        <v>698.55</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
